--- a/Spraw4/lab4.xlsx
+++ b/Spraw4/lab4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\Programy\FIZ31\Spraw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C248FAFF-B0FF-4748-A08C-A8473DFE6D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E34ECA5-4D1A-4E17-BB79-4F664AB167F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
   <si>
     <t>Zamienie Indukcji B (kąt co 10 stopni)</t>
   </si>
@@ -77,12 +77,15 @@
   <si>
     <t>od 0 do 7,5mA</t>
   </si>
+  <si>
+    <t>Drugie pomiary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +107,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +132,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -132,20 +147,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
     <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -252,7 +270,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$D$9:$D$44</c:f>
+              <c:f>Arkusz1!$D$4:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -369,7 +387,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$G$9:$G$44</c:f>
+              <c:f>Arkusz1!$G$4:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -776,7 +794,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$K$8:$K$44</c:f>
+              <c:f>Arkusz1!$K$3:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -896,7 +914,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$G$9:$G$44</c:f>
+              <c:f>Arkusz1!$G$4:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -2313,13 +2331,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>404309</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>123937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>510989</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2349,13 +2367,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>327211</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>116539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2647,15 +2665,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K815"/>
+  <dimension ref="B1:K810"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="2"/>
     <col min="10" max="10" width="10.21875" style="2" bestFit="1" customWidth="1"/>
@@ -2664,183 +2683,276 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I1"/>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1"/>
       <c r="K1"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K3" s="2">
+        <f>$I$3*SIN(D4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.32</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="2">
+        <f>$I$3*SIN(D5)</f>
+        <v>-0.27201055544468489</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="J5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K5" s="2">
+        <f>$I$3*SIN(D6)</f>
+        <v>0.45647262536381383</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K39" si="0">$I$3*SIN(D7)</f>
+        <v>-0.49401581204643091</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>46.42</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="J7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37255658023967442</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="D8" s="1">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>56.49</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="J8" s="2">
         <v>0.05</v>
       </c>
       <c r="K8" s="2">
-        <f>$I$8*SIN(D9)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-0.13118742685196438</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>8.32</v>
+        <v>64.67</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="2">
         <v>0.05</v>
       </c>
       <c r="K9" s="2">
-        <f>$I$8*SIN(D10)</f>
-        <v>-0.27201055544468489</v>
+        <f t="shared" si="0"/>
+        <v>-0.15240531055110834</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>21.8</v>
+        <v>71.510000000000005</v>
       </c>
       <c r="H10" s="1"/>
       <c r="J10" s="2">
         <v>0.05</v>
       </c>
       <c r="K10" s="2">
-        <f>$I$8*SIN(D11)</f>
-        <v>0.45647262536381383</v>
+        <f t="shared" si="0"/>
+        <v>0.38694534077894455</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>34.119999999999997</v>
+        <v>75.95</v>
       </c>
       <c r="H11" s="1"/>
       <c r="J11" s="2">
         <v>0.05</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K9:K49" si="0">$I$8*SIN(D12)</f>
-        <v>-0.49401581204643091</v>
+        <f t="shared" si="0"/>
+        <v>-0.49694432696168761</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>46.42</v>
+        <v>78.23</v>
       </c>
       <c r="H12" s="1"/>
       <c r="J12" s="2">
@@ -2848,23 +2960,23 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>0.37255658023967442</v>
+        <v>0.44699833180027893</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>56.49</v>
+        <v>78.209999999999994</v>
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="2">
@@ -2872,23 +2984,23 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>-0.13118742685196438</v>
+        <v>-0.2531828205548794</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>64.67</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="H14" s="1"/>
       <c r="J14" s="2">
@@ -2896,23 +3008,23 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>-0.15240531055110834</v>
+        <v>-2.2121339042535482E-2</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>71.510000000000005</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="2">
@@ -2920,23 +3032,23 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>0.38694534077894455</v>
+        <v>0.29030559210615714</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>75.95</v>
+        <v>64.319999999999993</v>
       </c>
       <c r="H16" s="1"/>
       <c r="J16" s="2">
@@ -2944,23 +3056,23 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
-        <v>-0.49694432696168761</v>
+        <v>-0.46505297509338089</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
-        <v>78.23</v>
+        <v>55.45</v>
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="2">
@@ -2968,23 +3080,23 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>0.44699833180027893</v>
+        <v>0.49011982972015578</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>78.209999999999994</v>
+        <v>45.21</v>
       </c>
       <c r="H18" s="1"/>
       <c r="J18" s="2">
@@ -2992,23 +3104,23 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
-        <v>-0.2531828205548794</v>
+        <v>-0.35743821481458232</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>75.709999999999994</v>
+        <v>33.75</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="2">
@@ -3016,23 +3128,23 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
-        <v>-2.2121339042535482E-2</v>
+        <v>0.10971262918950236</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <v>70.900000000000006</v>
+        <v>21.34</v>
       </c>
       <c r="H20" s="1"/>
       <c r="J20" s="2">
@@ -3040,23 +3152,23 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>0.29030559210615714</v>
+        <v>0.17332472774851515</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
-        <v>64.319999999999993</v>
+        <v>8.08</v>
       </c>
       <c r="H21" s="1"/>
       <c r="J21" s="2">
@@ -3064,23 +3176,23 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="0"/>
-        <v>-0.46505297509338089</v>
+        <v>-0.40057631786691522</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
-        <v>55.45</v>
+        <v>-5.05</v>
       </c>
       <c r="H22" s="1"/>
       <c r="J22" s="2">
@@ -3088,23 +3200,23 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="0"/>
-        <v>0.49011982972015578</v>
+        <v>0.49889963934030013</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
-        <v>45.21</v>
+        <v>-18.34</v>
       </c>
       <c r="H23" s="1"/>
       <c r="J23" s="2">
@@ -3112,23 +3224,23 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" si="0"/>
-        <v>-0.35743821481458232</v>
+        <v>-0.43664864860699731</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
-        <v>33.75</v>
+        <v>-30.73</v>
       </c>
       <c r="H24" s="1"/>
       <c r="J24" s="2">
@@ -3136,23 +3248,23 @@
       </c>
       <c r="K24" s="2">
         <f t="shared" si="0"/>
-        <v>0.10971262918950236</v>
+        <v>0.23385925917137948</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
-        <v>21.34</v>
+        <v>-41.9</v>
       </c>
       <c r="H25" s="1"/>
       <c r="J25" s="2">
@@ -3160,23 +3272,23 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" si="0"/>
-        <v>0.17332472774851515</v>
+        <v>4.4199356243765746E-2</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
-        <v>8.08</v>
+        <v>-51.61</v>
       </c>
       <c r="H26" s="1"/>
       <c r="J26" s="2">
@@ -3184,23 +3296,23 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
-        <v>-0.40057631786691522</v>
+        <v>-0.30803210202668224</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>-5.05</v>
+        <v>-59.25</v>
       </c>
       <c r="H27" s="1"/>
       <c r="J27" s="2">
@@ -3208,23 +3320,23 @@
       </c>
       <c r="K27" s="2">
         <f t="shared" si="0"/>
-        <v>0.49889963934030013</v>
+        <v>0.4727225774605584</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <v>-18.34</v>
+        <v>-65.42</v>
       </c>
       <c r="H28" s="1"/>
       <c r="J28" s="2">
@@ -3232,23 +3344,23 @@
       </c>
       <c r="K28" s="2">
         <f t="shared" si="0"/>
-        <v>-0.43664864860699731</v>
+        <v>-0.48526400977090267</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E29" s="1">
         <v>5</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
-        <v>-30.73</v>
+        <v>-69.489999999999995</v>
       </c>
       <c r="H29" s="1"/>
       <c r="J29" s="2">
@@ -3256,23 +3368,23 @@
       </c>
       <c r="K29" s="2">
         <f t="shared" si="0"/>
-        <v>0.23385925917137948</v>
+        <v>0.34161985190792538</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
-        <v>-41.9</v>
+        <v>-71.790000000000006</v>
       </c>
       <c r="H30" s="1"/>
       <c r="J30" s="2">
@@ -3280,23 +3392,23 @@
       </c>
       <c r="K30" s="2">
         <f t="shared" si="0"/>
-        <v>4.4199356243765746E-2</v>
+        <v>-8.8022973235605706E-2</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
-        <v>-51.61</v>
+        <v>-71.62</v>
       </c>
       <c r="H31" s="1"/>
       <c r="J31" s="2">
@@ -3304,23 +3416,23 @@
       </c>
       <c r="K31" s="2">
         <f t="shared" si="0"/>
-        <v>-0.30803210202668224</v>
+        <v>-0.19390471041461474</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1">
-        <v>-59.25</v>
+        <v>-69.66</v>
       </c>
       <c r="H32" s="1"/>
       <c r="J32" s="2">
@@ -3328,23 +3440,23 @@
       </c>
       <c r="K32" s="2">
         <f t="shared" si="0"/>
-        <v>0.4727225774605584</v>
+        <v>0.41342281696104072</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
-        <v>-65.42</v>
+        <v>-65.17</v>
       </c>
       <c r="H33" s="1"/>
       <c r="J33" s="2">
@@ -3352,23 +3464,23 @@
       </c>
       <c r="K33" s="2">
         <f t="shared" si="0"/>
-        <v>-0.48526400977090267</v>
+        <v>-0.49987791995057473</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1">
-        <v>-69.489999999999995</v>
+        <v>-58.73</v>
       </c>
       <c r="H34" s="1"/>
       <c r="J34" s="2">
@@ -3376,23 +3488,23 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="0"/>
-        <v>0.34161985190792538</v>
+        <v>0.42544384432792981</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
-        <v>-71.790000000000006</v>
+        <v>-50.44</v>
       </c>
       <c r="H35" s="1"/>
       <c r="J35" s="2">
@@ -3400,23 +3512,23 @@
       </c>
       <c r="K35" s="2">
         <f t="shared" si="0"/>
-        <v>-8.8022973235605706E-2</v>
+        <v>-0.21407771404222578</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1">
-        <v>-71.62</v>
+        <v>-41.01</v>
       </c>
       <c r="H36" s="1"/>
       <c r="J36" s="2">
@@ -3424,23 +3536,23 @@
       </c>
       <c r="K36" s="2">
         <f t="shared" si="0"/>
-        <v>-0.19390471041461474</v>
+        <v>-6.6190814602725967E-2</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="E37" s="1">
         <v>5</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
-        <v>-69.66</v>
+        <v>-29.71</v>
       </c>
       <c r="H37" s="1"/>
       <c r="J37" s="2">
@@ -3448,23 +3560,23 @@
       </c>
       <c r="K37" s="2">
         <f t="shared" si="0"/>
-        <v>0.41342281696104072</v>
+        <v>0.32515537008127626</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D38" s="1">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
-        <v>-65.17</v>
+        <v>-17.14</v>
       </c>
       <c r="H38" s="1"/>
       <c r="J38" s="2">
@@ -3472,23 +3584,23 @@
       </c>
       <c r="K38" s="2">
         <f t="shared" si="0"/>
-        <v>-0.49987791995057473</v>
+        <v>-0.47946641252030658</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
-        <v>-58.73</v>
+        <v>-4.79</v>
       </c>
       <c r="H39" s="1"/>
       <c r="J39" s="2">
@@ -3496,225 +3608,212 @@
       </c>
       <c r="K39" s="2">
         <f t="shared" si="0"/>
-        <v>0.42544384432792981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1">
-        <v>32</v>
-      </c>
-      <c r="D40" s="1">
-        <v>310</v>
-      </c>
-      <c r="E40" s="1">
-        <v>5</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1">
-        <v>-50.44</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="J40" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.21407771404222578</v>
-      </c>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <v>33</v>
-      </c>
-      <c r="D41" s="1">
-        <v>320</v>
-      </c>
-      <c r="E41" s="1">
-        <v>5</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1">
-        <v>-41.01</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="J41" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.6190814602725967E-2</v>
-      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1">
-        <v>34</v>
-      </c>
-      <c r="D42" s="1">
-        <v>330</v>
-      </c>
-      <c r="E42" s="1">
-        <v>5</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1">
-        <v>-29.71</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="J42" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="0"/>
-        <v>0.32515537008127626</v>
-      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1">
-        <v>35</v>
-      </c>
-      <c r="D43" s="1">
-        <v>340</v>
-      </c>
-      <c r="E43" s="1">
-        <v>5</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1">
-        <v>-17.14</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="J43" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K43" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.47946641252030658</v>
-      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1">
-        <v>36</v>
-      </c>
-      <c r="D44" s="1">
-        <v>350</v>
-      </c>
-      <c r="E44" s="1">
-        <v>5</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1">
-        <v>-4.79</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="J44" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C46" s="3">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>8.32</v>
+      </c>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C47" s="3">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3">
+        <v>10.93</v>
+      </c>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="3">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3">
+        <v>12.73</v>
+      </c>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49" s="3">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3">
+        <v>14.56</v>
+      </c>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C50" s="3">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3">
+        <v>16.29</v>
+      </c>
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C51" s="3">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3">
+        <v>17.95</v>
+      </c>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52" s="3">
+        <v>11</v>
+      </c>
+      <c r="D52" s="3">
+        <v>19.649999999999999</v>
+      </c>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C53" s="3">
+        <v>12</v>
+      </c>
+      <c r="D53" s="3">
+        <v>21.31</v>
+      </c>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C54" s="3">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3">
+        <v>23.05</v>
+      </c>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C55" s="3">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3">
+        <v>24.92</v>
+      </c>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C56" s="3">
+        <v>15</v>
+      </c>
+      <c r="D56" s="3">
+        <v>26.05</v>
+      </c>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
@@ -7448,31 +7547,6 @@
       <c r="I810"/>
       <c r="J810"/>
       <c r="K810"/>
-    </row>
-    <row r="811" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I811"/>
-      <c r="J811"/>
-      <c r="K811"/>
-    </row>
-    <row r="812" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I812"/>
-      <c r="J812"/>
-      <c r="K812"/>
-    </row>
-    <row r="813" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I813"/>
-      <c r="J813"/>
-      <c r="K813"/>
-    </row>
-    <row r="814" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I814"/>
-      <c r="J814"/>
-      <c r="K814"/>
-    </row>
-    <row r="815" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I815"/>
-      <c r="J815"/>
-      <c r="K815"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spraw4/lab4.xlsx
+++ b/Spraw4/lab4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\Programy\FIZ31\Spraw4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E34ECA5-4D1A-4E17-BB79-4F664AB167F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C83DE5-61E9-48B6-8309-0F039EEF2AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Zamienie Indukcji B (kąt co 10 stopni)</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Przedzialka co 0.1 mA</t>
   </si>
   <si>
-    <t>56,49</t>
-  </si>
-  <si>
     <t>Kat:</t>
   </si>
   <si>
@@ -79,6 +76,15 @@
   </si>
   <si>
     <t>Drugie pomiary</t>
+  </si>
+  <si>
+    <t>ALPHA_0:</t>
+  </si>
+  <si>
+    <t>I[A]</t>
+  </si>
+  <si>
+    <t>U[V]</t>
   </si>
 </sst>
 </file>
@@ -193,6 +199,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>U_H</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>(B_n)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -224,19 +259,9 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10954768153980753"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.8668248031496063"/>
-          <c:h val="0.61498432487605714"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -245,10 +270,8 @@
             <c:v>U_H</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -268,244 +291,304 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$4:$D$39</c:f>
+              <c:f>Arkusz1!$K$4:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-4.4349079341127418E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>-0.13011447762148057</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>-0.21193041063070422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>-0.28731345613975895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>-0.35397545432421595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>-0.409892962047336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>-0.45336867199299496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>-0.48308293234606114</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>-0.49813380320355832</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>-0.49806443385341675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>-0.482876929917119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>-0.45303228943614393</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120</c:v>
+                  <c:v>-0.40943640984222751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130</c:v>
+                  <c:v>-0.35341259055268304</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>140</c:v>
+                  <c:v>-0.2866613658407508</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150</c:v>
+                  <c:v>-0.21120888720489905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>160</c:v>
+                  <c:v>-0.12934542202690102</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>170</c:v>
+                  <c:v>-4.3555835316440056E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>180</c:v>
+                  <c:v>4.3555835316440056E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>190</c:v>
+                  <c:v>0.12934542202690102</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>200</c:v>
+                  <c:v>0.21120888720489905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>210</c:v>
+                  <c:v>0.2866613658407508</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>220</c:v>
+                  <c:v>0.35341259055268304</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>230</c:v>
+                  <c:v>0.40943640984222751</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>240</c:v>
+                  <c:v>0.45303228943614393</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>250</c:v>
+                  <c:v>0.482876929917119</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>260</c:v>
+                  <c:v>0.49806443385341675</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>270</c:v>
+                  <c:v>0.49813380320355832</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>280</c:v>
+                  <c:v>0.48308293234606114</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>290</c:v>
+                  <c:v>0.45336867199299496</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>300</c:v>
+                  <c:v>0.409892962047336</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>310</c:v>
+                  <c:v>0.35397545432421595</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>320</c:v>
+                  <c:v>0.28731345613975895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>330</c:v>
+                  <c:v>0.21193041063070422</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>340</c:v>
+                  <c:v>0.13011447762148057</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>350</c:v>
+                  <c:v>4.4349079341127418E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Arkusz1!$G$4:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>8.32</c:v>
+                  <c:v>8.320000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.8</c:v>
+                  <c:v>2.18E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.119999999999997</c:v>
+                  <c:v>3.4119999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.42</c:v>
+                  <c:v>4.6420000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.49</c:v>
+                  <c:v>5.6489999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.67</c:v>
+                  <c:v>6.4670000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.510000000000005</c:v>
+                  <c:v>7.1510000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.95</c:v>
+                  <c:v>7.5950000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.23</c:v>
+                  <c:v>7.8230000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.209999999999994</c:v>
+                  <c:v>7.8209999999999988E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.709999999999994</c:v>
+                  <c:v>7.571E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.900000000000006</c:v>
+                  <c:v>7.0900000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.319999999999993</c:v>
+                  <c:v>6.4319999999999988E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.45</c:v>
+                  <c:v>5.5450000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.21</c:v>
+                  <c:v>4.521E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.75</c:v>
+                  <c:v>3.3750000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.34</c:v>
+                  <c:v>2.1340000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.08</c:v>
+                  <c:v>8.0800000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.05</c:v>
+                  <c:v>-5.0499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-18.34</c:v>
+                  <c:v>-1.8339999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-30.73</c:v>
+                  <c:v>-3.073E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-41.9</c:v>
+                  <c:v>-4.19E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-51.61</c:v>
+                  <c:v>-5.1609999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-59.25</c:v>
+                  <c:v>-5.9249999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-65.42</c:v>
+                  <c:v>-6.5420000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-69.489999999999995</c:v>
+                  <c:v>-6.9489999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-71.790000000000006</c:v>
+                  <c:v>-7.1790000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-71.62</c:v>
+                  <c:v>-7.1620000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-69.66</c:v>
+                  <c:v>-6.966E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-65.17</c:v>
+                  <c:v>-6.5170000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-58.73</c:v>
+                  <c:v>-5.8729999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-50.44</c:v>
+                  <c:v>-5.0439999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-41.01</c:v>
+                  <c:v>-4.1009999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-29.71</c:v>
+                  <c:v>-2.971E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-17.14</c:v>
+                  <c:v>-1.7139999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-4.79</c:v>
+                  <c:v>-4.79E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-2FFD-446B-B60A-3A68C5B2EA57}"/>
+              <c16:uniqueId val="{00000000-9518-422D-8873-498BA023833E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -517,18 +600,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1639144752"/>
-        <c:axId val="1646618192"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1639144752"/>
+        <c:axId val="655757391"/>
+        <c:axId val="642694703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="655757391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>B_n [T]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -538,8 +689,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -566,15 +717,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646618192"/>
+        <c:crossAx val="642694703"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1646618192"/>
+        <c:axId val="642694703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,14 +742,84 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>U_H [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1896486515165549E-2"/>
+              <c:y val="0.47964408090634914"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -625,9 +843,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1639144752"/>
+        <c:crossAx val="655757391"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -637,39 +855,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -727,6 +914,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>U_H(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>α</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -759,20 +982,18 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>U_H</c:v>
+            <c:v>U_H(alfa)</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -792,247 +1013,409 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$K$3:$K$39</c:f>
+              <c:f>Arkusz1!$D$4:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.27201055544468489</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45647262536381383</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.49401581204643091</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37255658023967442</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.13118742685196438</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.15240531055110834</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38694534077894455</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.49694432696168761</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44699833180027893</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.2531828205548794</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.2121339042535482E-2</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29030559210615714</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.46505297509338089</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.49011982972015578</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.35743821481458232</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10971262918950236</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17332472774851515</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.40057631786691522</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.49889963934030013</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.43664864860699731</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.23385925917137948</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4199356243765746E-2</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.30803210202668224</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4727225774605584</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.48526400977090267</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.34161985190792538</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-8.8022973235605706E-2</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.19390471041461474</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.41342281696104072</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.49987791995057473</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.42544384432792981</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.21407771404222578</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-6.6190814602725967E-2</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.32515537008127626</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.47946641252030658</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Arkusz1!$G$4:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>8.32</c:v>
+                  <c:v>8.320000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.8</c:v>
+                  <c:v>2.18E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.119999999999997</c:v>
+                  <c:v>3.4119999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.42</c:v>
+                  <c:v>4.6420000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.49</c:v>
+                  <c:v>5.6489999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.67</c:v>
+                  <c:v>6.4670000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.510000000000005</c:v>
+                  <c:v>7.1510000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.95</c:v>
+                  <c:v>7.5950000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.23</c:v>
+                  <c:v>7.8230000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.209999999999994</c:v>
+                  <c:v>7.8209999999999988E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.709999999999994</c:v>
+                  <c:v>7.571E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.900000000000006</c:v>
+                  <c:v>7.0900000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.319999999999993</c:v>
+                  <c:v>6.4319999999999988E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.45</c:v>
+                  <c:v>5.5450000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.21</c:v>
+                  <c:v>4.521E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.75</c:v>
+                  <c:v>3.3750000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.34</c:v>
+                  <c:v>2.1340000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.08</c:v>
+                  <c:v>8.0800000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.05</c:v>
+                  <c:v>-5.0499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-18.34</c:v>
+                  <c:v>-1.8339999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-30.73</c:v>
+                  <c:v>-3.073E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-41.9</c:v>
+                  <c:v>-4.19E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-51.61</c:v>
+                  <c:v>-5.1609999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-59.25</c:v>
+                  <c:v>-5.9249999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-65.42</c:v>
+                  <c:v>-6.5420000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-69.489999999999995</c:v>
+                  <c:v>-6.9489999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-71.790000000000006</c:v>
+                  <c:v>-7.1790000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-71.62</c:v>
+                  <c:v>-7.1620000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-69.66</c:v>
+                  <c:v>-6.966E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-65.17</c:v>
+                  <c:v>-6.5170000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-58.73</c:v>
+                  <c:v>-5.8729999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-50.44</c:v>
+                  <c:v>-5.0439999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-41.01</c:v>
+                  <c:v>-4.1009999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-29.71</c:v>
+                  <c:v>-2.971E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-17.14</c:v>
+                  <c:v>-1.7139999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-4.79</c:v>
+                  <c:v>-4.79E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-0D4C-499E-BC70-3A3DE12B9DAA}"/>
+              <c16:uniqueId val="{00000000-46C5-47F6-9B66-F94B1AA6632D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>S_alfa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5"/>
+            <c:backward val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$19:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$19:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.3750000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1340000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0800000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8339999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.073E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.19E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.1609999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.9249999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.5420000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.9489999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46C5-47F6-9B66-F94B1AA6632D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1044,18 +1427,96 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1850513584"/>
-        <c:axId val="1646634416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1850513584"/>
+        <c:axId val="643010479"/>
+        <c:axId val="594533551"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="643010479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> [˚]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1065,8 +1526,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1093,15 +1554,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1646634416"/>
+        <c:crossAx val="594533551"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1646634416"/>
+        <c:axId val="594533551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,14 +1579,76 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>U_H [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1152,9 +1672,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850513584"/>
+        <c:crossAx val="643010479"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1164,8 +1684,65 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1179,7 +1756,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1194,16 +1771,461 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>U[V]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="5.000000000000001E-3"/>
+            <c:backward val="5.000000000000001E-3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$46:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$46:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.320000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.093E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.273E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.456E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6289999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7950000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9649999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1309999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3050000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4920000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.605E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B926-47FB-ACD7-AD069AF5ABFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="697728223"/>
+        <c:axId val="594543535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="697728223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594543535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594543535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>U_H [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697728223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1319,8 +2341,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1347,8 +2409,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1449,7 +2511,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1481,10 +2543,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1524,22 +2586,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1644,8 +2707,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1777,19 +2840,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1803,6 +2867,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1823,7 +2898,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1850,8 +2925,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1952,7 +3027,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1984,10 +3059,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2027,22 +3102,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2147,8 +3223,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2280,19 +3356,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2306,6 +3383,533 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2330,22 +3934,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>404309</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123937</xdr:rowOff>
+      <xdr:colOff>367144</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>510989</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>41563</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1">
+        <xdr:cNvPr id="4" name="Wykres 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CE44B7-20D4-430A-8D57-AF419933980E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA2CDEF-4F42-43A0-9413-31CACA42CF4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,22 +3970,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>327211</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>116539</xdr:rowOff>
+      <xdr:colOff>337456</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2">
+        <xdr:cNvPr id="5" name="Wykres 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D42FEE-FC49-406D-881C-371508D596D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C994B4-9D4D-4AEA-94FD-851C9B8D0FE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,6 +3998,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>130627</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{373806FC-358E-4A26-88B2-DA5E18EDC606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2665,10 +4305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K810"/>
+  <dimension ref="B1:AA810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2681,12 +4321,15 @@
     <col min="11" max="11" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="AA1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2703,16 +4346,22 @@
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2720,13 +4369,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -2740,12 +4389,14 @@
       <c r="J3" s="2">
         <v>0.05</v>
       </c>
-      <c r="K3" s="2">
-        <f>$I$3*SIN(D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>175</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>1</v>
@@ -2760,18 +4411,22 @@
         <v>8</v>
       </c>
       <c r="G4" s="1">
-        <v>8.32</v>
+        <f>AA2/1000</f>
+        <v>8.320000000000001E-3</v>
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="2">
         <v>0.05</v>
       </c>
       <c r="K4" s="2">
-        <f>$I$3*SIN(D5)</f>
-        <v>-0.27201055544468489</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+        <f>$I$3*SIN((D4-$L$3)*(3.14/180))</f>
+        <v>-4.4349079341127418E-2</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>34.119999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>2</v>
@@ -2784,18 +4439,22 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>21.8</v>
+        <f t="shared" ref="G5:G39" si="0">AA3/1000</f>
+        <v>2.18E-2</v>
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="2">
         <v>0.05</v>
       </c>
       <c r="K5" s="2">
-        <f>$I$3*SIN(D6)</f>
-        <v>0.45647262536381383</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K5:K39" si="1">$I$3*SIN((D5-$L$3)*(3.14/180))</f>
+        <v>-0.13011447762148057</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>3</v>
@@ -2808,18 +4467,22 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>34.119999999999997</v>
+        <f t="shared" si="0"/>
+        <v>3.4119999999999998E-2</v>
       </c>
       <c r="H6" s="1"/>
       <c r="J6" s="2">
         <v>0.05</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:K39" si="0">$I$3*SIN(D7)</f>
-        <v>-0.49401581204643091</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.21193041063070422</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>56.49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>4</v>
@@ -2832,18 +4495,22 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <v>46.42</v>
+        <f t="shared" si="0"/>
+        <v>4.6420000000000003E-2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="J7" s="2">
         <v>0.05</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.37255658023967442</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.28731345613975895</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>64.67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>5</v>
@@ -2856,18 +4523,22 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>56.49</v>
+        <f t="shared" si="0"/>
+        <v>5.6489999999999999E-2</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="2">
         <v>0.05</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.13118742685196438</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.35397545432421595</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>71.510000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>6</v>
@@ -2880,18 +4551,22 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>64.67</v>
+        <f t="shared" si="0"/>
+        <v>6.4670000000000005E-2</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="2">
         <v>0.05</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.15240531055110834</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.409892962047336</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>7</v>
@@ -2904,18 +4579,22 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>71.510000000000005</v>
+        <f t="shared" si="0"/>
+        <v>7.1510000000000004E-2</v>
       </c>
       <c r="H10" s="1"/>
       <c r="J10" s="2">
         <v>0.05</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38694534077894455</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.45336867199299496</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>78.23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>8</v>
@@ -2928,18 +4607,22 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>75.95</v>
+        <f t="shared" si="0"/>
+        <v>7.5950000000000004E-2</v>
       </c>
       <c r="H11" s="1"/>
       <c r="J11" s="2">
         <v>0.05</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.49694432696168761</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.48308293234606114</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>78.209999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>9</v>
@@ -2952,18 +4635,22 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>78.23</v>
+        <f t="shared" si="0"/>
+        <v>7.8230000000000008E-2</v>
       </c>
       <c r="H12" s="1"/>
       <c r="J12" s="2">
         <v>0.05</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44699833180027893</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.49813380320355832</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>75.709999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>10</v>
@@ -2976,18 +4663,22 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>78.209999999999994</v>
+        <f t="shared" si="0"/>
+        <v>7.8209999999999988E-2</v>
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="2">
         <v>0.05</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.2531828205548794</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.49806443385341675</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>11</v>
@@ -3000,18 +4691,22 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>75.709999999999994</v>
+        <f t="shared" si="0"/>
+        <v>7.571E-2</v>
       </c>
       <c r="H14" s="1"/>
       <c r="J14" s="2">
         <v>0.05</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.2121339042535482E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.482876929917119</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>64.319999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>12</v>
@@ -3024,18 +4719,22 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>70.900000000000006</v>
+        <f t="shared" si="0"/>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="2">
         <v>0.05</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.29030559210615714</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.45303228943614393</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>55.45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>13</v>
@@ -3048,18 +4747,22 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>64.319999999999993</v>
+        <f t="shared" si="0"/>
+        <v>6.4319999999999988E-2</v>
       </c>
       <c r="H16" s="1"/>
       <c r="J16" s="2">
         <v>0.05</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.46505297509338089</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.40943640984222751</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>45.21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>14</v>
@@ -3072,18 +4775,22 @@
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
-        <v>55.45</v>
+        <f t="shared" si="0"/>
+        <v>5.5450000000000006E-2</v>
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="2">
         <v>0.05</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49011982972015578</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.35341259055268304</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>33.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>15</v>
@@ -3096,18 +4803,22 @@
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>45.21</v>
+        <f t="shared" si="0"/>
+        <v>4.521E-2</v>
       </c>
       <c r="H18" s="1"/>
       <c r="J18" s="2">
         <v>0.05</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.35743821481458232</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.2866613658407508</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>16</v>
@@ -3120,18 +4831,22 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1">
-        <v>33.75</v>
+        <f t="shared" si="0"/>
+        <v>3.3750000000000002E-2</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="2">
         <v>0.05</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10971262918950236</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.21120888720489905</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1">
         <v>17</v>
@@ -3144,18 +4859,22 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1">
-        <v>21.34</v>
+        <f t="shared" si="0"/>
+        <v>2.1340000000000001E-2</v>
       </c>
       <c r="H20" s="1"/>
       <c r="J20" s="2">
         <v>0.05</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="0"/>
-        <v>0.17332472774851515</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-0.12934542202690102</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>-5.05</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1">
         <v>18</v>
@@ -3168,18 +4887,22 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1">
-        <v>8.08</v>
+        <f t="shared" si="0"/>
+        <v>8.0800000000000004E-3</v>
       </c>
       <c r="H21" s="1"/>
       <c r="J21" s="2">
         <v>0.05</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.40057631786691522</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>-4.3555835316440056E-2</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>-18.34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>19</v>
@@ -3192,18 +4915,22 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
-        <v>-5.05</v>
+        <f t="shared" si="0"/>
+        <v>-5.0499999999999998E-3</v>
       </c>
       <c r="H22" s="1"/>
       <c r="J22" s="2">
         <v>0.05</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="0"/>
-        <v>0.49889963934030013</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>4.3555835316440056E-2</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>-30.73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>20</v>
@@ -3216,18 +4943,22 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
-        <v>-18.34</v>
+        <f t="shared" si="0"/>
+        <v>-1.8339999999999999E-2</v>
       </c>
       <c r="H23" s="1"/>
       <c r="J23" s="2">
         <v>0.05</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.43664864860699731</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.12934542202690102</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>-41.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1">
         <v>21</v>
@@ -3240,18 +4971,22 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
-        <v>-30.73</v>
+        <f t="shared" si="0"/>
+        <v>-3.073E-2</v>
       </c>
       <c r="H24" s="1"/>
       <c r="J24" s="2">
         <v>0.05</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="0"/>
-        <v>0.23385925917137948</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.21120888720489905</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>-51.61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1">
         <v>22</v>
@@ -3264,18 +4999,22 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
-        <v>-41.9</v>
+        <f t="shared" si="0"/>
+        <v>-4.19E-2</v>
       </c>
       <c r="H25" s="1"/>
       <c r="J25" s="2">
         <v>0.05</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4199356243765746E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.2866613658407508</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>-59.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1">
         <v>23</v>
@@ -3288,18 +5027,22 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
-        <v>-51.61</v>
+        <f t="shared" si="0"/>
+        <v>-5.1609999999999996E-2</v>
       </c>
       <c r="H26" s="1"/>
       <c r="J26" s="2">
         <v>0.05</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.30803210202668224</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.35341259055268304</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>-65.42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1">
         <v>24</v>
@@ -3312,18 +5055,22 @@
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <v>-59.25</v>
+        <f t="shared" si="0"/>
+        <v>-5.9249999999999997E-2</v>
       </c>
       <c r="H27" s="1"/>
       <c r="J27" s="2">
         <v>0.05</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.4727225774605584</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.40943640984222751</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>-69.489999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1">
         <v>25</v>
@@ -3336,18 +5083,22 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
-        <v>-65.42</v>
+        <f t="shared" si="0"/>
+        <v>-6.5420000000000006E-2</v>
       </c>
       <c r="H28" s="1"/>
       <c r="J28" s="2">
         <v>0.05</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.48526400977090267</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.45303228943614393</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>-71.790000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1">
         <v>26</v>
@@ -3360,18 +5111,22 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1">
-        <v>-69.489999999999995</v>
+        <f t="shared" si="0"/>
+        <v>-6.9489999999999996E-2</v>
       </c>
       <c r="H29" s="1"/>
       <c r="J29" s="2">
         <v>0.05</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="0"/>
-        <v>0.34161985190792538</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.482876929917119</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>-71.62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1">
         <v>27</v>
@@ -3384,18 +5139,22 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
-        <v>-71.790000000000006</v>
+        <f t="shared" si="0"/>
+        <v>-7.1790000000000007E-2</v>
       </c>
       <c r="H30" s="1"/>
       <c r="J30" s="2">
         <v>0.05</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.8022973235605706E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.49806443385341675</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>-69.66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1">
         <v>28</v>
@@ -3408,18 +5167,22 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
-        <v>-71.62</v>
+        <f t="shared" si="0"/>
+        <v>-7.1620000000000003E-2</v>
       </c>
       <c r="H31" s="1"/>
       <c r="J31" s="2">
         <v>0.05</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.19390471041461474</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.49813380320355832</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>-65.17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1">
         <v>29</v>
@@ -3432,18 +5195,22 @@
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1">
-        <v>-69.66</v>
+        <f t="shared" si="0"/>
+        <v>-6.966E-2</v>
       </c>
       <c r="H32" s="1"/>
       <c r="J32" s="2">
         <v>0.05</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="0"/>
-        <v>0.41342281696104072</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.48308293234606114</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>-58.73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1">
         <v>30</v>
@@ -3456,18 +5223,22 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
-        <v>-65.17</v>
+        <f t="shared" si="0"/>
+        <v>-6.5170000000000006E-2</v>
       </c>
       <c r="H33" s="1"/>
       <c r="J33" s="2">
         <v>0.05</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.49987791995057473</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.45336867199299496</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>-50.44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>31</v>
@@ -3480,18 +5251,22 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1">
-        <v>-58.73</v>
+        <f t="shared" si="0"/>
+        <v>-5.8729999999999997E-2</v>
       </c>
       <c r="H34" s="1"/>
       <c r="J34" s="2">
         <v>0.05</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="0"/>
-        <v>0.42544384432792981</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.409892962047336</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>-41.01</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1">
         <v>32</v>
@@ -3504,18 +5279,22 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
-        <v>-50.44</v>
+        <f t="shared" si="0"/>
+        <v>-5.0439999999999999E-2</v>
       </c>
       <c r="H35" s="1"/>
       <c r="J35" s="2">
         <v>0.05</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.21407771404222578</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.35397545432421595</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>-29.71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1">
         <v>33</v>
@@ -3528,18 +5307,22 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1">
-        <v>-41.01</v>
+        <f t="shared" si="0"/>
+        <v>-4.1009999999999998E-2</v>
       </c>
       <c r="H36" s="1"/>
       <c r="J36" s="2">
         <v>0.05</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.6190814602725967E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.28731345613975895</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>-17.14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1">
         <v>34</v>
@@ -3552,18 +5335,22 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
-        <v>-29.71</v>
+        <f t="shared" si="0"/>
+        <v>-2.971E-2</v>
       </c>
       <c r="H37" s="1"/>
       <c r="J37" s="2">
         <v>0.05</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="0"/>
-        <v>0.32515537008127626</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.21193041063070422</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>-4.79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1">
         <v>35</v>
@@ -3576,18 +5363,19 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1">
-        <v>-17.14</v>
+        <f t="shared" si="0"/>
+        <v>-1.7139999999999999E-2</v>
       </c>
       <c r="H38" s="1"/>
       <c r="J38" s="2">
         <v>0.05</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.47946641252030658</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.13011447762148057</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1">
         <v>36</v>
@@ -3600,91 +5388,121 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1">
-        <v>-4.79</v>
+        <f t="shared" si="0"/>
+        <v>-4.79E-3</v>
       </c>
       <c r="H39" s="1"/>
       <c r="J39" s="2">
         <v>0.05</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>4.4349079341127418E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="3"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C46" s="3">
         <v>5</v>
       </c>
       <c r="D46" s="3">
         <v>8.32</v>
+      </c>
+      <c r="F46" s="3">
+        <f>C46/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G46" s="3">
+        <f>D46/1000</f>
+        <v>8.320000000000001E-3</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C47" s="3">
         <v>6</v>
       </c>
       <c r="D47" s="3">
         <v>10.93</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" ref="F47:F56" si="2">C47/1000</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" ref="G47:G56" si="3">D47/1000</f>
+        <v>1.093E-2</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C48" s="3">
         <v>7</v>
       </c>
       <c r="D48" s="3">
         <v>12.73</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="3"/>
+        <v>1.273E-2</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -3697,6 +5515,14 @@
       <c r="D49" s="3">
         <v>14.56</v>
       </c>
+      <c r="F49" s="3">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="3"/>
+        <v>1.456E-2</v>
+      </c>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
@@ -3708,6 +5534,14 @@
       <c r="D50" s="3">
         <v>16.29</v>
       </c>
+      <c r="F50" s="3">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6289999999999999E-2</v>
+      </c>
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
@@ -3719,6 +5553,14 @@
       <c r="D51" s="3">
         <v>17.95</v>
       </c>
+      <c r="F51" s="3">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7950000000000001E-2</v>
+      </c>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
@@ -3730,6 +5572,14 @@
       <c r="D52" s="3">
         <v>19.649999999999999</v>
       </c>
+      <c r="F52" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="3"/>
+        <v>1.9649999999999997E-2</v>
+      </c>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
@@ -3741,6 +5591,14 @@
       <c r="D53" s="3">
         <v>21.31</v>
       </c>
+      <c r="F53" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1309999999999999E-2</v>
+      </c>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
@@ -3752,6 +5610,14 @@
       <c r="D54" s="3">
         <v>23.05</v>
       </c>
+      <c r="F54" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="3"/>
+        <v>2.3050000000000001E-2</v>
+      </c>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -3763,6 +5629,14 @@
       <c r="D55" s="3">
         <v>24.92</v>
       </c>
+      <c r="F55" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="3"/>
+        <v>2.4920000000000001E-2</v>
+      </c>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -3773,6 +5647,14 @@
       </c>
       <c r="D56" s="3">
         <v>26.05</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="3"/>
+        <v>2.605E-2</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -7549,6 +9431,9 @@
       <c r="K810"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K47:K82">
+    <sortCondition ref="K47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Spraw4/lab4.xlsx
+++ b/Spraw4/lab4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C83DE5-61E9-48B6-8309-0F039EEF2AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC4622-C306-48F9-A35D-5AAF0B4B0932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Zamienie Indukcji B (kąt co 10 stopni)</t>
   </si>
@@ -69,9 +69,6 @@
     <t>B_0</t>
   </si>
   <si>
-    <t>u(B_0)0.05</t>
-  </si>
-  <si>
     <t>od 0 do 7,5mA</t>
   </si>
   <si>
@@ -85,6 +82,27 @@
   </si>
   <si>
     <t>U[V]</t>
+  </si>
+  <si>
+    <t>S_alfa</t>
+  </si>
+  <si>
+    <t>a:</t>
+  </si>
+  <si>
+    <t>b:</t>
+  </si>
+  <si>
+    <t>niep:</t>
+  </si>
+  <si>
+    <t>u(I):</t>
+  </si>
+  <si>
+    <t>Reglinp U(I)</t>
+  </si>
+  <si>
+    <t>u(B_n)</t>
   </si>
 </sst>
 </file>
@@ -351,6 +369,512 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$J$4:$J$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="36"/>
+                  <c:pt idx="0">
+                    <c:v>4.8700546528992559E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3111539593186785E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1223289993216116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8734492292558058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.5389004692488887E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.538900469248888E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.8734492292558061E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1223289993216113E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3111539593186769E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.8700546528992542E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.8700546528992542E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.3111539593186769E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.1223289993216113E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.8734492292558061E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.538900469248888E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.5389004692488887E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.8734492292558058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2.1223289993216116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1.3111539593186785E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>4.8700546528992559E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$J$4:$J$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="36"/>
+                  <c:pt idx="0">
+                    <c:v>4.8700546528992559E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3111539593186785E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1223289993216116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8734492292558058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.5389004692488887E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.538900469248888E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.8734492292558061E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1223289993216113E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3111539593186769E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.8700546528992542E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.8700546528992542E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.3111539593186769E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.1223289993216113E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.8734492292558061E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.538900469248888E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.5389004692488887E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.8734492292558058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2.1223289993216116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1.3111539593186785E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>4.8700546528992559E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$J$4:$J$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="36"/>
+                  <c:pt idx="0">
+                    <c:v>4.8700546528992559E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3111539593186785E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1223289993216116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8734492292558058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.5389004692488887E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.538900469248888E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.8734492292558061E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1223289993216113E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3111539593186769E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.8700546528992542E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.8700546528992542E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.3111539593186769E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.1223289993216113E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.8734492292558061E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.538900469248888E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.5389004692488887E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.8734492292558058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2.1223289993216116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1.3111539593186785E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>4.8700546528992559E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$J$4:$J$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="36"/>
+                  <c:pt idx="0">
+                    <c:v>4.8700546528992559E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3111539593186785E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.1223289993216116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8734492292558058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.5389004692488887E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.538900469248888E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.8734492292558061E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.1223289993216113E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.3111539593186769E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.8700546528992542E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4.8700546528992542E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.3111539593186769E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.1223289993216113E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.8734492292558061E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.538900469248888E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>4.9810098112007116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>4.8299594571241451E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>4.5324775433683656E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>4.0976728260549565E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>3.5389004692488887E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.8734492292558058E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2.1223289993216116E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1.3111539593186785E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>4.8700546528992559E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$K$4:$K$39</c:f>
@@ -358,112 +882,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-4.4349079341127418E-2</c:v>
+                  <c:v>-4.3577871373829097E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.13011447762148057</c:v>
+                  <c:v>-0.12940952255126051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.21193041063070422</c:v>
+                  <c:v>-0.21130913087034975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.28731345613975895</c:v>
+                  <c:v>-0.28678821817552297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.35397545432421595</c:v>
+                  <c:v>-0.35355339059327379</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.409892962047336</c:v>
+                  <c:v>-0.40957602214449584</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.45336867199299496</c:v>
+                  <c:v>-0.45315389351832502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.48308293234606114</c:v>
+                  <c:v>-0.48296291314453416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.49813380320355832</c:v>
+                  <c:v>-0.49809734904587277</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.49806443385341675</c:v>
+                  <c:v>-0.49809734904587277</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.482876929917119</c:v>
+                  <c:v>-0.48296291314453416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.45303228943614393</c:v>
+                  <c:v>-0.45315389351832497</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.40943640984222751</c:v>
+                  <c:v>-0.4095760221444959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.35341259055268304</c:v>
+                  <c:v>-0.35355339059327373</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.2866613658407508</c:v>
+                  <c:v>-0.28678821817552302</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.21120888720489905</c:v>
+                  <c:v>-0.21130913087034972</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.12934542202690102</c:v>
+                  <c:v>-0.12940952255126037</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.3555835316440056E-2</c:v>
+                  <c:v>-4.3577871373829083E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3555835316440056E-2</c:v>
+                  <c:v>4.3577871373829083E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12934542202690102</c:v>
+                  <c:v>0.12940952255126037</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21120888720489905</c:v>
+                  <c:v>0.21130913087034972</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2866613658407508</c:v>
+                  <c:v>0.28678821817552302</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.35341259055268304</c:v>
+                  <c:v>0.35355339059327373</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.40943640984222751</c:v>
+                  <c:v>0.4095760221444959</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.45303228943614393</c:v>
+                  <c:v>0.45315389351832497</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.482876929917119</c:v>
+                  <c:v>0.48296291314453416</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.49806443385341675</c:v>
+                  <c:v>0.49809734904587277</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.49813380320355832</c:v>
+                  <c:v>0.49809734904587277</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.48308293234606114</c:v>
+                  <c:v>0.48296291314453416</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.45336867199299496</c:v>
+                  <c:v>0.45315389351832502</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.409892962047336</c:v>
+                  <c:v>0.40957602214449584</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.35397545432421595</c:v>
+                  <c:v>0.35355339059327379</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.28731345613975895</c:v>
+                  <c:v>0.28678821817552297</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.21193041063070422</c:v>
+                  <c:v>0.21130913087034975</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.13011447762148057</c:v>
+                  <c:v>0.12940952255126051</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.4349079341127418E-2</c:v>
+                  <c:v>4.3577871373829097E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,6 +1537,46 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0000000000000002E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$D$4:$D$39</c:f>
@@ -1298,6 +1862,67 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17661557884756737"/>
+                  <c:y val="-0.12943961150071925"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>y = -0.0011x + 0.1896</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="pl-PL" sz="1200" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1200" baseline="0"/>
+                      <a:t>u(A)=0.0001</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1200" baseline="0"/>
+                      <a:t>u(B)=</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>0.0101</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1743,6 +2368,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>U</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>(I)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1839,8 +2493,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="5.000000000000001E-3"/>
-            <c:backward val="5.000000000000001E-3"/>
+            <c:forward val="2.0000000000000005E-3"/>
+            <c:backward val="2.0000000000000005E-3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1874,6 +2528,92 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$L$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.165E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$L$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.165E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$L$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.165E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$L$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.165E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$F$46:$F$56</c:f>
@@ -3934,15 +4674,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>367144</xdr:colOff>
+      <xdr:colOff>315686</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>41563</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>41562</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3972,11 +4712,11 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>337456</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>43542</xdr:rowOff>
     </xdr:to>
@@ -4005,16 +4745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>478971</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>130627</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>517392</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4305,10 +5045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AA810"/>
+  <dimension ref="B1:AF810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="N44" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4316,20 +5056,23 @@
     <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="2"/>
-    <col min="10" max="10" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.3">
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4349,19 +5092,19 @@
         <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA2" s="1">
         <v>8.32</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4375,7 +5118,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -4386,9 +5129,6 @@
       <c r="I3" s="2">
         <v>0.5</v>
       </c>
-      <c r="J3" s="2">
-        <v>0.05</v>
-      </c>
       <c r="L3">
         <v>175</v>
       </c>
@@ -4396,7 +5136,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>1</v>
@@ -4416,17 +5156,18 @@
       </c>
       <c r="H4" s="1"/>
       <c r="J4" s="2">
-        <v>0.05</v>
+        <f>SQRT(0.0873*0.0873*((0.025*COS(RADIANS(D4-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D4-$L$3)))^2))</f>
+        <v>4.8700546528992559E-3</v>
       </c>
       <c r="K4" s="2">
-        <f>$I$3*SIN((D4-$L$3)*(3.14/180))</f>
-        <v>-4.4349079341127418E-2</v>
+        <f>$I$3*SIN(RADIANS(D4-$L$3))</f>
+        <v>-4.3577871373829097E-2</v>
       </c>
       <c r="AA4" s="1">
         <v>34.119999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>2</v>
@@ -4444,17 +5185,24 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="2">
-        <v>0.05</v>
+        <f>SQRT(0.0873*0.0873*((0.025*COS(RADIANS(D5-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D5-$L$3)))^2))</f>
+        <v>1.3111539593186785E-2</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K39" si="1">$I$3*SIN((D5-$L$3)*(3.14/180))</f>
-        <v>-0.13011447762148057</v>
+        <f t="shared" ref="K5:K39" si="1">$I$3*SIN(RADIANS(D5-$L$3))</f>
+        <v>-0.12940952255126051</v>
       </c>
       <c r="AA5" s="1">
         <v>46.42</v>
       </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>3</v>
@@ -4472,17 +5220,37 @@
       </c>
       <c r="H6" s="1"/>
       <c r="J6" s="2">
-        <v>0.05</v>
+        <f t="shared" ref="J6:J39" si="2">SQRT(0.0873*0.0873*((0.025*COS(RADIANS(D6-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D6-$L$3)))^2))</f>
+        <v>2.1223289993216116E-2</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>-0.21193041063070422</v>
+        <v>-0.21130913087034975</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
       </c>
       <c r="AA6" s="1">
         <v>56.49</v>
       </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AB6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6">
+        <f t="array" ref="AC6:AF13">LINEST(G19:G29,D19:D29,TRUE,TRUE)</f>
+        <v>-1.0744636363636364E-3</v>
+      </c>
+      <c r="AD6">
+        <v>0.18956363636363635</v>
+      </c>
+      <c r="AE6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>4</v>
@@ -4500,17 +5268,36 @@
       </c>
       <c r="H7" s="1"/>
       <c r="J7" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>2.8734492292558058E-2</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="1"/>
-        <v>-0.28731345613975895</v>
+        <v>-0.28678821817552297</v>
+      </c>
+      <c r="L7">
+        <v>2.165E-4</v>
       </c>
       <c r="AA7" s="1">
         <v>64.67</v>
       </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AB7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC7">
+        <v>5.0045648491812204E-5</v>
+      </c>
+      <c r="AD7">
+        <v>1.0133471480771386E-2</v>
+      </c>
+      <c r="AE7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>5</v>
@@ -4528,17 +5315,30 @@
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>3.5389004692488887E-2</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="1"/>
-        <v>-0.35397545432421595</v>
+        <v>-0.35355339059327379</v>
       </c>
       <c r="AA8" s="1">
         <v>71.510000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>0.98084889596954339</v>
+      </c>
+      <c r="AD8">
+        <v>5.2488318950625838E-3</v>
+      </c>
+      <c r="AE8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>6</v>
@@ -4556,17 +5356,30 @@
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.0976728260549565E-2</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>-0.409892962047336</v>
+        <v>-0.40957602214449584</v>
       </c>
       <c r="AA9" s="1">
         <v>75.95</v>
       </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>460.94679709780752</v>
+      </c>
+      <c r="AD9">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>7</v>
@@ -4584,17 +5397,30 @@
       </c>
       <c r="H10" s="1"/>
       <c r="J10" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.5324775433683656E-2</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="1"/>
-        <v>-0.45336867199299496</v>
+        <v>-0.45315389351832502</v>
       </c>
       <c r="AA10" s="1">
         <v>78.23</v>
       </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>1.2699193164545453E-2</v>
+      </c>
+      <c r="AD10">
+        <v>2.4795212636363647E-4</v>
+      </c>
+      <c r="AE10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>8</v>
@@ -4612,17 +5438,34 @@
       </c>
       <c r="H11" s="1"/>
       <c r="J11" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.8299594571241451E-2</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="1"/>
-        <v>-0.48308293234606114</v>
+        <v>-0.48296291314453416</v>
+      </c>
+      <c r="L11">
+        <f>SIN(180*(D4-$L$3)/3.14159)</f>
+        <v>0.92979894367396276</v>
       </c>
       <c r="AA11" s="1">
         <v>78.209999999999994</v>
       </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>9</v>
@@ -4640,17 +5483,30 @@
       </c>
       <c r="H12" s="1"/>
       <c r="J12" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.9810098112007116E-2</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="1"/>
-        <v>-0.49813380320355832</v>
+        <v>-0.49809734904587277</v>
       </c>
       <c r="AA12" s="1">
         <v>75.709999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>10</v>
@@ -4668,17 +5524,30 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.9810098112007116E-2</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="1"/>
-        <v>-0.49806443385341675</v>
+        <v>-0.49809734904587277</v>
       </c>
       <c r="AA13" s="1">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>11</v>
@@ -4696,17 +5565,18 @@
       </c>
       <c r="H14" s="1"/>
       <c r="J14" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.8299594571241451E-2</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="1"/>
-        <v>-0.482876929917119</v>
+        <v>-0.48296291314453416</v>
       </c>
       <c r="AA14" s="1">
         <v>64.319999999999993</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>12</v>
@@ -4724,17 +5594,18 @@
       </c>
       <c r="H15" s="1"/>
       <c r="J15" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.5324775433683656E-2</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="1"/>
-        <v>-0.45303228943614393</v>
+        <v>-0.45315389351832497</v>
       </c>
       <c r="AA15" s="1">
         <v>55.45</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>13</v>
@@ -4752,11 +5623,12 @@
       </c>
       <c r="H16" s="1"/>
       <c r="J16" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.0976728260549565E-2</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="1"/>
-        <v>-0.40943640984222751</v>
+        <v>-0.4095760221444959</v>
       </c>
       <c r="AA16" s="1">
         <v>45.21</v>
@@ -4780,11 +5652,12 @@
       </c>
       <c r="H17" s="1"/>
       <c r="J17" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>3.538900469248888E-2</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="1"/>
-        <v>-0.35341259055268304</v>
+        <v>-0.35355339059327373</v>
       </c>
       <c r="AA17" s="1">
         <v>33.75</v>
@@ -4808,11 +5681,16 @@
       </c>
       <c r="H18" s="1"/>
       <c r="J18" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>2.8734492292558061E-2</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>-0.2866613658407508</v>
+        <v>-0.28678821817552302</v>
+      </c>
+      <c r="L18">
+        <f>SIN(90)</f>
+        <v>0.89399666360055785</v>
       </c>
       <c r="AA18" s="1">
         <v>21.34</v>
@@ -4836,11 +5714,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>2.1223289993216113E-2</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="1"/>
-        <v>-0.21120888720489905</v>
+        <v>-0.21130913087034972</v>
       </c>
       <c r="AA19" s="1">
         <v>8.08</v>
@@ -4864,11 +5743,12 @@
       </c>
       <c r="H20" s="1"/>
       <c r="J20" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>1.3111539593186769E-2</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>-0.12934542202690102</v>
+        <v>-0.12940952255126037</v>
       </c>
       <c r="AA20" s="1">
         <v>-5.05</v>
@@ -4892,11 +5772,12 @@
       </c>
       <c r="H21" s="1"/>
       <c r="J21" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.8700546528992542E-3</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>-4.3555835316440056E-2</v>
+        <v>-4.3577871373829083E-2</v>
       </c>
       <c r="AA21" s="1">
         <v>-18.34</v>
@@ -4920,11 +5801,12 @@
       </c>
       <c r="H22" s="1"/>
       <c r="J22" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.8700546528992542E-3</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>4.3555835316440056E-2</v>
+        <v>4.3577871373829083E-2</v>
       </c>
       <c r="AA22" s="1">
         <v>-30.73</v>
@@ -4948,11 +5830,12 @@
       </c>
       <c r="H23" s="1"/>
       <c r="J23" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>1.3111539593186769E-2</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>0.12934542202690102</v>
+        <v>0.12940952255126037</v>
       </c>
       <c r="AA23" s="1">
         <v>-41.9</v>
@@ -4976,11 +5859,12 @@
       </c>
       <c r="H24" s="1"/>
       <c r="J24" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>2.1223289993216113E-2</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>0.21120888720489905</v>
+        <v>0.21130913087034972</v>
       </c>
       <c r="AA24" s="1">
         <v>-51.61</v>
@@ -5004,11 +5888,12 @@
       </c>
       <c r="H25" s="1"/>
       <c r="J25" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>2.8734492292558061E-2</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>0.2866613658407508</v>
+        <v>0.28678821817552302</v>
       </c>
       <c r="AA25" s="1">
         <v>-59.25</v>
@@ -5032,11 +5917,12 @@
       </c>
       <c r="H26" s="1"/>
       <c r="J26" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>3.538900469248888E-2</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="1"/>
-        <v>0.35341259055268304</v>
+        <v>0.35355339059327373</v>
       </c>
       <c r="AA26" s="1">
         <v>-65.42</v>
@@ -5060,11 +5946,12 @@
       </c>
       <c r="H27" s="1"/>
       <c r="J27" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.0976728260549565E-2</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="1"/>
-        <v>0.40943640984222751</v>
+        <v>0.4095760221444959</v>
       </c>
       <c r="AA27" s="1">
         <v>-69.489999999999995</v>
@@ -5088,11 +5975,12 @@
       </c>
       <c r="H28" s="1"/>
       <c r="J28" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.5324775433683656E-2</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="1"/>
-        <v>0.45303228943614393</v>
+        <v>0.45315389351832497</v>
       </c>
       <c r="AA28" s="1">
         <v>-71.790000000000006</v>
@@ -5116,11 +6004,12 @@
       </c>
       <c r="H29" s="1"/>
       <c r="J29" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.8299594571241451E-2</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>0.482876929917119</v>
+        <v>0.48296291314453416</v>
       </c>
       <c r="AA29" s="1">
         <v>-71.62</v>
@@ -5144,11 +6033,12 @@
       </c>
       <c r="H30" s="1"/>
       <c r="J30" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.9810098112007116E-2</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="1"/>
-        <v>0.49806443385341675</v>
+        <v>0.49809734904587277</v>
       </c>
       <c r="AA30" s="1">
         <v>-69.66</v>
@@ -5172,11 +6062,12 @@
       </c>
       <c r="H31" s="1"/>
       <c r="J31" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.9810098112007116E-2</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="1"/>
-        <v>0.49813380320355832</v>
+        <v>0.49809734904587277</v>
       </c>
       <c r="AA31" s="1">
         <v>-65.17</v>
@@ -5200,11 +6091,12 @@
       </c>
       <c r="H32" s="1"/>
       <c r="J32" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.8299594571241451E-2</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="1"/>
-        <v>0.48308293234606114</v>
+        <v>0.48296291314453416</v>
       </c>
       <c r="AA32" s="1">
         <v>-58.73</v>
@@ -5228,11 +6120,12 @@
       </c>
       <c r="H33" s="1"/>
       <c r="J33" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.5324775433683656E-2</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="1"/>
-        <v>0.45336867199299496</v>
+        <v>0.45315389351832502</v>
       </c>
       <c r="AA33" s="1">
         <v>-50.44</v>
@@ -5256,11 +6149,12 @@
       </c>
       <c r="H34" s="1"/>
       <c r="J34" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.0976728260549565E-2</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="1"/>
-        <v>0.409892962047336</v>
+        <v>0.40957602214449584</v>
       </c>
       <c r="AA34" s="1">
         <v>-41.01</v>
@@ -5284,11 +6178,12 @@
       </c>
       <c r="H35" s="1"/>
       <c r="J35" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>3.5389004692488887E-2</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>0.35397545432421595</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AA35" s="1">
         <v>-29.71</v>
@@ -5312,11 +6207,12 @@
       </c>
       <c r="H36" s="1"/>
       <c r="J36" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>2.8734492292558058E-2</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>0.28731345613975895</v>
+        <v>0.28678821817552297</v>
       </c>
       <c r="AA36" s="1">
         <v>-17.14</v>
@@ -5340,11 +6236,12 @@
       </c>
       <c r="H37" s="1"/>
       <c r="J37" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>2.1223289993216116E-2</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>0.21193041063070422</v>
+        <v>0.21130913087034975</v>
       </c>
       <c r="AA37" s="1">
         <v>-4.79</v>
@@ -5368,11 +6265,12 @@
       </c>
       <c r="H38" s="1"/>
       <c r="J38" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>1.3111539593186785E-2</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>0.13011447762148057</v>
+        <v>0.12940952255126051</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.3">
@@ -5393,41 +6291,37 @@
       </c>
       <c r="H39" s="1"/>
       <c r="J39" s="2">
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>4.8700546528992559E-3</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="1"/>
-        <v>4.4349079341127418E-2</v>
+        <v>4.3577871373829097E-2</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="I40"/>
       <c r="J40"/>
+      <c r="K40"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3"/>
       <c r="I44"/>
@@ -5442,10 +6336,10 @@
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
@@ -5466,7 +6360,9 @@
         <f>D46/1000</f>
         <v>8.320000000000001E-3</v>
       </c>
-      <c r="I46"/>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
       <c r="J46"/>
       <c r="K46"/>
     </row>
@@ -5478,11 +6374,11 @@
         <v>10.93</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" ref="F47:F56" si="2">C47/1000</f>
+        <f t="shared" ref="F47:F56" si="3">C47/1000</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" ref="G47:G56" si="3">D47/1000</f>
+        <f t="shared" ref="G47:G56" si="4">D47/1000</f>
         <v>1.093E-2</v>
       </c>
       <c r="I47"/>
@@ -5497,11 +6393,11 @@
         <v>12.73</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.273E-2</v>
       </c>
       <c r="I48"/>
@@ -5516,11 +6412,11 @@
         <v>14.56</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.456E-2</v>
       </c>
       <c r="I49"/>
@@ -5535,11 +6431,11 @@
         <v>16.29</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6289999999999999E-2</v>
       </c>
       <c r="I50"/>
@@ -5554,11 +6450,11 @@
         <v>17.95</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7950000000000001E-2</v>
       </c>
       <c r="I51"/>
@@ -5573,11 +6469,11 @@
         <v>19.649999999999999</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9649999999999997E-2</v>
       </c>
       <c r="I52"/>
@@ -5592,11 +6488,11 @@
         <v>21.31</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="I53"/>
@@ -5611,11 +6507,11 @@
         <v>23.05</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3050000000000001E-2</v>
       </c>
       <c r="I54"/>
@@ -5630,11 +6526,11 @@
         <v>24.92</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4E-2</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4920000000000001E-2</v>
       </c>
       <c r="I55"/>
@@ -5649,11 +6545,11 @@
         <v>26.05</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.605E-2</v>
       </c>
       <c r="I56"/>

--- a/Spraw4/lab4.xlsx
+++ b/Spraw4/lab4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC4622-C306-48F9-A35D-5AAF0B4B0932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D975217-77DF-4E05-9329-79A9E42961B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Zamienie Indukcji B (kąt co 10 stopni)</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Zakres:</t>
-  </si>
-  <si>
-    <t>200m</t>
   </si>
   <si>
     <t>I[mA]</t>
@@ -99,10 +96,40 @@
     <t>u(I):</t>
   </si>
   <si>
-    <t>Reglinp U(I)</t>
+    <t>u(B_n)</t>
   </si>
   <si>
-    <t>u(B_n)</t>
+    <t>Zakres:200m</t>
+  </si>
+  <si>
+    <t>u(U_H)</t>
+  </si>
+  <si>
+    <t>u(I)</t>
+  </si>
+  <si>
+    <t>u(U)</t>
+  </si>
+  <si>
+    <t>REGLINP dla I*gamma</t>
+  </si>
+  <si>
+    <t>REGLINP U(I)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Gamma=A/I</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -339,6 +366,57 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16918478541756343"/>
+                  <c:y val="-0.16249616380844822"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = -0.1508x + 0.0025</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="pl-PL" sz="1400" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+                      <a:t>u(A)=0.0003</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+                      <a:t>u(B)=0.0001</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -381,112 +459,112 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="36"/>
                   <c:pt idx="0">
-                    <c:v>4.8700546528992559E-3</c:v>
+                    <c:v>4.4078279130376572E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3111539593186785E-2</c:v>
+                    <c:v>1.295687588911964E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1223289993216116E-2</c:v>
+                    <c:v>2.1139501894882656E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.8734492292558058E-2</c:v>
+                    <c:v>2.8683992127352259E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.5389004692488887E-2</c:v>
+                    <c:v>3.535846430226857E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>4.0959377330076603E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>4.5316260384831553E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>4.8296597839015035E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>4.9809768607359001E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>4.9809768607359001E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>4.8296597839015035E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>4.5316260384831553E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>4.095937733007661E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3.538900469248888E-2</c:v>
+                    <c:v>3.5358464302268564E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.8734492292558061E-2</c:v>
+                    <c:v>2.8683992127352266E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.1223289993216113E-2</c:v>
+                    <c:v>2.1139501894882652E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.3111539593186769E-2</c:v>
+                    <c:v>1.2956875889119627E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.8700546528992542E-3</c:v>
+                    <c:v>4.4078279130376563E-3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>4.8700546528992542E-3</c:v>
+                    <c:v>4.4078279130376563E-3</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.3111539593186769E-2</c:v>
+                    <c:v>1.2956875889119627E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.1223289993216113E-2</c:v>
+                    <c:v>2.1139501894882652E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.8734492292558061E-2</c:v>
+                    <c:v>2.8683992127352266E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.538900469248888E-2</c:v>
+                    <c:v>3.5358464302268564E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>4.095937733007661E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>4.5316260384831553E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>4.8296597839015035E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>4.9809768607359001E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>4.9809768607359001E-2</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>4.8296597839015035E-2</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>4.5316260384831553E-2</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>4.0959377330076603E-2</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>3.5389004692488887E-2</c:v>
+                    <c:v>3.535846430226857E-2</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>2.8734492292558058E-2</c:v>
+                    <c:v>2.8683992127352259E-2</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>2.1223289993216116E-2</c:v>
+                    <c:v>2.1139501894882656E-2</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>1.3111539593186785E-2</c:v>
+                    <c:v>1.295687588911964E-2</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>4.8700546528992559E-3</c:v>
+                    <c:v>4.4078279130376572E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -498,112 +576,112 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="36"/>
                   <c:pt idx="0">
-                    <c:v>4.8700546528992559E-3</c:v>
+                    <c:v>4.4078279130376572E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3111539593186785E-2</c:v>
+                    <c:v>1.295687588911964E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1223289993216116E-2</c:v>
+                    <c:v>2.1139501894882656E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.8734492292558058E-2</c:v>
+                    <c:v>2.8683992127352259E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.5389004692488887E-2</c:v>
+                    <c:v>3.535846430226857E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>4.0959377330076603E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>4.5316260384831553E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>4.8296597839015035E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>4.9809768607359001E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>4.9809768607359001E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>4.8296597839015035E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>4.5316260384831553E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>4.095937733007661E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3.538900469248888E-2</c:v>
+                    <c:v>3.5358464302268564E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.8734492292558061E-2</c:v>
+                    <c:v>2.8683992127352266E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.1223289993216113E-2</c:v>
+                    <c:v>2.1139501894882652E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.3111539593186769E-2</c:v>
+                    <c:v>1.2956875889119627E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.8700546528992542E-3</c:v>
+                    <c:v>4.4078279130376563E-3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>4.8700546528992542E-3</c:v>
+                    <c:v>4.4078279130376563E-3</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.3111539593186769E-2</c:v>
+                    <c:v>1.2956875889119627E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.1223289993216113E-2</c:v>
+                    <c:v>2.1139501894882652E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.8734492292558061E-2</c:v>
+                    <c:v>2.8683992127352266E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.538900469248888E-2</c:v>
+                    <c:v>3.5358464302268564E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>4.095937733007661E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>4.5316260384831553E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>4.8296597839015035E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>4.9809768607359001E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>4.9809768607359001E-2</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>4.8296597839015035E-2</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>4.5316260384831553E-2</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>4.0959377330076603E-2</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>3.5389004692488887E-2</c:v>
+                    <c:v>3.535846430226857E-2</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>2.8734492292558058E-2</c:v>
+                    <c:v>2.8683992127352259E-2</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>2.1223289993216116E-2</c:v>
+                    <c:v>2.1139501894882656E-2</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>1.3111539593186785E-2</c:v>
+                    <c:v>1.295687588911964E-2</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>4.8700546528992559E-3</c:v>
+                    <c:v>4.4078279130376572E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -629,234 +707,234 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Arkusz1!$J$4:$J$39</c:f>
+                <c:f>Arkusz1!$H$4:$H$39</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="36"/>
                   <c:pt idx="0">
-                    <c:v>4.8700546528992559E-3</c:v>
+                    <c:v>4.4600000000000011E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3111539593186785E-2</c:v>
+                    <c:v>1.1200000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1223289993216116E-2</c:v>
+                    <c:v>1.7360000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.8734492292558058E-2</c:v>
+                    <c:v>2.3510000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.5389004692488887E-2</c:v>
+                    <c:v>2.8545000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>3.2635000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>3.6055000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>3.8275000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>3.9415000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>3.9404999999999996E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>3.8155000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>3.5750000000000005E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>3.2459999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3.538900469248888E-2</c:v>
+                    <c:v>2.8025000000000007E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.8734492292558061E-2</c:v>
+                    <c:v>2.2905E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.1223289993216113E-2</c:v>
+                    <c:v>1.7175000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.3111539593186769E-2</c:v>
+                    <c:v>1.0970000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.8700546528992542E-3</c:v>
+                    <c:v>4.3400000000000009E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>4.8700546528992542E-3</c:v>
+                    <c:v>2.2250000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.3111539593186769E-2</c:v>
+                    <c:v>8.8699999999999998E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.1223289993216113E-2</c:v>
+                    <c:v>1.5065E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.8734492292558061E-2</c:v>
+                    <c:v>2.065E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.538900469248888E-2</c:v>
+                    <c:v>2.5504999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>2.9324999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>3.2410000000000004E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>3.4445000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>3.5595000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>3.5510000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>3.4529999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>3.2285000000000005E-3</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>2.9064999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>3.5389004692488887E-2</c:v>
+                    <c:v>2.4919999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>2.8734492292558058E-2</c:v>
+                    <c:v>2.0204999999999997E-3</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>2.1223289993216116E-2</c:v>
+                    <c:v>1.4555E-3</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>1.3111539593186785E-2</c:v>
+                    <c:v>8.2700000000000004E-4</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>4.8700546528992559E-3</c:v>
+                    <c:v>2.0950000000000002E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Arkusz1!$J$4:$J$39</c:f>
+                <c:f>Arkusz1!$H$4:$H$39</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="36"/>
                   <c:pt idx="0">
-                    <c:v>4.8700546528992559E-3</c:v>
+                    <c:v>4.4600000000000011E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3111539593186785E-2</c:v>
+                    <c:v>1.1200000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1223289993216116E-2</c:v>
+                    <c:v>1.7360000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.8734492292558058E-2</c:v>
+                    <c:v>2.3510000000000002E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.5389004692488887E-2</c:v>
+                    <c:v>2.8545000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>3.2635000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>3.6055000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>3.8275000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>3.9415000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>3.9404999999999996E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>3.8155000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>3.5750000000000005E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>3.2459999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3.538900469248888E-2</c:v>
+                    <c:v>2.8025000000000007E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.8734492292558061E-2</c:v>
+                    <c:v>2.2905E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.1223289993216113E-2</c:v>
+                    <c:v>1.7175000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.3111539593186769E-2</c:v>
+                    <c:v>1.0970000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.8700546528992542E-3</c:v>
+                    <c:v>4.3400000000000009E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>4.8700546528992542E-3</c:v>
+                    <c:v>2.2250000000000001E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.3111539593186769E-2</c:v>
+                    <c:v>8.8699999999999998E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.1223289993216113E-2</c:v>
+                    <c:v>1.5065E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.8734492292558061E-2</c:v>
+                    <c:v>2.065E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.538900469248888E-2</c:v>
+                    <c:v>2.5504999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>2.9324999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>3.2410000000000004E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>3.4445000000000001E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>3.5595000000000006E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>4.9810098112007116E-2</c:v>
+                    <c:v>3.5510000000000003E-3</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>4.8299594571241451E-2</c:v>
+                    <c:v>3.4529999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>4.5324775433683656E-2</c:v>
+                    <c:v>3.2285000000000005E-3</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>4.0976728260549565E-2</c:v>
+                    <c:v>2.9064999999999998E-3</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>3.5389004692488887E-2</c:v>
+                    <c:v>2.4919999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>2.8734492292558058E-2</c:v>
+                    <c:v>2.0204999999999997E-3</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>2.1223289993216116E-2</c:v>
+                    <c:v>1.4555E-3</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>1.3111539593186785E-2</c:v>
+                    <c:v>8.2700000000000004E-4</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>4.8700546528992559E-3</c:v>
+                    <c:v>2.0950000000000002E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1175,6 +1253,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.5067680780467877"/>
+              <c:y val="0.95216115687261393"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1297,8 +1383,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.1896486515165549E-2"/>
-              <c:y val="0.47964408090634914"/>
+              <c:x val="7.8072592953805798E-3"/>
+              <c:y val="0.42912537988480137"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1560,9 +1646,242 @@
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
-            <c:val val="1.0000000000000002E-2"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$H$4:$H$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="36"/>
+                  <c:pt idx="0">
+                    <c:v>4.4600000000000011E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1200000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7360000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3510000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.8545000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.2635000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.6055000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.8275000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9415000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.9404999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.8155000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.5750000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.2459999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.8025000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.2905E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.7175000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.0970000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.3400000000000009E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.2250000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8.8699999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.5065E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.065E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2.5504999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.9324999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.2410000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.4445000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.5595000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3.5510000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>3.4529999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.2285000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2.9064999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2.4919999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.0204999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1.4555E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>8.2700000000000004E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2.0950000000000002E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$H$4:$H$39</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="36"/>
+                  <c:pt idx="0">
+                    <c:v>4.4600000000000011E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1200000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.7360000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3510000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.8545000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.2635000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.6055000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.8275000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.9415000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.9404999999999996E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.8155000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.5750000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.2459999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.8025000000000007E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.2905E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.7175000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.0970000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4.3400000000000009E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.2250000000000001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>8.8699999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.5065E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.065E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2.5504999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.9324999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.2410000000000004E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.4445000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3.5595000000000006E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>3.5510000000000003E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>3.4529999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>3.2285000000000005E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2.9064999999999998E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2.4919999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2.0204999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1.4555E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>8.2700000000000004E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2.0950000000000002E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1815,232 +2134,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46C5-47F6-9B66-F94B1AA6632D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>S_alfa</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="5"/>
-            <c:backward val="5"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.17661557884756737"/>
-                  <c:y val="-0.12943961150071925"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                      <a:t>y = -0.0011x + 0.1896</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="pl-PL" sz="1200" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="pl-PL" sz="1200" baseline="0"/>
-                      <a:t>u(A)=0.0001</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr/>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="pl-PL" sz="1200" baseline="0"/>
-                      <a:t>u(B)=</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t>0.0101</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-                      <a:t> </a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1200"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$D$19:$D$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>250</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$G$19:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.3750000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1340000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.0800000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.0499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.8339999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.073E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.19E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-5.1609999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-5.9249999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.5420000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6.9489999999999996E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-46C5-47F6-9B66-F94B1AA6632D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2498,6 +2591,57 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.5542173676147476"/>
+                  <c:y val="-1.9128917343292375E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 1.7494x + 0.0003</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="pl-PL" sz="1400" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+                      <a:t>u(A)=0.0318</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+                      <a:t>u(B)=0.0003</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2531,32 +2675,9 @@
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
+            <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Arkusz1!$L$7</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>2.165E-4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Arkusz1!$L$7</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
-                  <c:pt idx="0">
-                    <c:v>2.165E-4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
+            <c:val val="2.2000000000000006E-4"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2578,24 +2699,84 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Arkusz1!$L$7</c:f>
+                <c:f>Arkusz1!$I$46:$I$56</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>2.165E-4</c:v>
+                    <c:v>4.4600000000000011E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7649999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.6649999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.5799999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.4449999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.2750000000000005E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0124999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0955000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1825000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2760000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3325000000000001E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Arkusz1!$L$7</c:f>
+                <c:f>Arkusz1!$I$46:$I$56</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="1"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>2.165E-4</c:v>
+                    <c:v>4.4600000000000011E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.7649999999999997E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.6649999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.5799999999999999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.4449999999999998E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.2750000000000005E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.0124999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.0955000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1825000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2760000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3325000000000001E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4674,15 +4855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:colOff>352321</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>51956</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4711,14 +4892,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>337456</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
+      <xdr:colOff>534865</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4746,15 +4927,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:colOff>385397</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>177484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>517392</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5047,24 +5228,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N44" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -5072,7 +5257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5085,26 +5270,24 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA2" s="1">
         <v>8.32</v>
       </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5112,19 +5295,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2">
         <v>0.5</v>
@@ -5136,7 +5319,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>1</v>
@@ -5148,16 +5331,19 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <f>AA2/1000</f>
         <v>8.320000000000001E-3</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <f>ABS(0.05*G4+3*0.00001)</f>
+        <v>4.4600000000000011E-4</v>
+      </c>
       <c r="J4" s="2">
-        <f>SQRT(0.0873*0.0873*((0.025*COS(RADIANS(D4-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D4-$L$3)))^2))</f>
-        <v>4.8700546528992559E-3</v>
+        <f>SQRT(0.0873*0.0873*(((RADIANS(5)^2)*COS(RADIANS(D4-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D4-$L$3)))^2))</f>
+        <v>4.4078279130376572E-3</v>
       </c>
       <c r="K4" s="2">
         <f>$I$3*SIN(RADIANS(D4-$L$3))</f>
@@ -5167,7 +5353,7 @@
         <v>34.119999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>2</v>
@@ -5183,26 +5369,29 @@
         <f t="shared" ref="G5:G39" si="0">AA3/1000</f>
         <v>2.18E-2</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H39" si="1">ABS(0.05*G5+3*0.00001)</f>
+        <v>1.1200000000000001E-3</v>
+      </c>
       <c r="J5" s="2">
-        <f>SQRT(0.0873*0.0873*((0.025*COS(RADIANS(D5-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D5-$L$3)))^2))</f>
-        <v>1.3111539593186785E-2</v>
+        <f t="shared" ref="J5:J39" si="2">SQRT(0.0873*0.0873*(((RADIANS(5)^2)*COS(RADIANS(D5-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D5-$L$3)))^2))</f>
+        <v>1.295687588911964E-2</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K39" si="1">$I$3*SIN(RADIANS(D5-$L$3))</f>
+        <f t="shared" ref="K5:K39" si="3">$I$3*SIN(RADIANS(D5-$L$3))</f>
         <v>-0.12940952255126051</v>
       </c>
       <c r="AA5" s="1">
         <v>46.42</v>
       </c>
       <c r="AC5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>3</v>
@@ -5218,23 +5407,26 @@
         <f t="shared" si="0"/>
         <v>3.4119999999999998E-2</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7360000000000001E-3</v>
+      </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6:J39" si="2">SQRT(0.0873*0.0873*((0.025*COS(RADIANS(D6-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D6-$L$3)))^2))</f>
-        <v>2.1223289993216116E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.1139501894882656E-2</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.21130913087034975</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA6" s="1">
         <v>56.49</v>
       </c>
       <c r="AB6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC6">
         <f t="array" ref="AC6:AF13">LINEST(G19:G29,D19:D29,TRUE,TRUE)</f>
@@ -5250,7 +5442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>4</v>
@@ -5266,13 +5458,16 @@
         <f t="shared" si="0"/>
         <v>4.6420000000000003E-2</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3510000000000002E-3</v>
+      </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>2.8734492292558058E-2</v>
+        <v>2.8683992127352259E-2</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.28678821817552297</v>
       </c>
       <c r="L7">
@@ -5282,7 +5477,7 @@
         <v>64.67</v>
       </c>
       <c r="AB7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC7">
         <v>5.0045648491812204E-5</v>
@@ -5297,7 +5492,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>5</v>
@@ -5313,13 +5508,16 @@
         <f t="shared" si="0"/>
         <v>5.6489999999999999E-2</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8545000000000003E-3</v>
+      </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>3.5389004692488887E-2</v>
+        <v>3.535846430226857E-2</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.35355339059327379</v>
       </c>
       <c r="AA8" s="1">
@@ -5338,7 +5536,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>6</v>
@@ -5354,13 +5552,16 @@
         <f t="shared" si="0"/>
         <v>6.4670000000000005E-2</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2635000000000003E-3</v>
+      </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>4.0976728260549565E-2</v>
+        <v>4.0959377330076603E-2</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.40957602214449584</v>
       </c>
       <c r="AA9" s="1">
@@ -5379,7 +5580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>7</v>
@@ -5395,13 +5596,16 @@
         <f t="shared" si="0"/>
         <v>7.1510000000000004E-2</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6055000000000006E-3</v>
+      </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>4.5324775433683656E-2</v>
+        <v>4.5316260384831553E-2</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.45315389351832502</v>
       </c>
       <c r="AA10" s="1">
@@ -5420,7 +5624,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>8</v>
@@ -5436,13 +5640,16 @@
         <f t="shared" si="0"/>
         <v>7.5950000000000004E-2</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8275000000000006E-3</v>
+      </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>4.8299594571241451E-2</v>
+        <v>4.8296597839015035E-2</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.48296291314453416</v>
       </c>
       <c r="L11">
@@ -5465,7 +5672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>9</v>
@@ -5481,13 +5688,16 @@
         <f t="shared" si="0"/>
         <v>7.8230000000000008E-2</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9415000000000006E-3</v>
+      </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>4.9810098112007116E-2</v>
+        <v>4.9809768607359001E-2</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.49809734904587277</v>
       </c>
       <c r="AA12" s="1">
@@ -5506,7 +5716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>10</v>
@@ -5522,13 +5732,16 @@
         <f t="shared" si="0"/>
         <v>7.8209999999999988E-2</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9404999999999996E-3</v>
+      </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>4.9810098112007116E-2</v>
+        <v>4.9809768607359001E-2</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.49809734904587277</v>
       </c>
       <c r="AA13" s="1">
@@ -5547,7 +5760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>11</v>
@@ -5563,20 +5776,23 @@
         <f t="shared" si="0"/>
         <v>7.571E-2</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8155000000000003E-3</v>
+      </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>4.8299594571241451E-2</v>
+        <v>4.8296597839015035E-2</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.48296291314453416</v>
       </c>
       <c r="AA14" s="1">
         <v>64.319999999999993</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>12</v>
@@ -5592,20 +5808,23 @@
         <f t="shared" si="0"/>
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5750000000000005E-3</v>
+      </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>4.5324775433683656E-2</v>
+        <v>4.5316260384831553E-2</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.45315389351832497</v>
       </c>
       <c r="AA15" s="1">
         <v>55.45</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>13</v>
@@ -5621,20 +5840,23 @@
         <f t="shared" si="0"/>
         <v>6.4319999999999988E-2</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2459999999999998E-3</v>
+      </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>4.0976728260549565E-2</v>
+        <v>4.095937733007661E-2</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.4095760221444959</v>
       </c>
       <c r="AA16" s="1">
         <v>45.21</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>14</v>
@@ -5650,20 +5872,23 @@
         <f t="shared" si="0"/>
         <v>5.5450000000000006E-2</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8025000000000007E-3</v>
+      </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>3.538900469248888E-2</v>
+        <v>3.5358464302268564E-2</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.35355339059327373</v>
       </c>
       <c r="AA17" s="1">
         <v>33.75</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>15</v>
@@ -5679,13 +5904,16 @@
         <f t="shared" si="0"/>
         <v>4.521E-2</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2905E-3</v>
+      </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>2.8734492292558061E-2</v>
+        <v>2.8683992127352266E-2</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.28678821817552302</v>
       </c>
       <c r="L18">
@@ -5696,7 +5924,7 @@
         <v>21.34</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>16</v>
@@ -5712,20 +5940,23 @@
         <f t="shared" si="0"/>
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7175000000000003E-3</v>
+      </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>2.1223289993216113E-2</v>
+        <v>2.1139501894882652E-2</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.21130913087034972</v>
       </c>
       <c r="AA19" s="1">
         <v>8.08</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1">
         <v>17</v>
@@ -5741,20 +5972,23 @@
         <f t="shared" si="0"/>
         <v>2.1340000000000001E-2</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0970000000000001E-3</v>
+      </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>1.3111539593186769E-2</v>
+        <v>1.2956875889119627E-2</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.12940952255126037</v>
       </c>
       <c r="AA20" s="1">
         <v>-5.05</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1">
         <v>18</v>
@@ -5770,20 +6004,23 @@
         <f t="shared" si="0"/>
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3400000000000009E-4</v>
+      </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>4.8700546528992542E-3</v>
+        <v>4.4078279130376563E-3</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.3577871373829083E-2</v>
       </c>
       <c r="AA21" s="1">
         <v>-18.34</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>19</v>
@@ -5799,20 +6036,23 @@
         <f t="shared" si="0"/>
         <v>-5.0499999999999998E-3</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2250000000000001E-4</v>
+      </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>4.8700546528992542E-3</v>
+        <v>4.4078279130376563E-3</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.3577871373829083E-2</v>
       </c>
       <c r="AA22" s="1">
         <v>-30.73</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>20</v>
@@ -5828,20 +6068,23 @@
         <f t="shared" si="0"/>
         <v>-1.8339999999999999E-2</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8699999999999998E-4</v>
+      </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>1.3111539593186769E-2</v>
+        <v>1.2956875889119627E-2</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12940952255126037</v>
       </c>
       <c r="AA23" s="1">
         <v>-41.9</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1">
         <v>21</v>
@@ -5857,20 +6100,23 @@
         <f t="shared" si="0"/>
         <v>-3.073E-2</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5065E-3</v>
+      </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>2.1223289993216113E-2</v>
+        <v>2.1139501894882652E-2</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.21130913087034972</v>
       </c>
       <c r="AA24" s="1">
         <v>-51.61</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1">
         <v>22</v>
@@ -5886,20 +6132,23 @@
         <f t="shared" si="0"/>
         <v>-4.19E-2</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>2.065E-3</v>
+      </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>2.8734492292558061E-2</v>
+        <v>2.8683992127352266E-2</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.28678821817552302</v>
       </c>
       <c r="AA25" s="1">
         <v>-59.25</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1">
         <v>23</v>
@@ -5915,20 +6164,23 @@
         <f t="shared" si="0"/>
         <v>-5.1609999999999996E-2</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5504999999999998E-3</v>
+      </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>3.538900469248888E-2</v>
+        <v>3.5358464302268564E-2</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.35355339059327373</v>
       </c>
       <c r="AA26" s="1">
         <v>-65.42</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1">
         <v>24</v>
@@ -5944,20 +6196,29 @@
         <f t="shared" si="0"/>
         <v>-5.9249999999999997E-2</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9324999999999998E-3</v>
+      </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>4.0976728260549565E-2</v>
+        <v>4.095937733007661E-2</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.4095760221444959</v>
       </c>
       <c r="AA27" s="1">
         <v>-69.489999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1">
         <v>25</v>
@@ -5973,20 +6234,33 @@
         <f t="shared" si="0"/>
         <v>-6.5420000000000006E-2</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2410000000000004E-3</v>
+      </c>
       <c r="J28" s="2">
         <f t="shared" si="2"/>
-        <v>4.5324775433683656E-2</v>
+        <v>4.5316260384831553E-2</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45315389351832497</v>
       </c>
       <c r="AA28" s="1">
         <v>-71.790000000000006</v>
       </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AB28" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC28">
+        <f t="array" ref="AC28:AD29">LINEST(G4:G39,K4:K39,TRUE,TRUE)</f>
+        <v>-0.15084723961015786</v>
+      </c>
+      <c r="AD28">
+        <v>2.4619444444444233E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1">
         <v>26</v>
@@ -6002,20 +6276,32 @@
         <f t="shared" si="0"/>
         <v>-6.9489999999999996E-2</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4445000000000001E-3</v>
+      </c>
       <c r="J29" s="2">
         <f t="shared" si="2"/>
-        <v>4.8299594571241451E-2</v>
+        <v>4.8296597839015035E-2</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.48296291314453416</v>
       </c>
       <c r="AA29" s="1">
         <v>-71.62</v>
       </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AB29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC29">
+        <v>3.3100286187617601E-4</v>
+      </c>
+      <c r="AD29">
+        <v>1.1702718411239908E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1">
         <v>27</v>
@@ -6031,20 +6317,23 @@
         <f t="shared" si="0"/>
         <v>-7.1790000000000007E-2</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5595000000000006E-3</v>
+      </c>
       <c r="J30" s="2">
         <f t="shared" si="2"/>
-        <v>4.9810098112007116E-2</v>
+        <v>4.9809768607359001E-2</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.49809734904587277</v>
       </c>
       <c r="AA30" s="1">
         <v>-69.66</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1">
         <v>28</v>
@@ -6060,20 +6349,33 @@
         <f t="shared" si="0"/>
         <v>-7.1620000000000003E-2</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5510000000000003E-3</v>
+      </c>
       <c r="J31" s="2">
         <f t="shared" si="2"/>
-        <v>4.9810098112007116E-2</v>
+        <v>4.9809768607359001E-2</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.49809734904587277</v>
       </c>
       <c r="AA31" s="1">
         <v>-65.17</v>
       </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD31">
+        <f>ABS(AC28/F46)</f>
+        <v>30.169447922031573</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1">
         <v>29</v>
@@ -6089,20 +6391,23 @@
         <f t="shared" si="0"/>
         <v>-6.966E-2</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4529999999999999E-3</v>
+      </c>
       <c r="J32" s="2">
         <f t="shared" si="2"/>
-        <v>4.8299594571241451E-2</v>
+        <v>4.8296597839015035E-2</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.48296291314453416</v>
       </c>
       <c r="AA32" s="1">
         <v>-58.73</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1">
         <v>30</v>
@@ -6118,20 +6423,23 @@
         <f t="shared" si="0"/>
         <v>-6.5170000000000006E-2</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2285000000000005E-3</v>
+      </c>
       <c r="J33" s="2">
         <f t="shared" si="2"/>
-        <v>4.5324775433683656E-2</v>
+        <v>4.5316260384831553E-2</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45315389351832502</v>
       </c>
       <c r="AA33" s="1">
         <v>-50.44</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>31</v>
@@ -6147,20 +6455,23 @@
         <f t="shared" si="0"/>
         <v>-5.8729999999999997E-2</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9064999999999998E-3</v>
+      </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
-        <v>4.0976728260549565E-2</v>
+        <v>4.0959377330076603E-2</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.40957602214449584</v>
       </c>
       <c r="AA34" s="1">
         <v>-41.01</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1">
         <v>32</v>
@@ -6176,20 +6487,23 @@
         <f t="shared" si="0"/>
         <v>-5.0439999999999999E-2</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4919999999999999E-3</v>
+      </c>
       <c r="J35" s="2">
         <f t="shared" si="2"/>
-        <v>3.5389004692488887E-2</v>
+        <v>3.535846430226857E-2</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="AA35" s="1">
         <v>-29.71</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1">
         <v>33</v>
@@ -6205,20 +6519,23 @@
         <f t="shared" si="0"/>
         <v>-4.1009999999999998E-2</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0204999999999997E-3</v>
+      </c>
       <c r="J36" s="2">
         <f t="shared" si="2"/>
-        <v>2.8734492292558058E-2</v>
+        <v>2.8683992127352259E-2</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.28678821817552297</v>
       </c>
       <c r="AA36" s="1">
         <v>-17.14</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1">
         <v>34</v>
@@ -6234,20 +6551,23 @@
         <f t="shared" si="0"/>
         <v>-2.971E-2</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4555E-3</v>
+      </c>
       <c r="J37" s="2">
         <f t="shared" si="2"/>
-        <v>2.1223289993216116E-2</v>
+        <v>2.1139501894882656E-2</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.21130913087034975</v>
       </c>
       <c r="AA37" s="1">
         <v>-4.79</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1">
         <v>35</v>
@@ -6263,17 +6583,20 @@
         <f t="shared" si="0"/>
         <v>-1.7139999999999999E-2</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>8.2700000000000004E-4</v>
+      </c>
       <c r="J38" s="2">
         <f t="shared" si="2"/>
-        <v>1.3111539593186785E-2</v>
+        <v>1.295687588911964E-2</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12940952255126051</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1">
         <v>36</v>
@@ -6289,63 +6612,71 @@
         <f t="shared" si="0"/>
         <v>-4.79E-3</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0950000000000002E-4</v>
+      </c>
       <c r="J39" s="2">
         <f t="shared" si="2"/>
-        <v>4.8700546528992559E-3</v>
+        <v>4.4078279130376572E-3</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.3577871373829097E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="3"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45"/>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <v>5</v>
       </c>
@@ -6360,13 +6691,17 @@
         <f>D46/1000</f>
         <v>8.320000000000001E-3</v>
       </c>
-      <c r="I46" t="s">
-        <v>22</v>
+      <c r="H46">
+        <v>2.165E-4</v>
+      </c>
+      <c r="I46">
+        <f>ABS(0.05*G46+3*0.00001)</f>
+        <v>4.4600000000000011E-4</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
         <v>6</v>
       </c>
@@ -6374,18 +6709,21 @@
         <v>10.93</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" ref="F47:F56" si="3">C47/1000</f>
+        <f t="shared" ref="F47:F56" si="4">C47/1000</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" ref="G47:G56" si="4">D47/1000</f>
+        <f t="shared" ref="G47:G56" si="5">D47/1000</f>
         <v>1.093E-2</v>
       </c>
-      <c r="I47"/>
+      <c r="I47">
+        <f t="shared" ref="I47:I56" si="6">ABS(0.05*G47+3*0.00001)</f>
+        <v>5.7649999999999997E-4</v>
+      </c>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <v>7</v>
       </c>
@@ -6393,18 +6731,21 @@
         <v>12.73</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.273E-2</v>
       </c>
-      <c r="I48"/>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>6.6649999999999999E-4</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <v>8</v>
       </c>
@@ -6412,18 +6753,21 @@
         <v>14.56</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.456E-2</v>
       </c>
-      <c r="I49"/>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>7.5799999999999999E-4</v>
+      </c>
       <c r="J49"/>
       <c r="K49"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
         <v>9</v>
       </c>
@@ -6431,18 +6775,21 @@
         <v>16.29</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6289999999999999E-2</v>
       </c>
-      <c r="I50"/>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>8.4449999999999998E-4</v>
+      </c>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
         <v>10</v>
       </c>
@@ -6450,18 +6797,21 @@
         <v>17.95</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7950000000000001E-2</v>
       </c>
-      <c r="I51"/>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>9.2750000000000005E-4</v>
+      </c>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
         <v>11</v>
       </c>
@@ -6469,18 +6819,21 @@
         <v>19.649999999999999</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9649999999999997E-2</v>
       </c>
-      <c r="I52"/>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>1.0124999999999999E-3</v>
+      </c>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
         <v>12</v>
       </c>
@@ -6488,18 +6841,21 @@
         <v>21.31</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2E-2</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1309999999999999E-2</v>
       </c>
-      <c r="I53"/>
+      <c r="I53">
+        <f t="shared" si="6"/>
+        <v>1.0955000000000001E-3</v>
+      </c>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <v>13</v>
       </c>
@@ -6507,18 +6863,21 @@
         <v>23.05</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3050000000000001E-2</v>
       </c>
-      <c r="I54"/>
+      <c r="I54">
+        <f t="shared" si="6"/>
+        <v>1.1825000000000002E-3</v>
+      </c>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C55" s="3">
         <v>14</v>
       </c>
@@ -6526,18 +6885,21 @@
         <v>24.92</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4E-2</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4920000000000001E-2</v>
       </c>
-      <c r="I55"/>
+      <c r="I55">
+        <f t="shared" si="6"/>
+        <v>1.2760000000000002E-3</v>
+      </c>
       <c r="J55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C56" s="3">
         <v>15</v>
       </c>
@@ -6545,3783 +6907,3811 @@
         <v>26.05</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.605E-2</v>
       </c>
-      <c r="I56"/>
+      <c r="I56">
+        <f t="shared" si="6"/>
+        <v>1.3325000000000001E-3</v>
+      </c>
       <c r="J56"/>
       <c r="K56"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="AC60" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="AB61" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC61">
+        <f t="array" ref="AC61:AD62">LINEST(G46:G56,F46:F56,TRUE,TRUE)</f>
+        <v>1.7493636363636362</v>
+      </c>
+      <c r="AD61">
+        <v>3.0272727272727395E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="AB62" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC62">
+        <v>3.1848917334087394E-2</v>
+      </c>
+      <c r="AD62">
+        <v>3.3403426304630569E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
     </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
     </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
     </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
     </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
     </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
     </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
     </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
     </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
     </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
     </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
     </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
     </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
     </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
     </row>
-    <row r="88" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
     </row>
-    <row r="89" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
     </row>
-    <row r="90" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
     </row>
-    <row r="91" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
     </row>
-    <row r="92" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
     </row>
-    <row r="93" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
     </row>
-    <row r="94" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
     </row>
-    <row r="95" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
     </row>
-    <row r="96" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
     </row>
-    <row r="97" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
     </row>
-    <row r="98" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
     </row>
-    <row r="99" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
     </row>
-    <row r="100" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
     </row>
-    <row r="101" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
     </row>
-    <row r="102" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
     </row>
-    <row r="103" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
     </row>
-    <row r="104" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
     </row>
-    <row r="105" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
     </row>
-    <row r="106" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
     </row>
-    <row r="107" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
     </row>
-    <row r="108" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
     </row>
-    <row r="109" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
     </row>
-    <row r="110" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
     </row>
-    <row r="111" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
     </row>
-    <row r="112" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
     </row>
-    <row r="113" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
     </row>
-    <row r="114" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
     </row>
-    <row r="115" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
     </row>
-    <row r="116" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
     </row>
-    <row r="117" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
     </row>
-    <row r="118" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
     </row>
-    <row r="119" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
     </row>
-    <row r="120" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
     </row>
-    <row r="121" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
     </row>
-    <row r="122" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
     </row>
-    <row r="123" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
     </row>
-    <row r="124" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124"/>
     </row>
-    <row r="125" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125"/>
     </row>
-    <row r="126" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126"/>
     </row>
-    <row r="127" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127"/>
     </row>
-    <row r="128" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128"/>
     </row>
-    <row r="129" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129"/>
     </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
     </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131"/>
     </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132"/>
     </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I133"/>
       <c r="J133"/>
       <c r="K133"/>
     </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134"/>
     </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135"/>
     </row>
-    <row r="136" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
     </row>
-    <row r="137" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I137"/>
       <c r="J137"/>
       <c r="K137"/>
     </row>
-    <row r="138" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I138"/>
       <c r="J138"/>
       <c r="K138"/>
     </row>
-    <row r="139" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I139"/>
       <c r="J139"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I140"/>
       <c r="J140"/>
       <c r="K140"/>
     </row>
-    <row r="141" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I141"/>
       <c r="J141"/>
       <c r="K141"/>
     </row>
-    <row r="142" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I142"/>
       <c r="J142"/>
       <c r="K142"/>
     </row>
-    <row r="143" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I143"/>
       <c r="J143"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144"/>
     </row>
-    <row r="145" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I145"/>
       <c r="J145"/>
       <c r="K145"/>
     </row>
-    <row r="146" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I146"/>
       <c r="J146"/>
       <c r="K146"/>
     </row>
-    <row r="147" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147"/>
     </row>
-    <row r="148" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148"/>
     </row>
-    <row r="149" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I149"/>
       <c r="J149"/>
       <c r="K149"/>
     </row>
-    <row r="150" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I150"/>
       <c r="J150"/>
       <c r="K150"/>
     </row>
-    <row r="151" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I151"/>
       <c r="J151"/>
       <c r="K151"/>
     </row>
-    <row r="152" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I152"/>
       <c r="J152"/>
       <c r="K152"/>
     </row>
-    <row r="153" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153"/>
     </row>
-    <row r="154" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I154"/>
       <c r="J154"/>
       <c r="K154"/>
     </row>
-    <row r="155" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I155"/>
       <c r="J155"/>
       <c r="K155"/>
     </row>
-    <row r="156" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156"/>
     </row>
-    <row r="157" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I157"/>
       <c r="J157"/>
       <c r="K157"/>
     </row>
-    <row r="158" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I158"/>
       <c r="J158"/>
       <c r="K158"/>
     </row>
-    <row r="159" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I159"/>
       <c r="J159"/>
       <c r="K159"/>
     </row>
-    <row r="160" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I160"/>
       <c r="J160"/>
       <c r="K160"/>
     </row>
-    <row r="161" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I161"/>
       <c r="J161"/>
       <c r="K161"/>
     </row>
-    <row r="162" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I162"/>
       <c r="J162"/>
       <c r="K162"/>
     </row>
-    <row r="163" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I163"/>
       <c r="J163"/>
       <c r="K163"/>
     </row>
-    <row r="164" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I164"/>
       <c r="J164"/>
       <c r="K164"/>
     </row>
-    <row r="165" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I165"/>
       <c r="J165"/>
       <c r="K165"/>
     </row>
-    <row r="166" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I166"/>
       <c r="J166"/>
       <c r="K166"/>
     </row>
-    <row r="167" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I167"/>
       <c r="J167"/>
       <c r="K167"/>
     </row>
-    <row r="168" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I168"/>
       <c r="J168"/>
       <c r="K168"/>
     </row>
-    <row r="169" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I169"/>
       <c r="J169"/>
       <c r="K169"/>
     </row>
-    <row r="170" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I170"/>
       <c r="J170"/>
       <c r="K170"/>
     </row>
-    <row r="171" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I171"/>
       <c r="J171"/>
       <c r="K171"/>
     </row>
-    <row r="172" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I172"/>
       <c r="J172"/>
       <c r="K172"/>
     </row>
-    <row r="173" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I173"/>
       <c r="J173"/>
       <c r="K173"/>
     </row>
-    <row r="174" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I174"/>
       <c r="J174"/>
       <c r="K174"/>
     </row>
-    <row r="175" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I175"/>
       <c r="J175"/>
       <c r="K175"/>
     </row>
-    <row r="176" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I176"/>
       <c r="J176"/>
       <c r="K176"/>
     </row>
-    <row r="177" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I177"/>
       <c r="J177"/>
       <c r="K177"/>
     </row>
-    <row r="178" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I178"/>
       <c r="J178"/>
       <c r="K178"/>
     </row>
-    <row r="179" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I179"/>
       <c r="J179"/>
       <c r="K179"/>
     </row>
-    <row r="180" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I180"/>
       <c r="J180"/>
       <c r="K180"/>
     </row>
-    <row r="181" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I181"/>
       <c r="J181"/>
       <c r="K181"/>
     </row>
-    <row r="182" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I182"/>
       <c r="J182"/>
       <c r="K182"/>
     </row>
-    <row r="183" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I183"/>
       <c r="J183"/>
       <c r="K183"/>
     </row>
-    <row r="184" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I184"/>
       <c r="J184"/>
       <c r="K184"/>
     </row>
-    <row r="185" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I185"/>
       <c r="J185"/>
       <c r="K185"/>
     </row>
-    <row r="186" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I186"/>
       <c r="J186"/>
       <c r="K186"/>
     </row>
-    <row r="187" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I187"/>
       <c r="J187"/>
       <c r="K187"/>
     </row>
-    <row r="188" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I188"/>
       <c r="J188"/>
       <c r="K188"/>
     </row>
-    <row r="189" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I189"/>
       <c r="J189"/>
       <c r="K189"/>
     </row>
-    <row r="190" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I190"/>
       <c r="J190"/>
       <c r="K190"/>
     </row>
-    <row r="191" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I191"/>
       <c r="J191"/>
       <c r="K191"/>
     </row>
-    <row r="192" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I192"/>
       <c r="J192"/>
       <c r="K192"/>
     </row>
-    <row r="193" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I193"/>
       <c r="J193"/>
       <c r="K193"/>
     </row>
-    <row r="194" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I194"/>
       <c r="J194"/>
       <c r="K194"/>
     </row>
-    <row r="195" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I195"/>
       <c r="J195"/>
       <c r="K195"/>
     </row>
-    <row r="196" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I196"/>
       <c r="J196"/>
       <c r="K196"/>
     </row>
-    <row r="197" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197"/>
     </row>
-    <row r="198" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198"/>
     </row>
-    <row r="199" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199"/>
     </row>
-    <row r="200" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200"/>
     </row>
-    <row r="201" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201"/>
     </row>
-    <row r="202" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I202"/>
       <c r="J202"/>
       <c r="K202"/>
     </row>
-    <row r="203" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I203"/>
       <c r="J203"/>
       <c r="K203"/>
     </row>
-    <row r="204" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I204"/>
       <c r="J204"/>
       <c r="K204"/>
     </row>
-    <row r="205" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I205"/>
       <c r="J205"/>
       <c r="K205"/>
     </row>
-    <row r="206" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I206"/>
       <c r="J206"/>
       <c r="K206"/>
     </row>
-    <row r="207" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I207"/>
       <c r="J207"/>
       <c r="K207"/>
     </row>
-    <row r="208" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I208"/>
       <c r="J208"/>
       <c r="K208"/>
     </row>
-    <row r="209" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I209"/>
       <c r="J209"/>
       <c r="K209"/>
     </row>
-    <row r="210" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I210"/>
       <c r="J210"/>
       <c r="K210"/>
     </row>
-    <row r="211" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I211"/>
       <c r="J211"/>
       <c r="K211"/>
     </row>
-    <row r="212" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I212"/>
       <c r="J212"/>
       <c r="K212"/>
     </row>
-    <row r="213" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I213"/>
       <c r="J213"/>
       <c r="K213"/>
     </row>
-    <row r="214" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I214"/>
       <c r="J214"/>
       <c r="K214"/>
     </row>
-    <row r="215" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I215"/>
       <c r="J215"/>
       <c r="K215"/>
     </row>
-    <row r="216" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I216"/>
       <c r="J216"/>
       <c r="K216"/>
     </row>
-    <row r="217" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I217"/>
       <c r="J217"/>
       <c r="K217"/>
     </row>
-    <row r="218" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I218"/>
       <c r="J218"/>
       <c r="K218"/>
     </row>
-    <row r="219" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I219"/>
       <c r="J219"/>
       <c r="K219"/>
     </row>
-    <row r="220" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I220"/>
       <c r="J220"/>
       <c r="K220"/>
     </row>
-    <row r="221" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I221"/>
       <c r="J221"/>
       <c r="K221"/>
     </row>
-    <row r="222" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I222"/>
       <c r="J222"/>
       <c r="K222"/>
     </row>
-    <row r="223" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I223"/>
       <c r="J223"/>
       <c r="K223"/>
     </row>
-    <row r="224" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I224"/>
       <c r="J224"/>
       <c r="K224"/>
     </row>
-    <row r="225" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I225"/>
       <c r="J225"/>
       <c r="K225"/>
     </row>
-    <row r="226" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I226"/>
       <c r="J226"/>
       <c r="K226"/>
     </row>
-    <row r="227" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I227"/>
       <c r="J227"/>
       <c r="K227"/>
     </row>
-    <row r="228" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I228"/>
       <c r="J228"/>
       <c r="K228"/>
     </row>
-    <row r="229" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I229"/>
       <c r="J229"/>
       <c r="K229"/>
     </row>
-    <row r="230" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I230"/>
       <c r="J230"/>
       <c r="K230"/>
     </row>
-    <row r="231" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I231"/>
       <c r="J231"/>
       <c r="K231"/>
     </row>
-    <row r="232" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I232"/>
       <c r="J232"/>
       <c r="K232"/>
     </row>
-    <row r="233" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I233"/>
       <c r="J233"/>
       <c r="K233"/>
     </row>
-    <row r="234" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I234"/>
       <c r="J234"/>
       <c r="K234"/>
     </row>
-    <row r="235" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I235"/>
       <c r="J235"/>
       <c r="K235"/>
     </row>
-    <row r="236" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I236"/>
       <c r="J236"/>
       <c r="K236"/>
     </row>
-    <row r="237" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I237"/>
       <c r="J237"/>
       <c r="K237"/>
     </row>
-    <row r="238" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I238"/>
       <c r="J238"/>
       <c r="K238"/>
     </row>
-    <row r="239" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I239"/>
       <c r="J239"/>
       <c r="K239"/>
     </row>
-    <row r="240" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I240"/>
       <c r="J240"/>
       <c r="K240"/>
     </row>
-    <row r="241" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I241"/>
       <c r="J241"/>
       <c r="K241"/>
     </row>
-    <row r="242" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I242"/>
       <c r="J242"/>
       <c r="K242"/>
     </row>
-    <row r="243" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I243"/>
       <c r="J243"/>
       <c r="K243"/>
     </row>
-    <row r="244" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I244"/>
       <c r="J244"/>
       <c r="K244"/>
     </row>
-    <row r="245" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I245"/>
       <c r="J245"/>
       <c r="K245"/>
     </row>
-    <row r="246" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I246"/>
       <c r="J246"/>
       <c r="K246"/>
     </row>
-    <row r="247" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I247"/>
       <c r="J247"/>
       <c r="K247"/>
     </row>
-    <row r="248" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I248"/>
       <c r="J248"/>
       <c r="K248"/>
     </row>
-    <row r="249" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I249"/>
       <c r="J249"/>
       <c r="K249"/>
     </row>
-    <row r="250" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I250"/>
       <c r="J250"/>
       <c r="K250"/>
     </row>
-    <row r="251" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I251"/>
       <c r="J251"/>
       <c r="K251"/>
     </row>
-    <row r="252" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I252"/>
       <c r="J252"/>
       <c r="K252"/>
     </row>
-    <row r="253" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I253"/>
       <c r="J253"/>
       <c r="K253"/>
     </row>
-    <row r="254" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I254"/>
       <c r="J254"/>
       <c r="K254"/>
     </row>
-    <row r="255" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I255"/>
       <c r="J255"/>
       <c r="K255"/>
     </row>
-    <row r="256" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I256"/>
       <c r="J256"/>
       <c r="K256"/>
     </row>
-    <row r="257" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I257"/>
       <c r="J257"/>
       <c r="K257"/>
     </row>
-    <row r="258" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I258"/>
       <c r="J258"/>
       <c r="K258"/>
     </row>
-    <row r="259" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I259"/>
       <c r="J259"/>
       <c r="K259"/>
     </row>
-    <row r="260" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I260"/>
       <c r="J260"/>
       <c r="K260"/>
     </row>
-    <row r="261" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I261"/>
       <c r="J261"/>
       <c r="K261"/>
     </row>
-    <row r="262" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I262"/>
       <c r="J262"/>
       <c r="K262"/>
     </row>
-    <row r="263" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I263"/>
       <c r="J263"/>
       <c r="K263"/>
     </row>
-    <row r="264" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I264"/>
       <c r="J264"/>
       <c r="K264"/>
     </row>
-    <row r="265" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I265"/>
       <c r="J265"/>
       <c r="K265"/>
     </row>
-    <row r="266" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I266"/>
       <c r="J266"/>
       <c r="K266"/>
     </row>
-    <row r="267" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I267"/>
       <c r="J267"/>
       <c r="K267"/>
     </row>
-    <row r="268" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I268"/>
       <c r="J268"/>
       <c r="K268"/>
     </row>
-    <row r="269" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I269"/>
       <c r="J269"/>
       <c r="K269"/>
     </row>
-    <row r="270" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I270"/>
       <c r="J270"/>
       <c r="K270"/>
     </row>
-    <row r="271" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I271"/>
       <c r="J271"/>
       <c r="K271"/>
     </row>
-    <row r="272" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I272"/>
       <c r="J272"/>
       <c r="K272"/>
     </row>
-    <row r="273" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I273"/>
       <c r="J273"/>
       <c r="K273"/>
     </row>
-    <row r="274" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I274"/>
       <c r="J274"/>
       <c r="K274"/>
     </row>
-    <row r="275" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I275"/>
       <c r="J275"/>
       <c r="K275"/>
     </row>
-    <row r="276" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I276"/>
       <c r="J276"/>
       <c r="K276"/>
     </row>
-    <row r="277" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I277"/>
       <c r="J277"/>
       <c r="K277"/>
     </row>
-    <row r="278" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I278"/>
       <c r="J278"/>
       <c r="K278"/>
     </row>
-    <row r="279" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I279"/>
       <c r="J279"/>
       <c r="K279"/>
     </row>
-    <row r="280" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I280"/>
       <c r="J280"/>
       <c r="K280"/>
     </row>
-    <row r="281" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I281"/>
       <c r="J281"/>
       <c r="K281"/>
     </row>
-    <row r="282" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I282"/>
       <c r="J282"/>
       <c r="K282"/>
     </row>
-    <row r="283" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I283"/>
       <c r="J283"/>
       <c r="K283"/>
     </row>
-    <row r="284" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I284"/>
       <c r="J284"/>
       <c r="K284"/>
     </row>
-    <row r="285" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I285"/>
       <c r="J285"/>
       <c r="K285"/>
     </row>
-    <row r="286" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I286"/>
       <c r="J286"/>
       <c r="K286"/>
     </row>
-    <row r="287" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I287"/>
       <c r="J287"/>
       <c r="K287"/>
     </row>
-    <row r="288" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I288"/>
       <c r="J288"/>
       <c r="K288"/>
     </row>
-    <row r="289" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I289"/>
       <c r="J289"/>
       <c r="K289"/>
     </row>
-    <row r="290" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I290"/>
       <c r="J290"/>
       <c r="K290"/>
     </row>
-    <row r="291" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I291"/>
       <c r="J291"/>
       <c r="K291"/>
     </row>
-    <row r="292" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I292"/>
       <c r="J292"/>
       <c r="K292"/>
     </row>
-    <row r="293" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I293"/>
       <c r="J293"/>
       <c r="K293"/>
     </row>
-    <row r="294" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I294"/>
       <c r="J294"/>
       <c r="K294"/>
     </row>
-    <row r="295" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I295"/>
       <c r="J295"/>
       <c r="K295"/>
     </row>
-    <row r="296" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I296"/>
       <c r="J296"/>
       <c r="K296"/>
     </row>
-    <row r="297" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I297"/>
       <c r="J297"/>
       <c r="K297"/>
     </row>
-    <row r="298" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I298"/>
       <c r="J298"/>
       <c r="K298"/>
     </row>
-    <row r="299" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I299"/>
       <c r="J299"/>
       <c r="K299"/>
     </row>
-    <row r="300" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I300"/>
       <c r="J300"/>
       <c r="K300"/>
     </row>
-    <row r="301" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I301"/>
       <c r="J301"/>
       <c r="K301"/>
     </row>
-    <row r="302" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I302"/>
       <c r="J302"/>
       <c r="K302"/>
     </row>
-    <row r="303" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I303"/>
       <c r="J303"/>
       <c r="K303"/>
     </row>
-    <row r="304" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I304"/>
       <c r="J304"/>
       <c r="K304"/>
     </row>
-    <row r="305" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I305"/>
       <c r="J305"/>
       <c r="K305"/>
     </row>
-    <row r="306" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I306"/>
       <c r="J306"/>
       <c r="K306"/>
     </row>
-    <row r="307" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I307"/>
       <c r="J307"/>
       <c r="K307"/>
     </row>
-    <row r="308" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I308"/>
       <c r="J308"/>
       <c r="K308"/>
     </row>
-    <row r="309" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I309"/>
       <c r="J309"/>
       <c r="K309"/>
     </row>
-    <row r="310" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I310"/>
       <c r="J310"/>
       <c r="K310"/>
     </row>
-    <row r="311" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I311"/>
       <c r="J311"/>
       <c r="K311"/>
     </row>
-    <row r="312" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I312"/>
       <c r="J312"/>
       <c r="K312"/>
     </row>
-    <row r="313" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I313"/>
       <c r="J313"/>
       <c r="K313"/>
     </row>
-    <row r="314" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I314"/>
       <c r="J314"/>
       <c r="K314"/>
     </row>
-    <row r="315" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I315"/>
       <c r="J315"/>
       <c r="K315"/>
     </row>
-    <row r="316" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I316"/>
       <c r="J316"/>
       <c r="K316"/>
     </row>
-    <row r="317" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I317"/>
       <c r="J317"/>
       <c r="K317"/>
     </row>
-    <row r="318" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I318"/>
       <c r="J318"/>
       <c r="K318"/>
     </row>
-    <row r="319" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I319"/>
       <c r="J319"/>
       <c r="K319"/>
     </row>
-    <row r="320" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I320"/>
       <c r="J320"/>
       <c r="K320"/>
     </row>
-    <row r="321" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I321"/>
       <c r="J321"/>
       <c r="K321"/>
     </row>
-    <row r="322" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I322"/>
       <c r="J322"/>
       <c r="K322"/>
     </row>
-    <row r="323" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I323"/>
       <c r="J323"/>
       <c r="K323"/>
     </row>
-    <row r="324" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I324"/>
       <c r="J324"/>
       <c r="K324"/>
     </row>
-    <row r="325" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I325"/>
       <c r="J325"/>
       <c r="K325"/>
     </row>
-    <row r="326" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I326"/>
       <c r="J326"/>
       <c r="K326"/>
     </row>
-    <row r="327" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I327"/>
       <c r="J327"/>
       <c r="K327"/>
     </row>
-    <row r="328" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I328"/>
       <c r="J328"/>
       <c r="K328"/>
     </row>
-    <row r="329" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I329"/>
       <c r="J329"/>
       <c r="K329"/>
     </row>
-    <row r="330" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I330"/>
       <c r="J330"/>
       <c r="K330"/>
     </row>
-    <row r="331" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I331"/>
       <c r="J331"/>
       <c r="K331"/>
     </row>
-    <row r="332" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I332"/>
       <c r="J332"/>
       <c r="K332"/>
     </row>
-    <row r="333" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I333"/>
       <c r="J333"/>
       <c r="K333"/>
     </row>
-    <row r="334" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I334"/>
       <c r="J334"/>
       <c r="K334"/>
     </row>
-    <row r="335" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I335"/>
       <c r="J335"/>
       <c r="K335"/>
     </row>
-    <row r="336" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I336"/>
       <c r="J336"/>
       <c r="K336"/>
     </row>
-    <row r="337" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I337"/>
       <c r="J337"/>
       <c r="K337"/>
     </row>
-    <row r="338" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I338"/>
       <c r="J338"/>
       <c r="K338"/>
     </row>
-    <row r="339" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I339"/>
       <c r="J339"/>
       <c r="K339"/>
     </row>
-    <row r="340" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I340"/>
       <c r="J340"/>
       <c r="K340"/>
     </row>
-    <row r="341" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I341"/>
       <c r="J341"/>
       <c r="K341"/>
     </row>
-    <row r="342" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I342"/>
       <c r="J342"/>
       <c r="K342"/>
     </row>
-    <row r="343" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I343"/>
       <c r="J343"/>
       <c r="K343"/>
     </row>
-    <row r="344" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I344"/>
       <c r="J344"/>
       <c r="K344"/>
     </row>
-    <row r="345" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I345"/>
       <c r="J345"/>
       <c r="K345"/>
     </row>
-    <row r="346" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I346"/>
       <c r="J346"/>
       <c r="K346"/>
     </row>
-    <row r="347" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I347"/>
       <c r="J347"/>
       <c r="K347"/>
     </row>
-    <row r="348" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I348"/>
       <c r="J348"/>
       <c r="K348"/>
     </row>
-    <row r="349" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I349"/>
       <c r="J349"/>
       <c r="K349"/>
     </row>
-    <row r="350" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I350"/>
       <c r="J350"/>
       <c r="K350"/>
     </row>
-    <row r="351" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I351"/>
       <c r="J351"/>
       <c r="K351"/>
     </row>
-    <row r="352" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I352"/>
       <c r="J352"/>
       <c r="K352"/>
     </row>
-    <row r="353" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I353"/>
       <c r="J353"/>
       <c r="K353"/>
     </row>
-    <row r="354" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I354"/>
       <c r="J354"/>
       <c r="K354"/>
     </row>
-    <row r="355" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I355"/>
       <c r="J355"/>
       <c r="K355"/>
     </row>
-    <row r="356" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I356"/>
       <c r="J356"/>
       <c r="K356"/>
     </row>
-    <row r="357" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I357"/>
       <c r="J357"/>
       <c r="K357"/>
     </row>
-    <row r="358" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I358"/>
       <c r="J358"/>
       <c r="K358"/>
     </row>
-    <row r="359" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I359"/>
       <c r="J359"/>
       <c r="K359"/>
     </row>
-    <row r="360" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I360"/>
       <c r="J360"/>
       <c r="K360"/>
     </row>
-    <row r="361" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I361"/>
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I362"/>
       <c r="J362"/>
       <c r="K362"/>
     </row>
-    <row r="363" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I363"/>
       <c r="J363"/>
       <c r="K363"/>
     </row>
-    <row r="364" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I364"/>
       <c r="J364"/>
       <c r="K364"/>
     </row>
-    <row r="365" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I365"/>
       <c r="J365"/>
       <c r="K365"/>
     </row>
-    <row r="366" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I366"/>
       <c r="J366"/>
       <c r="K366"/>
     </row>
-    <row r="367" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I367"/>
       <c r="J367"/>
       <c r="K367"/>
     </row>
-    <row r="368" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I368"/>
       <c r="J368"/>
       <c r="K368"/>
     </row>
-    <row r="369" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I369"/>
       <c r="J369"/>
       <c r="K369"/>
     </row>
-    <row r="370" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I370"/>
       <c r="J370"/>
       <c r="K370"/>
     </row>
-    <row r="371" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I371"/>
       <c r="J371"/>
       <c r="K371"/>
     </row>
-    <row r="372" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I372"/>
       <c r="J372"/>
       <c r="K372"/>
     </row>
-    <row r="373" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I373"/>
       <c r="J373"/>
       <c r="K373"/>
     </row>
-    <row r="374" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I374"/>
       <c r="J374"/>
       <c r="K374"/>
     </row>
-    <row r="375" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I375"/>
       <c r="J375"/>
       <c r="K375"/>
     </row>
-    <row r="376" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I376"/>
       <c r="J376"/>
       <c r="K376"/>
     </row>
-    <row r="377" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I377"/>
       <c r="J377"/>
       <c r="K377"/>
     </row>
-    <row r="378" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I378"/>
       <c r="J378"/>
       <c r="K378"/>
     </row>
-    <row r="379" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I379"/>
       <c r="J379"/>
       <c r="K379"/>
     </row>
-    <row r="380" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I380"/>
       <c r="J380"/>
       <c r="K380"/>
     </row>
-    <row r="381" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I381"/>
       <c r="J381"/>
       <c r="K381"/>
     </row>
-    <row r="382" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I382"/>
       <c r="J382"/>
       <c r="K382"/>
     </row>
-    <row r="383" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I383"/>
       <c r="J383"/>
       <c r="K383"/>
     </row>
-    <row r="384" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I384"/>
       <c r="J384"/>
       <c r="K384"/>
     </row>
-    <row r="385" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I385"/>
       <c r="J385"/>
       <c r="K385"/>
     </row>
-    <row r="386" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I386"/>
       <c r="J386"/>
       <c r="K386"/>
     </row>
-    <row r="387" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I387"/>
       <c r="J387"/>
       <c r="K387"/>
     </row>
-    <row r="388" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I388"/>
       <c r="J388"/>
       <c r="K388"/>
     </row>
-    <row r="389" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I389"/>
       <c r="J389"/>
       <c r="K389"/>
     </row>
-    <row r="390" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I390"/>
       <c r="J390"/>
       <c r="K390"/>
     </row>
-    <row r="391" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I391"/>
       <c r="J391"/>
       <c r="K391"/>
     </row>
-    <row r="392" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I392"/>
       <c r="J392"/>
       <c r="K392"/>
     </row>
-    <row r="393" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I393"/>
       <c r="J393"/>
       <c r="K393"/>
     </row>
-    <row r="394" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I394"/>
       <c r="J394"/>
       <c r="K394"/>
     </row>
-    <row r="395" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I395"/>
       <c r="J395"/>
       <c r="K395"/>
     </row>
-    <row r="396" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I396"/>
       <c r="J396"/>
       <c r="K396"/>
     </row>
-    <row r="397" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I397"/>
       <c r="J397"/>
       <c r="K397"/>
     </row>
-    <row r="398" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I398"/>
       <c r="J398"/>
       <c r="K398"/>
     </row>
-    <row r="399" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I399"/>
       <c r="J399"/>
       <c r="K399"/>
     </row>
-    <row r="400" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I400"/>
       <c r="J400"/>
       <c r="K400"/>
     </row>
-    <row r="401" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I401"/>
       <c r="J401"/>
       <c r="K401"/>
     </row>
-    <row r="402" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I402"/>
       <c r="J402"/>
       <c r="K402"/>
     </row>
-    <row r="403" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I403"/>
       <c r="J403"/>
       <c r="K403"/>
     </row>
-    <row r="404" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I404"/>
       <c r="J404"/>
       <c r="K404"/>
     </row>
-    <row r="405" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I405"/>
       <c r="J405"/>
       <c r="K405"/>
     </row>
-    <row r="406" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I406"/>
       <c r="J406"/>
       <c r="K406"/>
     </row>
-    <row r="407" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I407"/>
       <c r="J407"/>
       <c r="K407"/>
     </row>
-    <row r="408" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I408"/>
       <c r="J408"/>
       <c r="K408"/>
     </row>
-    <row r="409" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I409"/>
       <c r="J409"/>
       <c r="K409"/>
     </row>
-    <row r="410" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I410"/>
       <c r="J410"/>
       <c r="K410"/>
     </row>
-    <row r="411" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I411"/>
       <c r="J411"/>
       <c r="K411"/>
     </row>
-    <row r="412" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I412"/>
       <c r="J412"/>
       <c r="K412"/>
     </row>
-    <row r="413" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I413"/>
       <c r="J413"/>
       <c r="K413"/>
     </row>
-    <row r="414" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I414"/>
       <c r="J414"/>
       <c r="K414"/>
     </row>
-    <row r="415" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I415"/>
       <c r="J415"/>
       <c r="K415"/>
     </row>
-    <row r="416" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I416"/>
       <c r="J416"/>
       <c r="K416"/>
     </row>
-    <row r="417" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I417"/>
       <c r="J417"/>
       <c r="K417"/>
     </row>
-    <row r="418" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I418"/>
       <c r="J418"/>
       <c r="K418"/>
     </row>
-    <row r="419" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I419"/>
       <c r="J419"/>
       <c r="K419"/>
     </row>
-    <row r="420" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I420"/>
       <c r="J420"/>
       <c r="K420"/>
     </row>
-    <row r="421" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I421"/>
       <c r="J421"/>
       <c r="K421"/>
     </row>
-    <row r="422" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I422"/>
       <c r="J422"/>
       <c r="K422"/>
     </row>
-    <row r="423" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I423"/>
       <c r="J423"/>
       <c r="K423"/>
     </row>
-    <row r="424" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I424"/>
       <c r="J424"/>
       <c r="K424"/>
     </row>
-    <row r="425" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I425"/>
       <c r="J425"/>
       <c r="K425"/>
     </row>
-    <row r="426" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I426"/>
       <c r="J426"/>
       <c r="K426"/>
     </row>
-    <row r="427" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I427"/>
       <c r="J427"/>
       <c r="K427"/>
     </row>
-    <row r="428" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I428"/>
       <c r="J428"/>
       <c r="K428"/>
     </row>
-    <row r="429" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I429"/>
       <c r="J429"/>
       <c r="K429"/>
     </row>
-    <row r="430" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I430"/>
       <c r="J430"/>
       <c r="K430"/>
     </row>
-    <row r="431" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I431"/>
       <c r="J431"/>
       <c r="K431"/>
     </row>
-    <row r="432" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I432"/>
       <c r="J432"/>
       <c r="K432"/>
     </row>
-    <row r="433" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I433"/>
       <c r="J433"/>
       <c r="K433"/>
     </row>
-    <row r="434" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I434"/>
       <c r="J434"/>
       <c r="K434"/>
     </row>
-    <row r="435" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I435"/>
       <c r="J435"/>
       <c r="K435"/>
     </row>
-    <row r="436" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I436"/>
       <c r="J436"/>
       <c r="K436"/>
     </row>
-    <row r="437" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I437"/>
       <c r="J437"/>
       <c r="K437"/>
     </row>
-    <row r="438" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I438"/>
       <c r="J438"/>
       <c r="K438"/>
     </row>
-    <row r="439" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I439"/>
       <c r="J439"/>
       <c r="K439"/>
     </row>
-    <row r="440" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I440"/>
       <c r="J440"/>
       <c r="K440"/>
     </row>
-    <row r="441" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I441"/>
       <c r="J441"/>
       <c r="K441"/>
     </row>
-    <row r="442" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I442"/>
       <c r="J442"/>
       <c r="K442"/>
     </row>
-    <row r="443" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I443"/>
       <c r="J443"/>
       <c r="K443"/>
     </row>
-    <row r="444" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I444"/>
       <c r="J444"/>
       <c r="K444"/>
     </row>
-    <row r="445" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I445"/>
       <c r="J445"/>
       <c r="K445"/>
     </row>
-    <row r="446" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I446"/>
       <c r="J446"/>
       <c r="K446"/>
     </row>
-    <row r="447" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I447"/>
       <c r="J447"/>
       <c r="K447"/>
     </row>
-    <row r="448" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I448"/>
       <c r="J448"/>
       <c r="K448"/>
     </row>
-    <row r="449" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I449"/>
       <c r="J449"/>
       <c r="K449"/>
     </row>
-    <row r="450" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I450"/>
       <c r="J450"/>
       <c r="K450"/>
     </row>
-    <row r="451" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I451"/>
       <c r="J451"/>
       <c r="K451"/>
     </row>
-    <row r="452" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I452"/>
       <c r="J452"/>
       <c r="K452"/>
     </row>
-    <row r="453" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I453"/>
       <c r="J453"/>
       <c r="K453"/>
     </row>
-    <row r="454" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I454"/>
       <c r="J454"/>
       <c r="K454"/>
     </row>
-    <row r="455" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I455"/>
       <c r="J455"/>
       <c r="K455"/>
     </row>
-    <row r="456" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I456"/>
       <c r="J456"/>
       <c r="K456"/>
     </row>
-    <row r="457" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I457"/>
       <c r="J457"/>
       <c r="K457"/>
     </row>
-    <row r="458" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I458"/>
       <c r="J458"/>
       <c r="K458"/>
     </row>
-    <row r="459" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I459"/>
       <c r="J459"/>
       <c r="K459"/>
     </row>
-    <row r="460" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I460"/>
       <c r="J460"/>
       <c r="K460"/>
     </row>
-    <row r="461" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I461"/>
       <c r="J461"/>
       <c r="K461"/>
     </row>
-    <row r="462" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I462"/>
       <c r="J462"/>
       <c r="K462"/>
     </row>
-    <row r="463" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I463"/>
       <c r="J463"/>
       <c r="K463"/>
     </row>
-    <row r="464" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I464"/>
       <c r="J464"/>
       <c r="K464"/>
     </row>
-    <row r="465" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I465"/>
       <c r="J465"/>
       <c r="K465"/>
     </row>
-    <row r="466" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I466"/>
       <c r="J466"/>
       <c r="K466"/>
     </row>
-    <row r="467" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I467"/>
       <c r="J467"/>
       <c r="K467"/>
     </row>
-    <row r="468" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I468"/>
       <c r="J468"/>
       <c r="K468"/>
     </row>
-    <row r="469" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I469"/>
       <c r="J469"/>
       <c r="K469"/>
     </row>
-    <row r="470" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I470"/>
       <c r="J470"/>
       <c r="K470"/>
     </row>
-    <row r="471" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I471"/>
       <c r="J471"/>
       <c r="K471"/>
     </row>
-    <row r="472" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I472"/>
       <c r="J472"/>
       <c r="K472"/>
     </row>
-    <row r="473" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I473"/>
       <c r="J473"/>
       <c r="K473"/>
     </row>
-    <row r="474" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I474"/>
       <c r="J474"/>
       <c r="K474"/>
     </row>
-    <row r="475" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I475"/>
       <c r="J475"/>
       <c r="K475"/>
     </row>
-    <row r="476" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I476"/>
       <c r="J476"/>
       <c r="K476"/>
     </row>
-    <row r="477" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I477"/>
       <c r="J477"/>
       <c r="K477"/>
     </row>
-    <row r="478" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I478"/>
       <c r="J478"/>
       <c r="K478"/>
     </row>
-    <row r="479" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I479"/>
       <c r="J479"/>
       <c r="K479"/>
     </row>
-    <row r="480" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I480"/>
       <c r="J480"/>
       <c r="K480"/>
     </row>
-    <row r="481" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I481"/>
       <c r="J481"/>
       <c r="K481"/>
     </row>
-    <row r="482" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I482"/>
       <c r="J482"/>
       <c r="K482"/>
     </row>
-    <row r="483" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I483"/>
       <c r="J483"/>
       <c r="K483"/>
     </row>
-    <row r="484" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I484"/>
       <c r="J484"/>
       <c r="K484"/>
     </row>
-    <row r="485" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I485"/>
       <c r="J485"/>
       <c r="K485"/>
     </row>
-    <row r="486" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I486"/>
       <c r="J486"/>
       <c r="K486"/>
     </row>
-    <row r="487" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I487"/>
       <c r="J487"/>
       <c r="K487"/>
     </row>
-    <row r="488" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I488"/>
       <c r="J488"/>
       <c r="K488"/>
     </row>
-    <row r="489" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I489"/>
       <c r="J489"/>
       <c r="K489"/>
     </row>
-    <row r="490" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I490"/>
       <c r="J490"/>
       <c r="K490"/>
     </row>
-    <row r="491" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I491"/>
       <c r="J491"/>
       <c r="K491"/>
     </row>
-    <row r="492" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I492"/>
       <c r="J492"/>
       <c r="K492"/>
     </row>
-    <row r="493" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I493"/>
       <c r="J493"/>
       <c r="K493"/>
     </row>
-    <row r="494" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I494"/>
       <c r="J494"/>
       <c r="K494"/>
     </row>
-    <row r="495" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I495"/>
       <c r="J495"/>
       <c r="K495"/>
     </row>
-    <row r="496" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I496"/>
       <c r="J496"/>
       <c r="K496"/>
     </row>
-    <row r="497" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I497"/>
       <c r="J497"/>
       <c r="K497"/>
     </row>
-    <row r="498" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I498"/>
       <c r="J498"/>
       <c r="K498"/>
     </row>
-    <row r="499" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I499"/>
       <c r="J499"/>
       <c r="K499"/>
     </row>
-    <row r="500" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I500"/>
       <c r="J500"/>
       <c r="K500"/>
     </row>
-    <row r="501" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I501"/>
       <c r="J501"/>
       <c r="K501"/>
     </row>
-    <row r="502" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I502"/>
       <c r="J502"/>
       <c r="K502"/>
     </row>
-    <row r="503" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I503"/>
       <c r="J503"/>
       <c r="K503"/>
     </row>
-    <row r="504" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I504"/>
       <c r="J504"/>
       <c r="K504"/>
     </row>
-    <row r="505" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I505"/>
       <c r="J505"/>
       <c r="K505"/>
     </row>
-    <row r="506" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I506"/>
       <c r="J506"/>
       <c r="K506"/>
     </row>
-    <row r="507" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I507"/>
       <c r="J507"/>
       <c r="K507"/>
     </row>
-    <row r="508" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I508"/>
       <c r="J508"/>
       <c r="K508"/>
     </row>
-    <row r="509" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I509"/>
       <c r="J509"/>
       <c r="K509"/>
     </row>
-    <row r="510" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I510"/>
       <c r="J510"/>
       <c r="K510"/>
     </row>
-    <row r="511" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I511"/>
       <c r="J511"/>
       <c r="K511"/>
     </row>
-    <row r="512" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I512"/>
       <c r="J512"/>
       <c r="K512"/>
     </row>
-    <row r="513" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I513"/>
       <c r="J513"/>
       <c r="K513"/>
     </row>
-    <row r="514" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I514"/>
       <c r="J514"/>
       <c r="K514"/>
     </row>
-    <row r="515" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I515"/>
       <c r="J515"/>
       <c r="K515"/>
     </row>
-    <row r="516" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I516"/>
       <c r="J516"/>
       <c r="K516"/>
     </row>
-    <row r="517" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I517"/>
       <c r="J517"/>
       <c r="K517"/>
     </row>
-    <row r="518" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I518"/>
       <c r="J518"/>
       <c r="K518"/>
     </row>
-    <row r="519" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I519"/>
       <c r="J519"/>
       <c r="K519"/>
     </row>
-    <row r="520" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I520"/>
       <c r="J520"/>
       <c r="K520"/>
     </row>
-    <row r="521" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I521"/>
       <c r="J521"/>
       <c r="K521"/>
     </row>
-    <row r="522" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I522"/>
       <c r="J522"/>
       <c r="K522"/>
     </row>
-    <row r="523" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I523"/>
       <c r="J523"/>
       <c r="K523"/>
     </row>
-    <row r="524" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I524"/>
       <c r="J524"/>
       <c r="K524"/>
     </row>
-    <row r="525" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I525"/>
       <c r="J525"/>
       <c r="K525"/>
     </row>
-    <row r="526" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I526"/>
       <c r="J526"/>
       <c r="K526"/>
     </row>
-    <row r="527" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I527"/>
       <c r="J527"/>
       <c r="K527"/>
     </row>
-    <row r="528" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I528"/>
       <c r="J528"/>
       <c r="K528"/>
     </row>
-    <row r="529" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I529"/>
       <c r="J529"/>
       <c r="K529"/>
     </row>
-    <row r="530" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I530"/>
       <c r="J530"/>
       <c r="K530"/>
     </row>
-    <row r="531" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I531"/>
       <c r="J531"/>
       <c r="K531"/>
     </row>
-    <row r="532" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I532"/>
       <c r="J532"/>
       <c r="K532"/>
     </row>
-    <row r="533" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I533"/>
       <c r="J533"/>
       <c r="K533"/>
     </row>
-    <row r="534" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I534"/>
       <c r="J534"/>
       <c r="K534"/>
     </row>
-    <row r="535" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I535"/>
       <c r="J535"/>
       <c r="K535"/>
     </row>
-    <row r="536" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I536"/>
       <c r="J536"/>
       <c r="K536"/>
     </row>
-    <row r="537" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I537"/>
       <c r="J537"/>
       <c r="K537"/>
     </row>
-    <row r="538" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I538"/>
       <c r="J538"/>
       <c r="K538"/>
     </row>
-    <row r="539" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I539"/>
       <c r="J539"/>
       <c r="K539"/>
     </row>
-    <row r="540" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I540"/>
       <c r="J540"/>
       <c r="K540"/>
     </row>
-    <row r="541" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I541"/>
       <c r="J541"/>
       <c r="K541"/>
     </row>
-    <row r="542" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I542"/>
       <c r="J542"/>
       <c r="K542"/>
     </row>
-    <row r="543" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I543"/>
       <c r="J543"/>
       <c r="K543"/>
     </row>
-    <row r="544" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I544"/>
       <c r="J544"/>
       <c r="K544"/>
     </row>
-    <row r="545" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I545"/>
       <c r="J545"/>
       <c r="K545"/>
     </row>
-    <row r="546" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I546"/>
       <c r="J546"/>
       <c r="K546"/>
     </row>
-    <row r="547" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I547"/>
       <c r="J547"/>
       <c r="K547"/>
     </row>
-    <row r="548" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I548"/>
       <c r="J548"/>
       <c r="K548"/>
     </row>
-    <row r="549" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I549"/>
       <c r="J549"/>
       <c r="K549"/>
     </row>
-    <row r="550" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I550"/>
       <c r="J550"/>
       <c r="K550"/>
     </row>
-    <row r="551" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I551"/>
       <c r="J551"/>
       <c r="K551"/>
     </row>
-    <row r="552" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I552"/>
       <c r="J552"/>
       <c r="K552"/>
     </row>
-    <row r="553" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I553"/>
       <c r="J553"/>
       <c r="K553"/>
     </row>
-    <row r="554" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I554"/>
       <c r="J554"/>
       <c r="K554"/>
     </row>
-    <row r="555" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I555"/>
       <c r="J555"/>
       <c r="K555"/>
     </row>
-    <row r="556" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I556"/>
       <c r="J556"/>
       <c r="K556"/>
     </row>
-    <row r="557" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I557"/>
       <c r="J557"/>
       <c r="K557"/>
     </row>
-    <row r="558" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I558"/>
       <c r="J558"/>
       <c r="K558"/>
     </row>
-    <row r="559" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I559"/>
       <c r="J559"/>
       <c r="K559"/>
     </row>
-    <row r="560" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I560"/>
       <c r="J560"/>
       <c r="K560"/>
     </row>
-    <row r="561" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I561"/>
       <c r="J561"/>
       <c r="K561"/>
     </row>
-    <row r="562" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I562"/>
       <c r="J562"/>
       <c r="K562"/>
     </row>
-    <row r="563" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I563"/>
       <c r="J563"/>
       <c r="K563"/>
     </row>
-    <row r="564" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I564"/>
       <c r="J564"/>
       <c r="K564"/>
     </row>
-    <row r="565" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I565"/>
       <c r="J565"/>
       <c r="K565"/>
     </row>
-    <row r="566" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I566"/>
       <c r="J566"/>
       <c r="K566"/>
     </row>
-    <row r="567" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I567"/>
       <c r="J567"/>
       <c r="K567"/>
     </row>
-    <row r="568" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I568"/>
       <c r="J568"/>
       <c r="K568"/>
     </row>
-    <row r="569" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I569"/>
       <c r="J569"/>
       <c r="K569"/>
     </row>
-    <row r="570" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I570"/>
       <c r="J570"/>
       <c r="K570"/>
     </row>
-    <row r="571" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I571"/>
       <c r="J571"/>
       <c r="K571"/>
     </row>
-    <row r="572" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I572"/>
       <c r="J572"/>
       <c r="K572"/>
     </row>
-    <row r="573" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I573"/>
       <c r="J573"/>
       <c r="K573"/>
     </row>
-    <row r="574" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I574"/>
       <c r="J574"/>
       <c r="K574"/>
     </row>
-    <row r="575" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I575"/>
       <c r="J575"/>
       <c r="K575"/>
     </row>
-    <row r="576" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I576"/>
       <c r="J576"/>
       <c r="K576"/>
     </row>
-    <row r="577" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I577"/>
       <c r="J577"/>
       <c r="K577"/>
     </row>
-    <row r="578" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I578"/>
       <c r="J578"/>
       <c r="K578"/>
     </row>
-    <row r="579" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I579"/>
       <c r="J579"/>
       <c r="K579"/>
     </row>
-    <row r="580" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I580"/>
       <c r="J580"/>
       <c r="K580"/>
     </row>
-    <row r="581" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I581"/>
       <c r="J581"/>
       <c r="K581"/>
     </row>
-    <row r="582" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I582"/>
       <c r="J582"/>
       <c r="K582"/>
     </row>
-    <row r="583" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I583"/>
       <c r="J583"/>
       <c r="K583"/>
     </row>
-    <row r="584" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I584"/>
       <c r="J584"/>
       <c r="K584"/>
     </row>
-    <row r="585" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I585"/>
       <c r="J585"/>
       <c r="K585"/>
     </row>
-    <row r="586" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I586"/>
       <c r="J586"/>
       <c r="K586"/>
     </row>
-    <row r="587" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I587"/>
       <c r="J587"/>
       <c r="K587"/>
     </row>
-    <row r="588" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I588"/>
       <c r="J588"/>
       <c r="K588"/>
     </row>
-    <row r="589" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I589"/>
       <c r="J589"/>
       <c r="K589"/>
     </row>
-    <row r="590" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I590"/>
       <c r="J590"/>
       <c r="K590"/>
     </row>
-    <row r="591" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I591"/>
       <c r="J591"/>
       <c r="K591"/>
     </row>
-    <row r="592" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I592"/>
       <c r="J592"/>
       <c r="K592"/>
     </row>
-    <row r="593" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I593"/>
       <c r="J593"/>
       <c r="K593"/>
     </row>
-    <row r="594" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I594"/>
       <c r="J594"/>
       <c r="K594"/>
     </row>
-    <row r="595" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I595"/>
       <c r="J595"/>
       <c r="K595"/>
     </row>
-    <row r="596" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I596"/>
       <c r="J596"/>
       <c r="K596"/>
     </row>
-    <row r="597" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I597"/>
       <c r="J597"/>
       <c r="K597"/>
     </row>
-    <row r="598" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I598"/>
       <c r="J598"/>
       <c r="K598"/>
     </row>
-    <row r="599" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I599"/>
       <c r="J599"/>
       <c r="K599"/>
     </row>
-    <row r="600" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I600"/>
       <c r="J600"/>
       <c r="K600"/>
     </row>
-    <row r="601" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I601"/>
       <c r="J601"/>
       <c r="K601"/>
     </row>
-    <row r="602" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I602"/>
       <c r="J602"/>
       <c r="K602"/>
     </row>
-    <row r="603" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I603"/>
       <c r="J603"/>
       <c r="K603"/>
     </row>
-    <row r="604" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I604"/>
       <c r="J604"/>
       <c r="K604"/>
     </row>
-    <row r="605" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I605"/>
       <c r="J605"/>
       <c r="K605"/>
     </row>
-    <row r="606" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I606"/>
       <c r="J606"/>
       <c r="K606"/>
     </row>
-    <row r="607" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I607"/>
       <c r="J607"/>
       <c r="K607"/>
     </row>
-    <row r="608" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I608"/>
       <c r="J608"/>
       <c r="K608"/>
     </row>
-    <row r="609" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I609"/>
       <c r="J609"/>
       <c r="K609"/>
     </row>
-    <row r="610" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I610"/>
       <c r="J610"/>
       <c r="K610"/>
     </row>
-    <row r="611" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I611"/>
       <c r="J611"/>
       <c r="K611"/>
     </row>
-    <row r="612" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I612"/>
       <c r="J612"/>
       <c r="K612"/>
     </row>
-    <row r="613" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I613"/>
       <c r="J613"/>
       <c r="K613"/>
     </row>
-    <row r="614" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I614"/>
       <c r="J614"/>
       <c r="K614"/>
     </row>
-    <row r="615" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I615"/>
       <c r="J615"/>
       <c r="K615"/>
     </row>
-    <row r="616" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I616"/>
       <c r="J616"/>
       <c r="K616"/>
     </row>
-    <row r="617" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I617"/>
       <c r="J617"/>
       <c r="K617"/>
     </row>
-    <row r="618" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I618"/>
       <c r="J618"/>
       <c r="K618"/>
     </row>
-    <row r="619" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I619"/>
       <c r="J619"/>
       <c r="K619"/>
     </row>
-    <row r="620" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I620"/>
       <c r="J620"/>
       <c r="K620"/>
     </row>
-    <row r="621" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I621"/>
       <c r="J621"/>
       <c r="K621"/>
     </row>
-    <row r="622" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I622"/>
       <c r="J622"/>
       <c r="K622"/>
     </row>
-    <row r="623" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I623"/>
       <c r="J623"/>
       <c r="K623"/>
     </row>
-    <row r="624" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I624"/>
       <c r="J624"/>
       <c r="K624"/>
     </row>
-    <row r="625" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I625"/>
       <c r="J625"/>
       <c r="K625"/>
     </row>
-    <row r="626" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I626"/>
       <c r="J626"/>
       <c r="K626"/>
     </row>
-    <row r="627" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I627"/>
       <c r="J627"/>
       <c r="K627"/>
     </row>
-    <row r="628" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I628"/>
       <c r="J628"/>
       <c r="K628"/>
     </row>
-    <row r="629" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I629"/>
       <c r="J629"/>
       <c r="K629"/>
     </row>
-    <row r="630" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I630"/>
       <c r="J630"/>
       <c r="K630"/>
     </row>
-    <row r="631" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I631"/>
       <c r="J631"/>
       <c r="K631"/>
     </row>
-    <row r="632" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I632"/>
       <c r="J632"/>
       <c r="K632"/>
     </row>
-    <row r="633" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I633"/>
       <c r="J633"/>
       <c r="K633"/>
     </row>
-    <row r="634" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I634"/>
       <c r="J634"/>
       <c r="K634"/>
     </row>
-    <row r="635" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I635"/>
       <c r="J635"/>
       <c r="K635"/>
     </row>
-    <row r="636" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I636"/>
       <c r="J636"/>
       <c r="K636"/>
     </row>
-    <row r="637" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I637"/>
       <c r="J637"/>
       <c r="K637"/>
     </row>
-    <row r="638" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I638"/>
       <c r="J638"/>
       <c r="K638"/>
     </row>
-    <row r="639" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I639"/>
       <c r="J639"/>
       <c r="K639"/>
     </row>
-    <row r="640" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I640"/>
       <c r="J640"/>
       <c r="K640"/>
     </row>
-    <row r="641" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I641"/>
       <c r="J641"/>
       <c r="K641"/>
     </row>
-    <row r="642" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I642"/>
       <c r="J642"/>
       <c r="K642"/>
     </row>
-    <row r="643" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I643"/>
       <c r="J643"/>
       <c r="K643"/>
     </row>
-    <row r="644" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I644"/>
       <c r="J644"/>
       <c r="K644"/>
     </row>
-    <row r="645" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I645"/>
       <c r="J645"/>
       <c r="K645"/>
     </row>
-    <row r="646" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I646"/>
       <c r="J646"/>
       <c r="K646"/>
     </row>
-    <row r="647" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I647"/>
       <c r="J647"/>
       <c r="K647"/>
     </row>
-    <row r="648" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I648"/>
       <c r="J648"/>
       <c r="K648"/>
     </row>
-    <row r="649" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I649"/>
       <c r="J649"/>
       <c r="K649"/>
     </row>
-    <row r="650" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I650"/>
       <c r="J650"/>
       <c r="K650"/>
     </row>
-    <row r="651" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I651"/>
       <c r="J651"/>
       <c r="K651"/>
     </row>
-    <row r="652" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I652"/>
       <c r="J652"/>
       <c r="K652"/>
     </row>
-    <row r="653" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I653"/>
       <c r="J653"/>
       <c r="K653"/>
     </row>
-    <row r="654" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I654"/>
       <c r="J654"/>
       <c r="K654"/>
     </row>
-    <row r="655" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I655"/>
       <c r="J655"/>
       <c r="K655"/>
     </row>
-    <row r="656" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I656"/>
       <c r="J656"/>
       <c r="K656"/>
     </row>
-    <row r="657" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I657"/>
       <c r="J657"/>
       <c r="K657"/>
     </row>
-    <row r="658" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I658"/>
       <c r="J658"/>
       <c r="K658"/>
     </row>
-    <row r="659" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I659"/>
       <c r="J659"/>
       <c r="K659"/>
     </row>
-    <row r="660" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I660"/>
       <c r="J660"/>
       <c r="K660"/>
     </row>
-    <row r="661" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I661"/>
       <c r="J661"/>
       <c r="K661"/>
     </row>
-    <row r="662" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I662"/>
       <c r="J662"/>
       <c r="K662"/>
     </row>
-    <row r="663" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I663"/>
       <c r="J663"/>
       <c r="K663"/>
     </row>
-    <row r="664" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I664"/>
       <c r="J664"/>
       <c r="K664"/>
     </row>
-    <row r="665" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I665"/>
       <c r="J665"/>
       <c r="K665"/>
     </row>
-    <row r="666" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I666"/>
       <c r="J666"/>
       <c r="K666"/>
     </row>
-    <row r="667" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I667"/>
       <c r="J667"/>
       <c r="K667"/>
     </row>
-    <row r="668" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I668"/>
       <c r="J668"/>
       <c r="K668"/>
     </row>
-    <row r="669" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I669"/>
       <c r="J669"/>
       <c r="K669"/>
     </row>
-    <row r="670" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I670"/>
       <c r="J670"/>
       <c r="K670"/>
     </row>
-    <row r="671" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I671"/>
       <c r="J671"/>
       <c r="K671"/>
     </row>
-    <row r="672" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I672"/>
       <c r="J672"/>
       <c r="K672"/>
     </row>
-    <row r="673" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I673"/>
       <c r="J673"/>
       <c r="K673"/>
     </row>
-    <row r="674" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I674"/>
       <c r="J674"/>
       <c r="K674"/>
     </row>
-    <row r="675" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I675"/>
       <c r="J675"/>
       <c r="K675"/>
     </row>
-    <row r="676" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I676"/>
       <c r="J676"/>
       <c r="K676"/>
     </row>
-    <row r="677" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I677"/>
       <c r="J677"/>
       <c r="K677"/>
     </row>
-    <row r="678" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I678"/>
       <c r="J678"/>
       <c r="K678"/>
     </row>
-    <row r="679" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I679"/>
       <c r="J679"/>
       <c r="K679"/>
     </row>
-    <row r="680" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I680"/>
       <c r="J680"/>
       <c r="K680"/>
     </row>
-    <row r="681" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I681"/>
       <c r="J681"/>
       <c r="K681"/>
     </row>
-    <row r="682" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I682"/>
       <c r="J682"/>
       <c r="K682"/>
     </row>
-    <row r="683" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I683"/>
       <c r="J683"/>
       <c r="K683"/>
     </row>
-    <row r="684" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I684"/>
       <c r="J684"/>
       <c r="K684"/>
     </row>
-    <row r="685" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I685"/>
       <c r="J685"/>
       <c r="K685"/>
     </row>
-    <row r="686" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I686"/>
       <c r="J686"/>
       <c r="K686"/>
     </row>
-    <row r="687" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I687"/>
       <c r="J687"/>
       <c r="K687"/>
     </row>
-    <row r="688" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I688"/>
       <c r="J688"/>
       <c r="K688"/>
     </row>
-    <row r="689" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I689"/>
       <c r="J689"/>
       <c r="K689"/>
     </row>
-    <row r="690" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I690"/>
       <c r="J690"/>
       <c r="K690"/>
     </row>
-    <row r="691" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I691"/>
       <c r="J691"/>
       <c r="K691"/>
     </row>
-    <row r="692" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I692"/>
       <c r="J692"/>
       <c r="K692"/>
     </row>
-    <row r="693" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I693"/>
       <c r="J693"/>
       <c r="K693"/>
     </row>
-    <row r="694" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I694"/>
       <c r="J694"/>
       <c r="K694"/>
     </row>
-    <row r="695" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I695"/>
       <c r="J695"/>
       <c r="K695"/>
     </row>
-    <row r="696" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I696"/>
       <c r="J696"/>
       <c r="K696"/>
     </row>
-    <row r="697" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I697"/>
       <c r="J697"/>
       <c r="K697"/>
     </row>
-    <row r="698" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I698"/>
       <c r="J698"/>
       <c r="K698"/>
     </row>
-    <row r="699" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I699"/>
       <c r="J699"/>
       <c r="K699"/>
     </row>
-    <row r="700" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I700"/>
       <c r="J700"/>
       <c r="K700"/>
     </row>
-    <row r="701" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I701"/>
       <c r="J701"/>
       <c r="K701"/>
     </row>
-    <row r="702" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I702"/>
       <c r="J702"/>
       <c r="K702"/>
     </row>
-    <row r="703" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I703"/>
       <c r="J703"/>
       <c r="K703"/>
     </row>
-    <row r="704" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I704"/>
       <c r="J704"/>
       <c r="K704"/>
     </row>
-    <row r="705" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I705"/>
       <c r="J705"/>
       <c r="K705"/>
     </row>
-    <row r="706" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I706"/>
       <c r="J706"/>
       <c r="K706"/>
     </row>
-    <row r="707" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I707"/>
       <c r="J707"/>
       <c r="K707"/>
     </row>
-    <row r="708" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I708"/>
       <c r="J708"/>
       <c r="K708"/>
     </row>
-    <row r="709" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I709"/>
       <c r="J709"/>
       <c r="K709"/>
     </row>
-    <row r="710" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I710"/>
       <c r="J710"/>
       <c r="K710"/>
     </row>
-    <row r="711" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I711"/>
       <c r="J711"/>
       <c r="K711"/>
     </row>
-    <row r="712" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I712"/>
       <c r="J712"/>
       <c r="K712"/>
     </row>
-    <row r="713" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I713"/>
       <c r="J713"/>
       <c r="K713"/>
     </row>
-    <row r="714" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I714"/>
       <c r="J714"/>
       <c r="K714"/>
     </row>
-    <row r="715" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I715"/>
       <c r="J715"/>
       <c r="K715"/>
     </row>
-    <row r="716" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I716"/>
       <c r="J716"/>
       <c r="K716"/>
     </row>
-    <row r="717" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I717"/>
       <c r="J717"/>
       <c r="K717"/>
     </row>
-    <row r="718" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I718"/>
       <c r="J718"/>
       <c r="K718"/>
     </row>
-    <row r="719" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I719"/>
       <c r="J719"/>
       <c r="K719"/>
     </row>
-    <row r="720" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I720"/>
       <c r="J720"/>
       <c r="K720"/>
     </row>
-    <row r="721" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I721"/>
       <c r="J721"/>
       <c r="K721"/>
     </row>
-    <row r="722" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I722"/>
       <c r="J722"/>
       <c r="K722"/>
     </row>
-    <row r="723" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I723"/>
       <c r="J723"/>
       <c r="K723"/>
     </row>
-    <row r="724" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I724"/>
       <c r="J724"/>
       <c r="K724"/>
     </row>
-    <row r="725" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I725"/>
       <c r="J725"/>
       <c r="K725"/>
     </row>
-    <row r="726" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I726"/>
       <c r="J726"/>
       <c r="K726"/>
     </row>
-    <row r="727" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I727"/>
       <c r="J727"/>
       <c r="K727"/>
     </row>
-    <row r="728" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I728"/>
       <c r="J728"/>
       <c r="K728"/>
     </row>
-    <row r="729" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I729"/>
       <c r="J729"/>
       <c r="K729"/>
     </row>
-    <row r="730" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I730"/>
       <c r="J730"/>
       <c r="K730"/>
     </row>
-    <row r="731" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I731"/>
       <c r="J731"/>
       <c r="K731"/>
     </row>
-    <row r="732" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I732"/>
       <c r="J732"/>
       <c r="K732"/>
     </row>
-    <row r="733" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I733"/>
       <c r="J733"/>
       <c r="K733"/>
     </row>
-    <row r="734" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I734"/>
       <c r="J734"/>
       <c r="K734"/>
     </row>
-    <row r="735" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I735"/>
       <c r="J735"/>
       <c r="K735"/>
     </row>
-    <row r="736" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I736"/>
       <c r="J736"/>
       <c r="K736"/>
     </row>
-    <row r="737" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I737"/>
       <c r="J737"/>
       <c r="K737"/>
     </row>
-    <row r="738" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I738"/>
       <c r="J738"/>
       <c r="K738"/>
     </row>
-    <row r="739" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I739"/>
       <c r="J739"/>
       <c r="K739"/>
     </row>
-    <row r="740" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I740"/>
       <c r="J740"/>
       <c r="K740"/>
     </row>
-    <row r="741" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I741"/>
       <c r="J741"/>
       <c r="K741"/>
     </row>
-    <row r="742" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I742"/>
       <c r="J742"/>
       <c r="K742"/>
     </row>
-    <row r="743" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I743"/>
       <c r="J743"/>
       <c r="K743"/>
     </row>
-    <row r="744" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I744"/>
       <c r="J744"/>
       <c r="K744"/>
     </row>
-    <row r="745" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I745"/>
       <c r="J745"/>
       <c r="K745"/>
     </row>
-    <row r="746" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I746"/>
       <c r="J746"/>
       <c r="K746"/>
     </row>
-    <row r="747" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I747"/>
       <c r="J747"/>
       <c r="K747"/>
     </row>
-    <row r="748" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I748"/>
       <c r="J748"/>
       <c r="K748"/>
     </row>
-    <row r="749" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I749"/>
       <c r="J749"/>
       <c r="K749"/>
     </row>
-    <row r="750" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I750"/>
       <c r="J750"/>
       <c r="K750"/>
     </row>
-    <row r="751" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I751"/>
       <c r="J751"/>
       <c r="K751"/>
     </row>
-    <row r="752" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I752"/>
       <c r="J752"/>
       <c r="K752"/>
     </row>
-    <row r="753" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I753"/>
       <c r="J753"/>
       <c r="K753"/>
     </row>
-    <row r="754" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I754"/>
       <c r="J754"/>
       <c r="K754"/>
     </row>
-    <row r="755" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I755"/>
       <c r="J755"/>
       <c r="K755"/>
     </row>
-    <row r="756" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I756"/>
       <c r="J756"/>
       <c r="K756"/>
     </row>
-    <row r="757" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I757"/>
       <c r="J757"/>
       <c r="K757"/>
     </row>
-    <row r="758" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I758"/>
       <c r="J758"/>
       <c r="K758"/>
     </row>
-    <row r="759" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I759"/>
       <c r="J759"/>
       <c r="K759"/>
     </row>
-    <row r="760" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I760"/>
       <c r="J760"/>
       <c r="K760"/>
     </row>
-    <row r="761" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I761"/>
       <c r="J761"/>
       <c r="K761"/>
     </row>
-    <row r="762" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I762"/>
       <c r="J762"/>
       <c r="K762"/>
     </row>
-    <row r="763" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I763"/>
       <c r="J763"/>
       <c r="K763"/>
     </row>
-    <row r="764" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I764"/>
       <c r="J764"/>
       <c r="K764"/>
     </row>
-    <row r="765" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I765"/>
       <c r="J765"/>
       <c r="K765"/>
     </row>
-    <row r="766" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I766"/>
       <c r="J766"/>
       <c r="K766"/>
     </row>
-    <row r="767" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I767"/>
       <c r="J767"/>
       <c r="K767"/>
     </row>
-    <row r="768" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I768"/>
       <c r="J768"/>
       <c r="K768"/>
     </row>
-    <row r="769" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I769"/>
       <c r="J769"/>
       <c r="K769"/>
     </row>
-    <row r="770" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I770"/>
       <c r="J770"/>
       <c r="K770"/>
     </row>
-    <row r="771" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I771"/>
       <c r="J771"/>
       <c r="K771"/>
     </row>
-    <row r="772" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I772"/>
       <c r="J772"/>
       <c r="K772"/>
     </row>
-    <row r="773" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I773"/>
       <c r="J773"/>
       <c r="K773"/>
     </row>
-    <row r="774" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I774"/>
       <c r="J774"/>
       <c r="K774"/>
     </row>
-    <row r="775" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I775"/>
       <c r="J775"/>
       <c r="K775"/>
     </row>
-    <row r="776" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I776"/>
       <c r="J776"/>
       <c r="K776"/>
     </row>
-    <row r="777" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I777"/>
       <c r="J777"/>
       <c r="K777"/>
     </row>
-    <row r="778" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I778"/>
       <c r="J778"/>
       <c r="K778"/>
     </row>
-    <row r="779" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I779"/>
       <c r="J779"/>
       <c r="K779"/>
     </row>
-    <row r="780" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I780"/>
       <c r="J780"/>
       <c r="K780"/>
     </row>
-    <row r="781" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I781"/>
       <c r="J781"/>
       <c r="K781"/>
     </row>
-    <row r="782" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I782"/>
       <c r="J782"/>
       <c r="K782"/>
     </row>
-    <row r="783" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I783"/>
       <c r="J783"/>
       <c r="K783"/>
     </row>
-    <row r="784" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I784"/>
       <c r="J784"/>
       <c r="K784"/>
     </row>
-    <row r="785" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I785"/>
       <c r="J785"/>
       <c r="K785"/>
     </row>
-    <row r="786" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I786"/>
       <c r="J786"/>
       <c r="K786"/>
     </row>
-    <row r="787" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I787"/>
       <c r="J787"/>
       <c r="K787"/>
     </row>
-    <row r="788" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I788"/>
       <c r="J788"/>
       <c r="K788"/>
     </row>
-    <row r="789" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I789"/>
       <c r="J789"/>
       <c r="K789"/>
     </row>
-    <row r="790" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I790"/>
       <c r="J790"/>
       <c r="K790"/>
     </row>
-    <row r="791" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I791"/>
       <c r="J791"/>
       <c r="K791"/>
     </row>
-    <row r="792" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I792"/>
       <c r="J792"/>
       <c r="K792"/>
     </row>
-    <row r="793" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I793"/>
       <c r="J793"/>
       <c r="K793"/>
     </row>
-    <row r="794" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I794"/>
       <c r="J794"/>
       <c r="K794"/>
     </row>
-    <row r="795" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I795"/>
       <c r="J795"/>
       <c r="K795"/>
     </row>
-    <row r="796" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I796"/>
       <c r="J796"/>
       <c r="K796"/>
     </row>
-    <row r="797" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I797"/>
       <c r="J797"/>
       <c r="K797"/>
     </row>
-    <row r="798" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I798"/>
       <c r="J798"/>
       <c r="K798"/>
     </row>
-    <row r="799" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I799"/>
       <c r="J799"/>
       <c r="K799"/>
     </row>
-    <row r="800" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I800"/>
       <c r="J800"/>
       <c r="K800"/>
     </row>
-    <row r="801" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I801"/>
       <c r="J801"/>
       <c r="K801"/>
     </row>
-    <row r="802" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I802"/>
       <c r="J802"/>
       <c r="K802"/>
     </row>
-    <row r="803" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I803"/>
       <c r="J803"/>
       <c r="K803"/>
     </row>
-    <row r="804" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I804"/>
       <c r="J804"/>
       <c r="K804"/>
     </row>
-    <row r="805" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I805"/>
       <c r="J805"/>
       <c r="K805"/>
     </row>
-    <row r="806" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I806"/>
       <c r="J806"/>
       <c r="K806"/>
     </row>
-    <row r="807" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I807"/>
       <c r="J807"/>
       <c r="K807"/>
     </row>
-    <row r="808" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I808"/>
       <c r="J808"/>
       <c r="K808"/>
     </row>
-    <row r="809" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I809"/>
       <c r="J809"/>
       <c r="K809"/>
     </row>
-    <row r="810" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I810"/>
       <c r="J810"/>
       <c r="K810"/>

--- a/Spraw4/lab4.xlsx
+++ b/Spraw4/lab4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D975217-77DF-4E05-9329-79A9E42961B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA433E2-74F7-4137-AE2A-AAED1E21CE40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -459,112 +459,112 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="36"/>
                   <c:pt idx="0">
-                    <c:v>4.4078279130376572E-3</c:v>
+                    <c:v>5.7774465945334931E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.295687588911964E-2</c:v>
+                    <c:v>1.3453465353068563E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1139501894882656E-2</c:v>
+                    <c:v>2.1410853371918517E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.8683992127352259E-2</c:v>
+                    <c:v>2.8847939341668283E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.535846430226857E-2</c:v>
+                    <c:v>3.5457712238971102E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.0959377330076603E-2</c:v>
+                    <c:v>4.101579098570194E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.5316260384831553E-2</c:v>
+                    <c:v>4.5343952985261081E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.8296597839015035E-2</c:v>
+                    <c:v>4.830634517780398E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.9809768607359001E-2</c:v>
+                    <c:v>4.9810840439513518E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.9809768607359001E-2</c:v>
+                    <c:v>4.9810840439513518E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>4.8296597839015035E-2</c:v>
+                    <c:v>4.830634517780398E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.5316260384831553E-2</c:v>
+                    <c:v>4.5343952985261081E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.095937733007661E-2</c:v>
+                    <c:v>4.101579098570194E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3.5358464302268564E-2</c:v>
+                    <c:v>3.5457712238971095E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.8683992127352266E-2</c:v>
+                    <c:v>2.8847939341668283E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.1139501894882652E-2</c:v>
+                    <c:v>2.1410853371918514E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.2956875889119627E-2</c:v>
+                    <c:v>1.345346535306855E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.4078279130376563E-3</c:v>
+                    <c:v>5.7774465945334922E-3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>4.4078279130376563E-3</c:v>
+                    <c:v>5.7774465945334922E-3</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.2956875889119627E-2</c:v>
+                    <c:v>1.345346535306855E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.1139501894882652E-2</c:v>
+                    <c:v>2.1410853371918514E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.8683992127352266E-2</c:v>
+                    <c:v>2.8847939341668283E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.5358464302268564E-2</c:v>
+                    <c:v>3.5457712238971095E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>4.095937733007661E-2</c:v>
+                    <c:v>4.101579098570194E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>4.5316260384831553E-2</c:v>
+                    <c:v>4.5343952985261081E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>4.8296597839015035E-2</c:v>
+                    <c:v>4.830634517780398E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>4.9809768607359001E-2</c:v>
+                    <c:v>4.9810840439513518E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>4.9809768607359001E-2</c:v>
+                    <c:v>4.9810840439513518E-2</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>4.8296597839015035E-2</c:v>
+                    <c:v>4.830634517780398E-2</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>4.5316260384831553E-2</c:v>
+                    <c:v>4.5343952985261081E-2</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>4.0959377330076603E-2</c:v>
+                    <c:v>4.101579098570194E-2</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>3.535846430226857E-2</c:v>
+                    <c:v>3.5457712238971102E-2</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>2.8683992127352259E-2</c:v>
+                    <c:v>2.8847939341668283E-2</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>2.1139501894882656E-2</c:v>
+                    <c:v>2.1410853371918517E-2</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>1.295687588911964E-2</c:v>
+                    <c:v>1.3453465353068563E-2</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>4.4078279130376572E-3</c:v>
+                    <c:v>5.7774465945334931E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -576,112 +576,112 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="36"/>
                   <c:pt idx="0">
-                    <c:v>4.4078279130376572E-3</c:v>
+                    <c:v>5.7774465945334931E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.295687588911964E-2</c:v>
+                    <c:v>1.3453465353068563E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1139501894882656E-2</c:v>
+                    <c:v>2.1410853371918517E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.8683992127352259E-2</c:v>
+                    <c:v>2.8847939341668283E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.535846430226857E-2</c:v>
+                    <c:v>3.5457712238971102E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.0959377330076603E-2</c:v>
+                    <c:v>4.101579098570194E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.5316260384831553E-2</c:v>
+                    <c:v>4.5343952985261081E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.8296597839015035E-2</c:v>
+                    <c:v>4.830634517780398E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.9809768607359001E-2</c:v>
+                    <c:v>4.9810840439513518E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4.9809768607359001E-2</c:v>
+                    <c:v>4.9810840439513518E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>4.8296597839015035E-2</c:v>
+                    <c:v>4.830634517780398E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.5316260384831553E-2</c:v>
+                    <c:v>4.5343952985261081E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>4.095937733007661E-2</c:v>
+                    <c:v>4.101579098570194E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3.5358464302268564E-2</c:v>
+                    <c:v>3.5457712238971095E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.8683992127352266E-2</c:v>
+                    <c:v>2.8847939341668283E-2</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.1139501894882652E-2</c:v>
+                    <c:v>2.1410853371918514E-2</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.2956875889119627E-2</c:v>
+                    <c:v>1.345346535306855E-2</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.4078279130376563E-3</c:v>
+                    <c:v>5.7774465945334922E-3</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>4.4078279130376563E-3</c:v>
+                    <c:v>5.7774465945334922E-3</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.2956875889119627E-2</c:v>
+                    <c:v>1.345346535306855E-2</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>2.1139501894882652E-2</c:v>
+                    <c:v>2.1410853371918514E-2</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.8683992127352266E-2</c:v>
+                    <c:v>2.8847939341668283E-2</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>3.5358464302268564E-2</c:v>
+                    <c:v>3.5457712238971095E-2</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>4.095937733007661E-2</c:v>
+                    <c:v>4.101579098570194E-2</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>4.5316260384831553E-2</c:v>
+                    <c:v>4.5343952985261081E-2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>4.8296597839015035E-2</c:v>
+                    <c:v>4.830634517780398E-2</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>4.9809768607359001E-2</c:v>
+                    <c:v>4.9810840439513518E-2</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>4.9809768607359001E-2</c:v>
+                    <c:v>4.9810840439513518E-2</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>4.8296597839015035E-2</c:v>
+                    <c:v>4.830634517780398E-2</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>4.5316260384831553E-2</c:v>
+                    <c:v>4.5343952985261081E-2</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>4.0959377330076603E-2</c:v>
+                    <c:v>4.101579098570194E-2</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>3.535846430226857E-2</c:v>
+                    <c:v>3.5457712238971102E-2</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>2.8683992127352259E-2</c:v>
+                    <c:v>2.8847939341668283E-2</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>2.1139501894882656E-2</c:v>
+                    <c:v>2.1410853371918517E-2</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>1.295687588911964E-2</c:v>
+                    <c:v>1.3453465353068563E-2</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>4.4078279130376572E-3</c:v>
+                    <c:v>5.7774465945334931E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2324,6 +2324,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.8016652070795386E-3"/>
+              <c:y val="0.43942116758698602"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5228,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE36" sqref="AE36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5238,6 +5246,7 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="2"/>
@@ -5342,8 +5351,8 @@
         <v>4.4600000000000011E-4</v>
       </c>
       <c r="J4" s="2">
-        <f>SQRT(0.0873*0.0873*(((RADIANS(5)^2)*COS(RADIANS(D4-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D4-$L$3)))^2))</f>
-        <v>4.4078279130376572E-3</v>
+        <f>SQRT((0.5^2)*(((RADIANS(5)^2)*COS(RADIANS(D4-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D4-$L$3)))^2))</f>
+        <v>5.7774465945334931E-3</v>
       </c>
       <c r="K4" s="2">
         <f>$I$3*SIN(RADIANS(D4-$L$3))</f>
@@ -5374,8 +5383,8 @@
         <v>1.1200000000000001E-3</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J39" si="2">SQRT(0.0873*0.0873*(((RADIANS(5)^2)*COS(RADIANS(D5-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D5-$L$3)))^2))</f>
-        <v>1.295687588911964E-2</v>
+        <f t="shared" ref="J5:J39" si="2">SQRT((0.5^2)*(((RADIANS(5)^2)*COS(RADIANS(D5-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D5-$L$3)))^2))</f>
+        <v>1.3453465353068563E-2</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K39" si="3">$I$3*SIN(RADIANS(D5-$L$3))</f>
@@ -5413,7 +5422,7 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>2.1139501894882656E-2</v>
+        <v>2.1410853371918517E-2</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="3"/>
@@ -5464,7 +5473,7 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
-        <v>2.8683992127352259E-2</v>
+        <v>2.8847939341668283E-2</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
@@ -5514,7 +5523,7 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>3.535846430226857E-2</v>
+        <v>3.5457712238971102E-2</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
@@ -5558,7 +5567,7 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
-        <v>4.0959377330076603E-2</v>
+        <v>4.101579098570194E-2</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
@@ -5602,7 +5611,7 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
-        <v>4.5316260384831553E-2</v>
+        <v>4.5343952985261081E-2</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
@@ -5646,7 +5655,7 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
-        <v>4.8296597839015035E-2</v>
+        <v>4.830634517780398E-2</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
@@ -5694,7 +5703,7 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>4.9809768607359001E-2</v>
+        <v>4.9810840439513518E-2</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
@@ -5738,7 +5747,7 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
-        <v>4.9809768607359001E-2</v>
+        <v>4.9810840439513518E-2</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
@@ -5782,7 +5791,7 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
-        <v>4.8296597839015035E-2</v>
+        <v>4.830634517780398E-2</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
@@ -5814,7 +5823,7 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
-        <v>4.5316260384831553E-2</v>
+        <v>4.5343952985261081E-2</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
@@ -5846,7 +5855,7 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
-        <v>4.095937733007661E-2</v>
+        <v>4.101579098570194E-2</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="3"/>
@@ -5878,7 +5887,7 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
-        <v>3.5358464302268564E-2</v>
+        <v>3.5457712238971095E-2</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="3"/>
@@ -5910,7 +5919,7 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
-        <v>2.8683992127352266E-2</v>
+        <v>2.8847939341668283E-2</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="3"/>
@@ -5946,7 +5955,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
-        <v>2.1139501894882652E-2</v>
+        <v>2.1410853371918514E-2</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="3"/>
@@ -5978,7 +5987,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
-        <v>1.2956875889119627E-2</v>
+        <v>1.345346535306855E-2</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="3"/>
@@ -6010,7 +6019,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
-        <v>4.4078279130376563E-3</v>
+        <v>5.7774465945334922E-3</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="3"/>
@@ -6042,7 +6051,7 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
-        <v>4.4078279130376563E-3</v>
+        <v>5.7774465945334922E-3</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="3"/>
@@ -6074,7 +6083,7 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
-        <v>1.2956875889119627E-2</v>
+        <v>1.345346535306855E-2</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="3"/>
@@ -6106,7 +6115,7 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
-        <v>2.1139501894882652E-2</v>
+        <v>2.1410853371918514E-2</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="3"/>
@@ -6138,7 +6147,7 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
-        <v>2.8683992127352266E-2</v>
+        <v>2.8847939341668283E-2</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="3"/>
@@ -6170,7 +6179,7 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
-        <v>3.5358464302268564E-2</v>
+        <v>3.5457712238971095E-2</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="3"/>
@@ -6202,7 +6211,7 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>4.095937733007661E-2</v>
+        <v>4.101579098570194E-2</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="3"/>
@@ -6240,7 +6249,7 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="2"/>
-        <v>4.5316260384831553E-2</v>
+        <v>4.5343952985261081E-2</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="3"/>
@@ -6281,8 +6290,8 @@
         <v>3.4445000000000001E-3</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
-        <v>4.8296597839015035E-2</v>
+        <f>SQRT((0.5^2)*(((RADIANS(5)^2)*COS(RADIANS(D29-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D29-$L$3)))^2))</f>
+        <v>4.830634517780398E-2</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="3"/>
@@ -6323,7 +6332,7 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" si="2"/>
-        <v>4.9809768607359001E-2</v>
+        <v>4.9810840439513518E-2</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="3"/>
@@ -6355,7 +6364,7 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="2"/>
-        <v>4.9809768607359001E-2</v>
+        <v>4.9810840439513518E-2</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="3"/>
@@ -6397,7 +6406,7 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="2"/>
-        <v>4.8296597839015035E-2</v>
+        <v>4.830634517780398E-2</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="3"/>
@@ -6429,7 +6438,7 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="2"/>
-        <v>4.5316260384831553E-2</v>
+        <v>4.5343952985261081E-2</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="3"/>
@@ -6461,7 +6470,7 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
-        <v>4.0959377330076603E-2</v>
+        <v>4.101579098570194E-2</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="3"/>
@@ -6493,7 +6502,7 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="2"/>
-        <v>3.535846430226857E-2</v>
+        <v>3.5457712238971102E-2</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="3"/>
@@ -6525,7 +6534,7 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="2"/>
-        <v>2.8683992127352259E-2</v>
+        <v>2.8847939341668283E-2</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="3"/>
@@ -6557,7 +6566,7 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" si="2"/>
-        <v>2.1139501894882656E-2</v>
+        <v>2.1410853371918517E-2</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="3"/>
@@ -6589,7 +6598,7 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="2"/>
-        <v>1.295687588911964E-2</v>
+        <v>1.3453465353068563E-2</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="3"/>
@@ -6618,7 +6627,7 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" si="2"/>
-        <v>4.4078279130376572E-3</v>
+        <v>5.7774465945334931E-3</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="3"/>

--- a/Spraw4/lab4.xlsx
+++ b/Spraw4/lab4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA433E2-74F7-4137-AE2A-AAED1E21CE40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F36B62A-4E59-473C-BBE3-6DAA44B1BF28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5236,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:K21"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5250,7 +5250,7 @@
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" customWidth="1"/>
     <col min="29" max="29" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -5480,7 +5480,7 @@
         <v>-0.28678821817552297</v>
       </c>
       <c r="L7">
-        <v>2.165E-4</v>
+        <v>2.1650000000000001E-5</v>
       </c>
       <c r="AA7" s="1">
         <v>64.67</v>
@@ -5661,10 +5661,6 @@
         <f t="shared" si="3"/>
         <v>-0.48296291314453416</v>
       </c>
-      <c r="L11">
-        <f>SIN(180*(D4-$L$3)/3.14159)</f>
-        <v>0.92979894367396276</v>
-      </c>
       <c r="AA11" s="1">
         <v>78.209999999999994</v>
       </c>
@@ -5924,10 +5920,6 @@
       <c r="K18" s="2">
         <f t="shared" si="3"/>
         <v>-0.28678821817552302</v>
-      </c>
-      <c r="L18">
-        <f>SIN(90)</f>
-        <v>0.89399666360055785</v>
       </c>
       <c r="AA18" s="1">
         <v>21.34</v>

--- a/Spraw4/lab4.xlsx
+++ b/Spraw4/lab4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F36B62A-4E59-473C-BBE3-6DAA44B1BF28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8456CB41-DB64-4B4D-95CA-DACC82D61463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Zamienie Indukcji B (kąt co 10 stopni)</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Przedzialka co 0.1 mA</t>
-  </si>
-  <si>
-    <t>Kat:</t>
   </si>
   <si>
     <t>B_n</t>
@@ -131,12 +128,21 @@
   <si>
     <t>?</t>
   </si>
+  <si>
+    <t>Kąt:</t>
+  </si>
+  <si>
+    <t>adsa</t>
+  </si>
+  <si>
+    <t>U_H[V]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +171,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +202,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,20 +216,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Dane wejściowe" xfId="4" builtinId="20"/>
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
     <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -5234,30 +5271,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AF810"/>
+  <dimension ref="B1:AT810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="AB35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS48" sqref="AS48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="2"/>
-    <col min="12" max="12" width="33.140625" customWidth="1"/>
-    <col min="29" max="29" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="33.109375" customWidth="1"/>
+    <col min="29" max="29" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:40" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -5266,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5281,22 +5318,22 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" s="1">
         <v>8.32</v>
       </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5304,19 +5341,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="2">
         <v>0.5</v>
@@ -5327,8 +5364,23 @@
       <c r="AA3" s="1">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>1</v>
@@ -5361,8 +5413,23 @@
       <c r="AA4" s="1">
         <v>34.119999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>8.320000000000001E-3</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>4.4600000000000011E-4</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>5.7774465945334931E-3</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>-4.3577871373829097E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>2</v>
@@ -5394,13 +5461,28 @@
         <v>46.42</v>
       </c>
       <c r="AC5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>2.18E-2</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>1.1200000000000001E-3</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>1.3453465353068563E-2</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>-0.12940952255126051</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>3</v>
@@ -5429,13 +5511,13 @@
         <v>-0.21130913087034975</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA6" s="1">
         <v>56.49</v>
       </c>
       <c r="AB6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC6">
         <f t="array" ref="AC6:AF13">LINEST(G19:G29,D19:D29,TRUE,TRUE)</f>
@@ -5450,8 +5532,23 @@
       <c r="AF6" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="4">
+        <v>20</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>3.4119999999999998E-2</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>1.7360000000000001E-3</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>2.1410853371918517E-2</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>-0.21130913087034975</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>4</v>
@@ -5486,7 +5583,7 @@
         <v>64.67</v>
       </c>
       <c r="AB7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC7">
         <v>5.0045648491812204E-5</v>
@@ -5500,8 +5597,23 @@
       <c r="AF7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="4">
+        <v>30</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>4.6420000000000003E-2</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>2.3510000000000002E-3</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>2.8847939341668283E-2</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>-0.28678821817552297</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>5</v>
@@ -5544,8 +5656,23 @@
       <c r="AF8" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="4">
+        <v>40</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>5.6489999999999999E-2</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>2.8545000000000003E-3</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>3.5457712238971102E-2</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>-0.35355339059327379</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>6</v>
@@ -5588,8 +5715,23 @@
       <c r="AF9" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="4">
+        <v>50</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>6.4670000000000005E-2</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>3.2635000000000003E-3</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>4.101579098570194E-2</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>-0.40957602214449584</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>7</v>
@@ -5632,8 +5774,23 @@
       <c r="AF10" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="4">
+        <v>60</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>7.1510000000000004E-2</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>3.6055000000000006E-3</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>4.5343952985261081E-2</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>-0.45315389351832502</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>8</v>
@@ -5676,8 +5833,23 @@
       <c r="AF11" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="4">
+        <v>70</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>7.5950000000000004E-2</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>3.8275000000000006E-3</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>4.830634517780398E-2</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>-0.48296291314453416</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>9</v>
@@ -5720,8 +5892,23 @@
       <c r="AF12" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="4">
+        <v>80</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>7.8230000000000008E-2</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>3.9415000000000006E-3</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>4.9810840439513518E-2</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>-0.49809734904587277</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>10</v>
@@ -5764,8 +5951,23 @@
       <c r="AF13" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="4">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>7.8209999999999988E-2</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>3.9404999999999996E-3</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>4.9810840439513518E-2</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>-0.49809734904587277</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>11</v>
@@ -5796,8 +5998,23 @@
       <c r="AA14" s="1">
         <v>64.319999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="4">
+        <v>100</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>7.571E-2</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>3.8155000000000003E-3</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>4.830634517780398E-2</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>-0.48296291314453416</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>12</v>
@@ -5828,8 +6045,23 @@
       <c r="AA15" s="1">
         <v>55.45</v>
       </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="4">
+        <v>110</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>3.5750000000000005E-3</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>4.5343952985261081E-2</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>-0.45315389351832497</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>13</v>
@@ -5860,8 +6092,23 @@
       <c r="AA16" s="1">
         <v>45.21</v>
       </c>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="4">
+        <v>120</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>6.4319999999999988E-2</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>3.2459999999999998E-3</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>4.101579098570194E-2</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>-0.4095760221444959</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>14</v>
@@ -5892,8 +6139,23 @@
       <c r="AA17" s="1">
         <v>33.75</v>
       </c>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="4">
+        <v>130</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>5.5450000000000006E-2</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>2.8025000000000007E-3</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>3.5457712238971095E-2</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>-0.35355339059327373</v>
+      </c>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>15</v>
@@ -5924,8 +6186,23 @@
       <c r="AA18" s="1">
         <v>21.34</v>
       </c>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="4">
+        <v>140</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>4.521E-2</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>2.2905E-3</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>2.8847939341668283E-2</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>-0.28678821817552302</v>
+      </c>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>16</v>
@@ -5956,8 +6233,23 @@
       <c r="AA19" s="1">
         <v>8.08</v>
       </c>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="4">
+        <v>150</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>3.3750000000000002E-2</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>1.7175000000000003E-3</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>2.1410853371918514E-2</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>-0.21130913087034972</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1">
         <v>17</v>
@@ -5988,8 +6280,23 @@
       <c r="AA20" s="1">
         <v>-5.05</v>
       </c>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="4">
+        <v>160</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>2.1340000000000001E-2</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>1.0970000000000001E-3</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>1.345346535306855E-2</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>-0.12940952255126037</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1">
         <v>18</v>
@@ -6020,8 +6327,23 @@
       <c r="AA21" s="1">
         <v>-18.34</v>
       </c>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="4">
+        <v>170</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>8.0800000000000004E-3</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>4.3400000000000009E-4</v>
+      </c>
+      <c r="AM21" s="4">
+        <v>5.7774465945334922E-3</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>-4.3577871373829083E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>19</v>
@@ -6052,8 +6374,23 @@
       <c r="AA22" s="1">
         <v>-30.73</v>
       </c>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="4">
+        <v>180</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>-5.0499999999999998E-3</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>2.2250000000000001E-4</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>5.7774465945334922E-3</v>
+      </c>
+      <c r="AN22" s="4">
+        <v>4.3577871373829083E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>20</v>
@@ -6084,8 +6421,23 @@
       <c r="AA23" s="1">
         <v>-41.9</v>
       </c>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="4">
+        <v>190</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>-1.8339999999999999E-2</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>8.8699999999999998E-4</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>1.345346535306855E-2</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>0.12940952255126037</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1">
         <v>21</v>
@@ -6116,8 +6468,23 @@
       <c r="AA24" s="1">
         <v>-51.61</v>
       </c>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="4">
+        <v>200</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>-3.073E-2</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>1.5065E-3</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>2.1410853371918514E-2</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>0.21130913087034972</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1">
         <v>22</v>
@@ -6148,8 +6515,23 @@
       <c r="AA25" s="1">
         <v>-59.25</v>
       </c>
-    </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="4">
+        <v>210</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>-4.19E-2</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>2.065E-3</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>2.8847939341668283E-2</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>0.28678821817552302</v>
+      </c>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1">
         <v>23</v>
@@ -6180,8 +6562,23 @@
       <c r="AA26" s="1">
         <v>-65.42</v>
       </c>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="4">
+        <v>220</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>-5.1609999999999996E-2</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>2.5504999999999998E-3</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>3.5457712238971095E-2</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>0.35355339059327373</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1">
         <v>24</v>
@@ -6213,13 +6610,28 @@
         <v>-69.489999999999995</v>
       </c>
       <c r="AC27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>230</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>-5.9249999999999997E-2</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>2.9324999999999998E-3</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>4.101579098570194E-2</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>0.4095760221444959</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1">
         <v>25</v>
@@ -6251,7 +6663,7 @@
         <v>-71.790000000000006</v>
       </c>
       <c r="AB28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC28">
         <f t="array" ref="AC28:AD29">LINEST(G4:G39,K4:K39,TRUE,TRUE)</f>
@@ -6260,8 +6672,23 @@
       <c r="AD28">
         <v>2.4619444444444233E-3</v>
       </c>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="4">
+        <v>240</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>-6.5420000000000006E-2</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>3.2410000000000004E-3</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>4.5343952985261081E-2</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>0.45315389351832497</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1">
         <v>26</v>
@@ -6293,7 +6720,7 @@
         <v>-71.62</v>
       </c>
       <c r="AB29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC29">
         <v>3.3100286187617601E-4</v>
@@ -6301,8 +6728,23 @@
       <c r="AD29">
         <v>1.1702718411239908E-4</v>
       </c>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ29" s="4">
+        <v>250</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>-6.9489999999999996E-2</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>3.4445000000000001E-3</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>4.830634517780398E-2</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>0.48296291314453416</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1">
         <v>27</v>
@@ -6333,8 +6775,23 @@
       <c r="AA30" s="1">
         <v>-69.66</v>
       </c>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="4">
+        <v>260</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>-7.1790000000000007E-2</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>3.5595000000000006E-3</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>4.9810840439513518E-2</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>0.49809734904587277</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1">
         <v>28</v>
@@ -6366,17 +6823,32 @@
         <v>-65.17</v>
       </c>
       <c r="AC31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD31">
         <f>ABS(AC28/F46)</f>
         <v>30.169447922031573</v>
       </c>
       <c r="AE31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>270</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>-7.1620000000000003E-2</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>3.5510000000000003E-3</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>4.9810840439513518E-2</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>0.49809734904587277</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1">
         <v>29</v>
@@ -6407,8 +6879,23 @@
       <c r="AA32" s="1">
         <v>-58.73</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AJ32" s="4">
+        <v>280</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>-6.966E-2</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>3.4529999999999999E-3</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>4.830634517780398E-2</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>0.48296291314453416</v>
+      </c>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1">
         <v>30</v>
@@ -6439,8 +6926,26 @@
       <c r="AA33" s="1">
         <v>-50.44</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AJ33" s="4">
+        <v>290</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>-6.5170000000000006E-2</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>3.2285000000000005E-3</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>4.5343952985261081E-2</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>0.45315389351832502</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>31</v>
@@ -6471,8 +6976,23 @@
       <c r="AA34" s="1">
         <v>-41.01</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="4">
+        <v>300</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>-5.8729999999999997E-2</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>2.9064999999999998E-3</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>4.101579098570194E-2</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>0.40957602214449584</v>
+      </c>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1">
         <v>32</v>
@@ -6503,8 +7023,23 @@
       <c r="AA35" s="1">
         <v>-29.71</v>
       </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AJ35" s="4">
+        <v>310</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>-5.0439999999999999E-2</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>2.4919999999999999E-3</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>3.5457712238971102E-2</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>0.35355339059327379</v>
+      </c>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1">
         <v>33</v>
@@ -6535,8 +7070,23 @@
       <c r="AA36" s="1">
         <v>-17.14</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AJ36" s="4">
+        <v>320</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>-4.1009999999999998E-2</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>2.0204999999999997E-3</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>2.8847939341668283E-2</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>0.28678821817552297</v>
+      </c>
+    </row>
+    <row r="37" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1">
         <v>34</v>
@@ -6567,8 +7117,23 @@
       <c r="AA37" s="1">
         <v>-4.79</v>
       </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AJ37" s="4">
+        <v>330</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>-2.971E-2</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>1.4555E-3</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>2.1410853371918517E-2</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>0.21130913087034975</v>
+      </c>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1">
         <v>35</v>
@@ -6596,8 +7161,23 @@
         <f t="shared" si="3"/>
         <v>0.12940952255126051</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AJ38" s="4">
+        <v>340</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>-1.7139999999999999E-2</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>8.2700000000000004E-4</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>1.3453465353068563E-2</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>0.12940952255126051</v>
+      </c>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1">
         <v>36</v>
@@ -6625,37 +7205,52 @@
         <f t="shared" si="3"/>
         <v>4.3577871373829097E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AJ39" s="4">
+        <v>350</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>-4.79E-3</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>2.0950000000000002E-4</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>5.7774465945334931E-3</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>4.3577871373829097E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.3">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:46" x14ac:dyDescent="0.3">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:46" x14ac:dyDescent="0.3">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:46" x14ac:dyDescent="0.3">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="3"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
         <v>6</v>
       </c>
@@ -6663,21 +7258,21 @@
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:46" x14ac:dyDescent="0.3">
       <c r="C46" s="3">
         <v>5</v>
       </c>
@@ -6702,7 +7297,7 @@
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:46" x14ac:dyDescent="0.3">
       <c r="C47" s="3">
         <v>6</v>
       </c>
@@ -6724,7 +7319,7 @@
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:46" x14ac:dyDescent="0.3">
       <c r="C48" s="3">
         <v>7</v>
       </c>
@@ -6746,7 +7341,7 @@
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C49" s="3">
         <v>8</v>
       </c>
@@ -6767,8 +7362,20 @@
       </c>
       <c r="J49"/>
       <c r="K49"/>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL49" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C50" s="3">
         <v>9</v>
       </c>
@@ -6789,8 +7396,20 @@
       </c>
       <c r="J50"/>
       <c r="K50"/>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI50" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AJ50" s="4">
+        <v>8.320000000000001E-3</v>
+      </c>
+      <c r="AK50" s="4">
+        <v>2.165E-4</v>
+      </c>
+      <c r="AL50" s="4">
+        <v>4.4600000000000011E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C51" s="3">
         <v>10</v>
       </c>
@@ -6811,8 +7430,18 @@
       </c>
       <c r="J51"/>
       <c r="K51"/>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI51" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AJ51" s="4">
+        <v>1.093E-2</v>
+      </c>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4">
+        <v>5.7649999999999997E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C52" s="3">
         <v>11</v>
       </c>
@@ -6833,8 +7462,18 @@
       </c>
       <c r="J52"/>
       <c r="K52"/>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI52" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AJ52" s="4">
+        <v>1.273E-2</v>
+      </c>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4">
+        <v>6.6649999999999999E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C53" s="3">
         <v>12</v>
       </c>
@@ -6855,8 +7494,18 @@
       </c>
       <c r="J53"/>
       <c r="K53"/>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI53" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AJ53" s="4">
+        <v>1.456E-2</v>
+      </c>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4">
+        <v>7.5799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C54" s="3">
         <v>13</v>
       </c>
@@ -6877,8 +7526,18 @@
       </c>
       <c r="J54"/>
       <c r="K54"/>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI54" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AJ54" s="4">
+        <v>1.6289999999999999E-2</v>
+      </c>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4">
+        <v>8.4449999999999998E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C55" s="3">
         <v>14</v>
       </c>
@@ -6899,8 +7558,18 @@
       </c>
       <c r="J55"/>
       <c r="K55"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI55" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="AJ55" s="4">
+        <v>1.7950000000000001E-2</v>
+      </c>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4">
+        <v>9.2750000000000005E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C56" s="3">
         <v>15</v>
       </c>
@@ -6921,39 +7590,89 @@
       </c>
       <c r="J56"/>
       <c r="K56"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI56" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AJ56" s="4">
+        <v>1.9649999999999997E-2</v>
+      </c>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4">
+        <v>1.0124999999999999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:38" x14ac:dyDescent="0.3">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI57" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AJ57" s="4">
+        <v>2.1309999999999999E-2</v>
+      </c>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4">
+        <v>1.0955000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:38" x14ac:dyDescent="0.3">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI58" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AJ58" s="4">
+        <v>2.3050000000000001E-2</v>
+      </c>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4">
+        <v>1.1825000000000002E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:38" x14ac:dyDescent="0.3">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI59" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AJ59" s="4">
+        <v>2.4920000000000001E-2</v>
+      </c>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4">
+        <v>1.2760000000000002E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:38" x14ac:dyDescent="0.3">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="AC60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="AI60" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AJ60" s="4">
+        <v>2.605E-2</v>
+      </c>
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="4">
+        <v>1.3325000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:38" x14ac:dyDescent="0.3">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="AB61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC61">
         <f t="array" ref="AC61:AD62">LINEST(G46:G56,F46:F56,TRUE,TRUE)</f>
@@ -6963,12 +7682,12 @@
         <v>3.0272727272727395E-4</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:38" x14ac:dyDescent="0.3">
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="AB62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC62">
         <v>3.1848917334087394E-2</v>
@@ -6977,3742 +7696,3742 @@
         <v>3.3403426304630569E-4</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:38" x14ac:dyDescent="0.3">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:38" x14ac:dyDescent="0.3">
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
     </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
     </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
     </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
     </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
     </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
     </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
     </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
     </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
     </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
     </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
     </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
     </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
     </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
     </row>
-    <row r="88" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
     </row>
-    <row r="89" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
     </row>
-    <row r="90" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
     </row>
-    <row r="91" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
     </row>
-    <row r="92" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
     </row>
-    <row r="93" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
     </row>
-    <row r="94" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
     </row>
-    <row r="95" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
     </row>
-    <row r="96" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
     </row>
-    <row r="97" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
     </row>
-    <row r="98" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
     </row>
-    <row r="99" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
     </row>
-    <row r="100" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
     </row>
-    <row r="101" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
     </row>
-    <row r="102" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
     </row>
-    <row r="103" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
     </row>
-    <row r="104" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
     </row>
-    <row r="105" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
     </row>
-    <row r="106" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
     </row>
-    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
     </row>
-    <row r="108" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
     </row>
-    <row r="109" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
     </row>
-    <row r="110" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
     </row>
-    <row r="111" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
     </row>
-    <row r="112" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
     </row>
-    <row r="113" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
     </row>
-    <row r="114" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
     </row>
-    <row r="115" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
     </row>
-    <row r="116" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
     </row>
-    <row r="117" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
     </row>
-    <row r="118" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
     </row>
-    <row r="119" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
     </row>
-    <row r="120" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
     </row>
-    <row r="121" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
     </row>
-    <row r="122" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
     </row>
-    <row r="123" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
     </row>
-    <row r="124" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124"/>
     </row>
-    <row r="125" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125"/>
     </row>
-    <row r="126" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126"/>
     </row>
-    <row r="127" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127"/>
     </row>
-    <row r="128" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128"/>
     </row>
-    <row r="129" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129"/>
     </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
     </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131"/>
     </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132"/>
     </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I133"/>
       <c r="J133"/>
       <c r="K133"/>
     </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134"/>
     </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135"/>
     </row>
-    <row r="136" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
     </row>
-    <row r="137" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I137"/>
       <c r="J137"/>
       <c r="K137"/>
     </row>
-    <row r="138" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I138"/>
       <c r="J138"/>
       <c r="K138"/>
     </row>
-    <row r="139" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I139"/>
       <c r="J139"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I140"/>
       <c r="J140"/>
       <c r="K140"/>
     </row>
-    <row r="141" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I141"/>
       <c r="J141"/>
       <c r="K141"/>
     </row>
-    <row r="142" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I142"/>
       <c r="J142"/>
       <c r="K142"/>
     </row>
-    <row r="143" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I143"/>
       <c r="J143"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144"/>
     </row>
-    <row r="145" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I145"/>
       <c r="J145"/>
       <c r="K145"/>
     </row>
-    <row r="146" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I146"/>
       <c r="J146"/>
       <c r="K146"/>
     </row>
-    <row r="147" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147"/>
     </row>
-    <row r="148" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148"/>
     </row>
-    <row r="149" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I149"/>
       <c r="J149"/>
       <c r="K149"/>
     </row>
-    <row r="150" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I150"/>
       <c r="J150"/>
       <c r="K150"/>
     </row>
-    <row r="151" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I151"/>
       <c r="J151"/>
       <c r="K151"/>
     </row>
-    <row r="152" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I152"/>
       <c r="J152"/>
       <c r="K152"/>
     </row>
-    <row r="153" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153"/>
     </row>
-    <row r="154" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I154"/>
       <c r="J154"/>
       <c r="K154"/>
     </row>
-    <row r="155" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I155"/>
       <c r="J155"/>
       <c r="K155"/>
     </row>
-    <row r="156" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156"/>
     </row>
-    <row r="157" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I157"/>
       <c r="J157"/>
       <c r="K157"/>
     </row>
-    <row r="158" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I158"/>
       <c r="J158"/>
       <c r="K158"/>
     </row>
-    <row r="159" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I159"/>
       <c r="J159"/>
       <c r="K159"/>
     </row>
-    <row r="160" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I160"/>
       <c r="J160"/>
       <c r="K160"/>
     </row>
-    <row r="161" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I161"/>
       <c r="J161"/>
       <c r="K161"/>
     </row>
-    <row r="162" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I162"/>
       <c r="J162"/>
       <c r="K162"/>
     </row>
-    <row r="163" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I163"/>
       <c r="J163"/>
       <c r="K163"/>
     </row>
-    <row r="164" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I164"/>
       <c r="J164"/>
       <c r="K164"/>
     </row>
-    <row r="165" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I165"/>
       <c r="J165"/>
       <c r="K165"/>
     </row>
-    <row r="166" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I166"/>
       <c r="J166"/>
       <c r="K166"/>
     </row>
-    <row r="167" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I167"/>
       <c r="J167"/>
       <c r="K167"/>
     </row>
-    <row r="168" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I168"/>
       <c r="J168"/>
       <c r="K168"/>
     </row>
-    <row r="169" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I169"/>
       <c r="J169"/>
       <c r="K169"/>
     </row>
-    <row r="170" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I170"/>
       <c r="J170"/>
       <c r="K170"/>
     </row>
-    <row r="171" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I171"/>
       <c r="J171"/>
       <c r="K171"/>
     </row>
-    <row r="172" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I172"/>
       <c r="J172"/>
       <c r="K172"/>
     </row>
-    <row r="173" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I173"/>
       <c r="J173"/>
       <c r="K173"/>
     </row>
-    <row r="174" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I174"/>
       <c r="J174"/>
       <c r="K174"/>
     </row>
-    <row r="175" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I175"/>
       <c r="J175"/>
       <c r="K175"/>
     </row>
-    <row r="176" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I176"/>
       <c r="J176"/>
       <c r="K176"/>
     </row>
-    <row r="177" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I177"/>
       <c r="J177"/>
       <c r="K177"/>
     </row>
-    <row r="178" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I178"/>
       <c r="J178"/>
       <c r="K178"/>
     </row>
-    <row r="179" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I179"/>
       <c r="J179"/>
       <c r="K179"/>
     </row>
-    <row r="180" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I180"/>
       <c r="J180"/>
       <c r="K180"/>
     </row>
-    <row r="181" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I181"/>
       <c r="J181"/>
       <c r="K181"/>
     </row>
-    <row r="182" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I182"/>
       <c r="J182"/>
       <c r="K182"/>
     </row>
-    <row r="183" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I183"/>
       <c r="J183"/>
       <c r="K183"/>
     </row>
-    <row r="184" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I184"/>
       <c r="J184"/>
       <c r="K184"/>
     </row>
-    <row r="185" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I185"/>
       <c r="J185"/>
       <c r="K185"/>
     </row>
-    <row r="186" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I186"/>
       <c r="J186"/>
       <c r="K186"/>
     </row>
-    <row r="187" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I187"/>
       <c r="J187"/>
       <c r="K187"/>
     </row>
-    <row r="188" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I188"/>
       <c r="J188"/>
       <c r="K188"/>
     </row>
-    <row r="189" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I189"/>
       <c r="J189"/>
       <c r="K189"/>
     </row>
-    <row r="190" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I190"/>
       <c r="J190"/>
       <c r="K190"/>
     </row>
-    <row r="191" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I191"/>
       <c r="J191"/>
       <c r="K191"/>
     </row>
-    <row r="192" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I192"/>
       <c r="J192"/>
       <c r="K192"/>
     </row>
-    <row r="193" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I193"/>
       <c r="J193"/>
       <c r="K193"/>
     </row>
-    <row r="194" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I194"/>
       <c r="J194"/>
       <c r="K194"/>
     </row>
-    <row r="195" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I195"/>
       <c r="J195"/>
       <c r="K195"/>
     </row>
-    <row r="196" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I196"/>
       <c r="J196"/>
       <c r="K196"/>
     </row>
-    <row r="197" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197"/>
     </row>
-    <row r="198" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198"/>
     </row>
-    <row r="199" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199"/>
     </row>
-    <row r="200" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200"/>
     </row>
-    <row r="201" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201"/>
     </row>
-    <row r="202" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I202"/>
       <c r="J202"/>
       <c r="K202"/>
     </row>
-    <row r="203" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I203"/>
       <c r="J203"/>
       <c r="K203"/>
     </row>
-    <row r="204" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I204"/>
       <c r="J204"/>
       <c r="K204"/>
     </row>
-    <row r="205" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I205"/>
       <c r="J205"/>
       <c r="K205"/>
     </row>
-    <row r="206" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I206"/>
       <c r="J206"/>
       <c r="K206"/>
     </row>
-    <row r="207" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I207"/>
       <c r="J207"/>
       <c r="K207"/>
     </row>
-    <row r="208" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I208"/>
       <c r="J208"/>
       <c r="K208"/>
     </row>
-    <row r="209" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I209"/>
       <c r="J209"/>
       <c r="K209"/>
     </row>
-    <row r="210" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I210"/>
       <c r="J210"/>
       <c r="K210"/>
     </row>
-    <row r="211" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I211"/>
       <c r="J211"/>
       <c r="K211"/>
     </row>
-    <row r="212" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I212"/>
       <c r="J212"/>
       <c r="K212"/>
     </row>
-    <row r="213" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I213"/>
       <c r="J213"/>
       <c r="K213"/>
     </row>
-    <row r="214" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I214"/>
       <c r="J214"/>
       <c r="K214"/>
     </row>
-    <row r="215" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I215"/>
       <c r="J215"/>
       <c r="K215"/>
     </row>
-    <row r="216" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I216"/>
       <c r="J216"/>
       <c r="K216"/>
     </row>
-    <row r="217" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I217"/>
       <c r="J217"/>
       <c r="K217"/>
     </row>
-    <row r="218" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I218"/>
       <c r="J218"/>
       <c r="K218"/>
     </row>
-    <row r="219" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I219"/>
       <c r="J219"/>
       <c r="K219"/>
     </row>
-    <row r="220" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I220"/>
       <c r="J220"/>
       <c r="K220"/>
     </row>
-    <row r="221" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I221"/>
       <c r="J221"/>
       <c r="K221"/>
     </row>
-    <row r="222" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I222"/>
       <c r="J222"/>
       <c r="K222"/>
     </row>
-    <row r="223" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I223"/>
       <c r="J223"/>
       <c r="K223"/>
     </row>
-    <row r="224" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I224"/>
       <c r="J224"/>
       <c r="K224"/>
     </row>
-    <row r="225" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I225"/>
       <c r="J225"/>
       <c r="K225"/>
     </row>
-    <row r="226" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I226"/>
       <c r="J226"/>
       <c r="K226"/>
     </row>
-    <row r="227" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I227"/>
       <c r="J227"/>
       <c r="K227"/>
     </row>
-    <row r="228" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I228"/>
       <c r="J228"/>
       <c r="K228"/>
     </row>
-    <row r="229" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I229"/>
       <c r="J229"/>
       <c r="K229"/>
     </row>
-    <row r="230" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I230"/>
       <c r="J230"/>
       <c r="K230"/>
     </row>
-    <row r="231" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I231"/>
       <c r="J231"/>
       <c r="K231"/>
     </row>
-    <row r="232" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I232"/>
       <c r="J232"/>
       <c r="K232"/>
     </row>
-    <row r="233" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I233"/>
       <c r="J233"/>
       <c r="K233"/>
     </row>
-    <row r="234" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I234"/>
       <c r="J234"/>
       <c r="K234"/>
     </row>
-    <row r="235" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I235"/>
       <c r="J235"/>
       <c r="K235"/>
     </row>
-    <row r="236" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I236"/>
       <c r="J236"/>
       <c r="K236"/>
     </row>
-    <row r="237" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I237"/>
       <c r="J237"/>
       <c r="K237"/>
     </row>
-    <row r="238" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I238"/>
       <c r="J238"/>
       <c r="K238"/>
     </row>
-    <row r="239" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I239"/>
       <c r="J239"/>
       <c r="K239"/>
     </row>
-    <row r="240" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I240"/>
       <c r="J240"/>
       <c r="K240"/>
     </row>
-    <row r="241" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I241"/>
       <c r="J241"/>
       <c r="K241"/>
     </row>
-    <row r="242" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I242"/>
       <c r="J242"/>
       <c r="K242"/>
     </row>
-    <row r="243" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I243"/>
       <c r="J243"/>
       <c r="K243"/>
     </row>
-    <row r="244" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I244"/>
       <c r="J244"/>
       <c r="K244"/>
     </row>
-    <row r="245" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I245"/>
       <c r="J245"/>
       <c r="K245"/>
     </row>
-    <row r="246" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I246"/>
       <c r="J246"/>
       <c r="K246"/>
     </row>
-    <row r="247" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I247"/>
       <c r="J247"/>
       <c r="K247"/>
     </row>
-    <row r="248" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I248"/>
       <c r="J248"/>
       <c r="K248"/>
     </row>
-    <row r="249" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I249"/>
       <c r="J249"/>
       <c r="K249"/>
     </row>
-    <row r="250" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I250"/>
       <c r="J250"/>
       <c r="K250"/>
     </row>
-    <row r="251" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I251"/>
       <c r="J251"/>
       <c r="K251"/>
     </row>
-    <row r="252" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I252"/>
       <c r="J252"/>
       <c r="K252"/>
     </row>
-    <row r="253" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I253"/>
       <c r="J253"/>
       <c r="K253"/>
     </row>
-    <row r="254" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I254"/>
       <c r="J254"/>
       <c r="K254"/>
     </row>
-    <row r="255" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I255"/>
       <c r="J255"/>
       <c r="K255"/>
     </row>
-    <row r="256" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I256"/>
       <c r="J256"/>
       <c r="K256"/>
     </row>
-    <row r="257" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I257"/>
       <c r="J257"/>
       <c r="K257"/>
     </row>
-    <row r="258" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I258"/>
       <c r="J258"/>
       <c r="K258"/>
     </row>
-    <row r="259" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I259"/>
       <c r="J259"/>
       <c r="K259"/>
     </row>
-    <row r="260" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I260"/>
       <c r="J260"/>
       <c r="K260"/>
     </row>
-    <row r="261" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I261"/>
       <c r="J261"/>
       <c r="K261"/>
     </row>
-    <row r="262" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I262"/>
       <c r="J262"/>
       <c r="K262"/>
     </row>
-    <row r="263" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I263"/>
       <c r="J263"/>
       <c r="K263"/>
     </row>
-    <row r="264" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I264"/>
       <c r="J264"/>
       <c r="K264"/>
     </row>
-    <row r="265" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I265"/>
       <c r="J265"/>
       <c r="K265"/>
     </row>
-    <row r="266" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I266"/>
       <c r="J266"/>
       <c r="K266"/>
     </row>
-    <row r="267" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I267"/>
       <c r="J267"/>
       <c r="K267"/>
     </row>
-    <row r="268" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I268"/>
       <c r="J268"/>
       <c r="K268"/>
     </row>
-    <row r="269" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I269"/>
       <c r="J269"/>
       <c r="K269"/>
     </row>
-    <row r="270" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I270"/>
       <c r="J270"/>
       <c r="K270"/>
     </row>
-    <row r="271" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I271"/>
       <c r="J271"/>
       <c r="K271"/>
     </row>
-    <row r="272" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I272"/>
       <c r="J272"/>
       <c r="K272"/>
     </row>
-    <row r="273" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I273"/>
       <c r="J273"/>
       <c r="K273"/>
     </row>
-    <row r="274" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I274"/>
       <c r="J274"/>
       <c r="K274"/>
     </row>
-    <row r="275" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I275"/>
       <c r="J275"/>
       <c r="K275"/>
     </row>
-    <row r="276" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I276"/>
       <c r="J276"/>
       <c r="K276"/>
     </row>
-    <row r="277" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I277"/>
       <c r="J277"/>
       <c r="K277"/>
     </row>
-    <row r="278" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I278"/>
       <c r="J278"/>
       <c r="K278"/>
     </row>
-    <row r="279" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I279"/>
       <c r="J279"/>
       <c r="K279"/>
     </row>
-    <row r="280" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I280"/>
       <c r="J280"/>
       <c r="K280"/>
     </row>
-    <row r="281" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I281"/>
       <c r="J281"/>
       <c r="K281"/>
     </row>
-    <row r="282" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I282"/>
       <c r="J282"/>
       <c r="K282"/>
     </row>
-    <row r="283" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I283"/>
       <c r="J283"/>
       <c r="K283"/>
     </row>
-    <row r="284" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I284"/>
       <c r="J284"/>
       <c r="K284"/>
     </row>
-    <row r="285" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I285"/>
       <c r="J285"/>
       <c r="K285"/>
     </row>
-    <row r="286" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I286"/>
       <c r="J286"/>
       <c r="K286"/>
     </row>
-    <row r="287" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I287"/>
       <c r="J287"/>
       <c r="K287"/>
     </row>
-    <row r="288" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I288"/>
       <c r="J288"/>
       <c r="K288"/>
     </row>
-    <row r="289" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I289"/>
       <c r="J289"/>
       <c r="K289"/>
     </row>
-    <row r="290" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I290"/>
       <c r="J290"/>
       <c r="K290"/>
     </row>
-    <row r="291" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I291"/>
       <c r="J291"/>
       <c r="K291"/>
     </row>
-    <row r="292" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I292"/>
       <c r="J292"/>
       <c r="K292"/>
     </row>
-    <row r="293" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I293"/>
       <c r="J293"/>
       <c r="K293"/>
     </row>
-    <row r="294" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I294"/>
       <c r="J294"/>
       <c r="K294"/>
     </row>
-    <row r="295" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I295"/>
       <c r="J295"/>
       <c r="K295"/>
     </row>
-    <row r="296" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I296"/>
       <c r="J296"/>
       <c r="K296"/>
     </row>
-    <row r="297" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I297"/>
       <c r="J297"/>
       <c r="K297"/>
     </row>
-    <row r="298" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I298"/>
       <c r="J298"/>
       <c r="K298"/>
     </row>
-    <row r="299" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I299"/>
       <c r="J299"/>
       <c r="K299"/>
     </row>
-    <row r="300" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I300"/>
       <c r="J300"/>
       <c r="K300"/>
     </row>
-    <row r="301" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I301"/>
       <c r="J301"/>
       <c r="K301"/>
     </row>
-    <row r="302" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I302"/>
       <c r="J302"/>
       <c r="K302"/>
     </row>
-    <row r="303" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I303"/>
       <c r="J303"/>
       <c r="K303"/>
     </row>
-    <row r="304" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I304"/>
       <c r="J304"/>
       <c r="K304"/>
     </row>
-    <row r="305" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I305"/>
       <c r="J305"/>
       <c r="K305"/>
     </row>
-    <row r="306" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I306"/>
       <c r="J306"/>
       <c r="K306"/>
     </row>
-    <row r="307" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I307"/>
       <c r="J307"/>
       <c r="K307"/>
     </row>
-    <row r="308" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I308"/>
       <c r="J308"/>
       <c r="K308"/>
     </row>
-    <row r="309" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I309"/>
       <c r="J309"/>
       <c r="K309"/>
     </row>
-    <row r="310" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I310"/>
       <c r="J310"/>
       <c r="K310"/>
     </row>
-    <row r="311" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I311"/>
       <c r="J311"/>
       <c r="K311"/>
     </row>
-    <row r="312" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I312"/>
       <c r="J312"/>
       <c r="K312"/>
     </row>
-    <row r="313" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I313"/>
       <c r="J313"/>
       <c r="K313"/>
     </row>
-    <row r="314" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I314"/>
       <c r="J314"/>
       <c r="K314"/>
     </row>
-    <row r="315" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I315"/>
       <c r="J315"/>
       <c r="K315"/>
     </row>
-    <row r="316" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I316"/>
       <c r="J316"/>
       <c r="K316"/>
     </row>
-    <row r="317" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I317"/>
       <c r="J317"/>
       <c r="K317"/>
     </row>
-    <row r="318" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I318"/>
       <c r="J318"/>
       <c r="K318"/>
     </row>
-    <row r="319" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I319"/>
       <c r="J319"/>
       <c r="K319"/>
     </row>
-    <row r="320" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I320"/>
       <c r="J320"/>
       <c r="K320"/>
     </row>
-    <row r="321" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I321"/>
       <c r="J321"/>
       <c r="K321"/>
     </row>
-    <row r="322" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I322"/>
       <c r="J322"/>
       <c r="K322"/>
     </row>
-    <row r="323" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I323"/>
       <c r="J323"/>
       <c r="K323"/>
     </row>
-    <row r="324" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I324"/>
       <c r="J324"/>
       <c r="K324"/>
     </row>
-    <row r="325" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I325"/>
       <c r="J325"/>
       <c r="K325"/>
     </row>
-    <row r="326" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I326"/>
       <c r="J326"/>
       <c r="K326"/>
     </row>
-    <row r="327" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I327"/>
       <c r="J327"/>
       <c r="K327"/>
     </row>
-    <row r="328" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I328"/>
       <c r="J328"/>
       <c r="K328"/>
     </row>
-    <row r="329" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I329"/>
       <c r="J329"/>
       <c r="K329"/>
     </row>
-    <row r="330" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I330"/>
       <c r="J330"/>
       <c r="K330"/>
     </row>
-    <row r="331" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I331"/>
       <c r="J331"/>
       <c r="K331"/>
     </row>
-    <row r="332" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I332"/>
       <c r="J332"/>
       <c r="K332"/>
     </row>
-    <row r="333" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I333"/>
       <c r="J333"/>
       <c r="K333"/>
     </row>
-    <row r="334" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I334"/>
       <c r="J334"/>
       <c r="K334"/>
     </row>
-    <row r="335" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I335"/>
       <c r="J335"/>
       <c r="K335"/>
     </row>
-    <row r="336" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I336"/>
       <c r="J336"/>
       <c r="K336"/>
     </row>
-    <row r="337" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I337"/>
       <c r="J337"/>
       <c r="K337"/>
     </row>
-    <row r="338" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I338"/>
       <c r="J338"/>
       <c r="K338"/>
     </row>
-    <row r="339" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I339"/>
       <c r="J339"/>
       <c r="K339"/>
     </row>
-    <row r="340" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I340"/>
       <c r="J340"/>
       <c r="K340"/>
     </row>
-    <row r="341" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I341"/>
       <c r="J341"/>
       <c r="K341"/>
     </row>
-    <row r="342" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I342"/>
       <c r="J342"/>
       <c r="K342"/>
     </row>
-    <row r="343" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I343"/>
       <c r="J343"/>
       <c r="K343"/>
     </row>
-    <row r="344" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I344"/>
       <c r="J344"/>
       <c r="K344"/>
     </row>
-    <row r="345" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I345"/>
       <c r="J345"/>
       <c r="K345"/>
     </row>
-    <row r="346" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I346"/>
       <c r="J346"/>
       <c r="K346"/>
     </row>
-    <row r="347" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I347"/>
       <c r="J347"/>
       <c r="K347"/>
     </row>
-    <row r="348" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I348"/>
       <c r="J348"/>
       <c r="K348"/>
     </row>
-    <row r="349" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I349"/>
       <c r="J349"/>
       <c r="K349"/>
     </row>
-    <row r="350" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I350"/>
       <c r="J350"/>
       <c r="K350"/>
     </row>
-    <row r="351" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I351"/>
       <c r="J351"/>
       <c r="K351"/>
     </row>
-    <row r="352" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I352"/>
       <c r="J352"/>
       <c r="K352"/>
     </row>
-    <row r="353" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I353"/>
       <c r="J353"/>
       <c r="K353"/>
     </row>
-    <row r="354" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I354"/>
       <c r="J354"/>
       <c r="K354"/>
     </row>
-    <row r="355" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I355"/>
       <c r="J355"/>
       <c r="K355"/>
     </row>
-    <row r="356" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I356"/>
       <c r="J356"/>
       <c r="K356"/>
     </row>
-    <row r="357" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I357"/>
       <c r="J357"/>
       <c r="K357"/>
     </row>
-    <row r="358" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I358"/>
       <c r="J358"/>
       <c r="K358"/>
     </row>
-    <row r="359" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I359"/>
       <c r="J359"/>
       <c r="K359"/>
     </row>
-    <row r="360" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I360"/>
       <c r="J360"/>
       <c r="K360"/>
     </row>
-    <row r="361" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I361"/>
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I362"/>
       <c r="J362"/>
       <c r="K362"/>
     </row>
-    <row r="363" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I363"/>
       <c r="J363"/>
       <c r="K363"/>
     </row>
-    <row r="364" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I364"/>
       <c r="J364"/>
       <c r="K364"/>
     </row>
-    <row r="365" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I365"/>
       <c r="J365"/>
       <c r="K365"/>
     </row>
-    <row r="366" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I366"/>
       <c r="J366"/>
       <c r="K366"/>
     </row>
-    <row r="367" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I367"/>
       <c r="J367"/>
       <c r="K367"/>
     </row>
-    <row r="368" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I368"/>
       <c r="J368"/>
       <c r="K368"/>
     </row>
-    <row r="369" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I369"/>
       <c r="J369"/>
       <c r="K369"/>
     </row>
-    <row r="370" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I370"/>
       <c r="J370"/>
       <c r="K370"/>
     </row>
-    <row r="371" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I371"/>
       <c r="J371"/>
       <c r="K371"/>
     </row>
-    <row r="372" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I372"/>
       <c r="J372"/>
       <c r="K372"/>
     </row>
-    <row r="373" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I373"/>
       <c r="J373"/>
       <c r="K373"/>
     </row>
-    <row r="374" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I374"/>
       <c r="J374"/>
       <c r="K374"/>
     </row>
-    <row r="375" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I375"/>
       <c r="J375"/>
       <c r="K375"/>
     </row>
-    <row r="376" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I376"/>
       <c r="J376"/>
       <c r="K376"/>
     </row>
-    <row r="377" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I377"/>
       <c r="J377"/>
       <c r="K377"/>
     </row>
-    <row r="378" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I378"/>
       <c r="J378"/>
       <c r="K378"/>
     </row>
-    <row r="379" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I379"/>
       <c r="J379"/>
       <c r="K379"/>
     </row>
-    <row r="380" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I380"/>
       <c r="J380"/>
       <c r="K380"/>
     </row>
-    <row r="381" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I381"/>
       <c r="J381"/>
       <c r="K381"/>
     </row>
-    <row r="382" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I382"/>
       <c r="J382"/>
       <c r="K382"/>
     </row>
-    <row r="383" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I383"/>
       <c r="J383"/>
       <c r="K383"/>
     </row>
-    <row r="384" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I384"/>
       <c r="J384"/>
       <c r="K384"/>
     </row>
-    <row r="385" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I385"/>
       <c r="J385"/>
       <c r="K385"/>
     </row>
-    <row r="386" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I386"/>
       <c r="J386"/>
       <c r="K386"/>
     </row>
-    <row r="387" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I387"/>
       <c r="J387"/>
       <c r="K387"/>
     </row>
-    <row r="388" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I388"/>
       <c r="J388"/>
       <c r="K388"/>
     </row>
-    <row r="389" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I389"/>
       <c r="J389"/>
       <c r="K389"/>
     </row>
-    <row r="390" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I390"/>
       <c r="J390"/>
       <c r="K390"/>
     </row>
-    <row r="391" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I391"/>
       <c r="J391"/>
       <c r="K391"/>
     </row>
-    <row r="392" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I392"/>
       <c r="J392"/>
       <c r="K392"/>
     </row>
-    <row r="393" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I393"/>
       <c r="J393"/>
       <c r="K393"/>
     </row>
-    <row r="394" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I394"/>
       <c r="J394"/>
       <c r="K394"/>
     </row>
-    <row r="395" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I395"/>
       <c r="J395"/>
       <c r="K395"/>
     </row>
-    <row r="396" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I396"/>
       <c r="J396"/>
       <c r="K396"/>
     </row>
-    <row r="397" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I397"/>
       <c r="J397"/>
       <c r="K397"/>
     </row>
-    <row r="398" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I398"/>
       <c r="J398"/>
       <c r="K398"/>
     </row>
-    <row r="399" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I399"/>
       <c r="J399"/>
       <c r="K399"/>
     </row>
-    <row r="400" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I400"/>
       <c r="J400"/>
       <c r="K400"/>
     </row>
-    <row r="401" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I401"/>
       <c r="J401"/>
       <c r="K401"/>
     </row>
-    <row r="402" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I402"/>
       <c r="J402"/>
       <c r="K402"/>
     </row>
-    <row r="403" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I403"/>
       <c r="J403"/>
       <c r="K403"/>
     </row>
-    <row r="404" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I404"/>
       <c r="J404"/>
       <c r="K404"/>
     </row>
-    <row r="405" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I405"/>
       <c r="J405"/>
       <c r="K405"/>
     </row>
-    <row r="406" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I406"/>
       <c r="J406"/>
       <c r="K406"/>
     </row>
-    <row r="407" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I407"/>
       <c r="J407"/>
       <c r="K407"/>
     </row>
-    <row r="408" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I408"/>
       <c r="J408"/>
       <c r="K408"/>
     </row>
-    <row r="409" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I409"/>
       <c r="J409"/>
       <c r="K409"/>
     </row>
-    <row r="410" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I410"/>
       <c r="J410"/>
       <c r="K410"/>
     </row>
-    <row r="411" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I411"/>
       <c r="J411"/>
       <c r="K411"/>
     </row>
-    <row r="412" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I412"/>
       <c r="J412"/>
       <c r="K412"/>
     </row>
-    <row r="413" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I413"/>
       <c r="J413"/>
       <c r="K413"/>
     </row>
-    <row r="414" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I414"/>
       <c r="J414"/>
       <c r="K414"/>
     </row>
-    <row r="415" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I415"/>
       <c r="J415"/>
       <c r="K415"/>
     </row>
-    <row r="416" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I416"/>
       <c r="J416"/>
       <c r="K416"/>
     </row>
-    <row r="417" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I417"/>
       <c r="J417"/>
       <c r="K417"/>
     </row>
-    <row r="418" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I418"/>
       <c r="J418"/>
       <c r="K418"/>
     </row>
-    <row r="419" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I419"/>
       <c r="J419"/>
       <c r="K419"/>
     </row>
-    <row r="420" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I420"/>
       <c r="J420"/>
       <c r="K420"/>
     </row>
-    <row r="421" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I421"/>
       <c r="J421"/>
       <c r="K421"/>
     </row>
-    <row r="422" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I422"/>
       <c r="J422"/>
       <c r="K422"/>
     </row>
-    <row r="423" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I423"/>
       <c r="J423"/>
       <c r="K423"/>
     </row>
-    <row r="424" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I424"/>
       <c r="J424"/>
       <c r="K424"/>
     </row>
-    <row r="425" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I425"/>
       <c r="J425"/>
       <c r="K425"/>
     </row>
-    <row r="426" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I426"/>
       <c r="J426"/>
       <c r="K426"/>
     </row>
-    <row r="427" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I427"/>
       <c r="J427"/>
       <c r="K427"/>
     </row>
-    <row r="428" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I428"/>
       <c r="J428"/>
       <c r="K428"/>
     </row>
-    <row r="429" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I429"/>
       <c r="J429"/>
       <c r="K429"/>
     </row>
-    <row r="430" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I430"/>
       <c r="J430"/>
       <c r="K430"/>
     </row>
-    <row r="431" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I431"/>
       <c r="J431"/>
       <c r="K431"/>
     </row>
-    <row r="432" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I432"/>
       <c r="J432"/>
       <c r="K432"/>
     </row>
-    <row r="433" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I433"/>
       <c r="J433"/>
       <c r="K433"/>
     </row>
-    <row r="434" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I434"/>
       <c r="J434"/>
       <c r="K434"/>
     </row>
-    <row r="435" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I435"/>
       <c r="J435"/>
       <c r="K435"/>
     </row>
-    <row r="436" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I436"/>
       <c r="J436"/>
       <c r="K436"/>
     </row>
-    <row r="437" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I437"/>
       <c r="J437"/>
       <c r="K437"/>
     </row>
-    <row r="438" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I438"/>
       <c r="J438"/>
       <c r="K438"/>
     </row>
-    <row r="439" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I439"/>
       <c r="J439"/>
       <c r="K439"/>
     </row>
-    <row r="440" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I440"/>
       <c r="J440"/>
       <c r="K440"/>
     </row>
-    <row r="441" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I441"/>
       <c r="J441"/>
       <c r="K441"/>
     </row>
-    <row r="442" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I442"/>
       <c r="J442"/>
       <c r="K442"/>
     </row>
-    <row r="443" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I443"/>
       <c r="J443"/>
       <c r="K443"/>
     </row>
-    <row r="444" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I444"/>
       <c r="J444"/>
       <c r="K444"/>
     </row>
-    <row r="445" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I445"/>
       <c r="J445"/>
       <c r="K445"/>
     </row>
-    <row r="446" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I446"/>
       <c r="J446"/>
       <c r="K446"/>
     </row>
-    <row r="447" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I447"/>
       <c r="J447"/>
       <c r="K447"/>
     </row>
-    <row r="448" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I448"/>
       <c r="J448"/>
       <c r="K448"/>
     </row>
-    <row r="449" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I449"/>
       <c r="J449"/>
       <c r="K449"/>
     </row>
-    <row r="450" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I450"/>
       <c r="J450"/>
       <c r="K450"/>
     </row>
-    <row r="451" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I451"/>
       <c r="J451"/>
       <c r="K451"/>
     </row>
-    <row r="452" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I452"/>
       <c r="J452"/>
       <c r="K452"/>
     </row>
-    <row r="453" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I453"/>
       <c r="J453"/>
       <c r="K453"/>
     </row>
-    <row r="454" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I454"/>
       <c r="J454"/>
       <c r="K454"/>
     </row>
-    <row r="455" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I455"/>
       <c r="J455"/>
       <c r="K455"/>
     </row>
-    <row r="456" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I456"/>
       <c r="J456"/>
       <c r="K456"/>
     </row>
-    <row r="457" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I457"/>
       <c r="J457"/>
       <c r="K457"/>
     </row>
-    <row r="458" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I458"/>
       <c r="J458"/>
       <c r="K458"/>
     </row>
-    <row r="459" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I459"/>
       <c r="J459"/>
       <c r="K459"/>
     </row>
-    <row r="460" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I460"/>
       <c r="J460"/>
       <c r="K460"/>
     </row>
-    <row r="461" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I461"/>
       <c r="J461"/>
       <c r="K461"/>
     </row>
-    <row r="462" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I462"/>
       <c r="J462"/>
       <c r="K462"/>
     </row>
-    <row r="463" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I463"/>
       <c r="J463"/>
       <c r="K463"/>
     </row>
-    <row r="464" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I464"/>
       <c r="J464"/>
       <c r="K464"/>
     </row>
-    <row r="465" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I465"/>
       <c r="J465"/>
       <c r="K465"/>
     </row>
-    <row r="466" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I466"/>
       <c r="J466"/>
       <c r="K466"/>
     </row>
-    <row r="467" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I467"/>
       <c r="J467"/>
       <c r="K467"/>
     </row>
-    <row r="468" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I468"/>
       <c r="J468"/>
       <c r="K468"/>
     </row>
-    <row r="469" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I469"/>
       <c r="J469"/>
       <c r="K469"/>
     </row>
-    <row r="470" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I470"/>
       <c r="J470"/>
       <c r="K470"/>
     </row>
-    <row r="471" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I471"/>
       <c r="J471"/>
       <c r="K471"/>
     </row>
-    <row r="472" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I472"/>
       <c r="J472"/>
       <c r="K472"/>
     </row>
-    <row r="473" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I473"/>
       <c r="J473"/>
       <c r="K473"/>
     </row>
-    <row r="474" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I474"/>
       <c r="J474"/>
       <c r="K474"/>
     </row>
-    <row r="475" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I475"/>
       <c r="J475"/>
       <c r="K475"/>
     </row>
-    <row r="476" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I476"/>
       <c r="J476"/>
       <c r="K476"/>
     </row>
-    <row r="477" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I477"/>
       <c r="J477"/>
       <c r="K477"/>
     </row>
-    <row r="478" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I478"/>
       <c r="J478"/>
       <c r="K478"/>
     </row>
-    <row r="479" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I479"/>
       <c r="J479"/>
       <c r="K479"/>
     </row>
-    <row r="480" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I480"/>
       <c r="J480"/>
       <c r="K480"/>
     </row>
-    <row r="481" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I481"/>
       <c r="J481"/>
       <c r="K481"/>
     </row>
-    <row r="482" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I482"/>
       <c r="J482"/>
       <c r="K482"/>
     </row>
-    <row r="483" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I483"/>
       <c r="J483"/>
       <c r="K483"/>
     </row>
-    <row r="484" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I484"/>
       <c r="J484"/>
       <c r="K484"/>
     </row>
-    <row r="485" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I485"/>
       <c r="J485"/>
       <c r="K485"/>
     </row>
-    <row r="486" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I486"/>
       <c r="J486"/>
       <c r="K486"/>
     </row>
-    <row r="487" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I487"/>
       <c r="J487"/>
       <c r="K487"/>
     </row>
-    <row r="488" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I488"/>
       <c r="J488"/>
       <c r="K488"/>
     </row>
-    <row r="489" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I489"/>
       <c r="J489"/>
       <c r="K489"/>
     </row>
-    <row r="490" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I490"/>
       <c r="J490"/>
       <c r="K490"/>
     </row>
-    <row r="491" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I491"/>
       <c r="J491"/>
       <c r="K491"/>
     </row>
-    <row r="492" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I492"/>
       <c r="J492"/>
       <c r="K492"/>
     </row>
-    <row r="493" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I493"/>
       <c r="J493"/>
       <c r="K493"/>
     </row>
-    <row r="494" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I494"/>
       <c r="J494"/>
       <c r="K494"/>
     </row>
-    <row r="495" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I495"/>
       <c r="J495"/>
       <c r="K495"/>
     </row>
-    <row r="496" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I496"/>
       <c r="J496"/>
       <c r="K496"/>
     </row>
-    <row r="497" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I497"/>
       <c r="J497"/>
       <c r="K497"/>
     </row>
-    <row r="498" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I498"/>
       <c r="J498"/>
       <c r="K498"/>
     </row>
-    <row r="499" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I499"/>
       <c r="J499"/>
       <c r="K499"/>
     </row>
-    <row r="500" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I500"/>
       <c r="J500"/>
       <c r="K500"/>
     </row>
-    <row r="501" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I501"/>
       <c r="J501"/>
       <c r="K501"/>
     </row>
-    <row r="502" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I502"/>
       <c r="J502"/>
       <c r="K502"/>
     </row>
-    <row r="503" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I503"/>
       <c r="J503"/>
       <c r="K503"/>
     </row>
-    <row r="504" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I504"/>
       <c r="J504"/>
       <c r="K504"/>
     </row>
-    <row r="505" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I505"/>
       <c r="J505"/>
       <c r="K505"/>
     </row>
-    <row r="506" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I506"/>
       <c r="J506"/>
       <c r="K506"/>
     </row>
-    <row r="507" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I507"/>
       <c r="J507"/>
       <c r="K507"/>
     </row>
-    <row r="508" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I508"/>
       <c r="J508"/>
       <c r="K508"/>
     </row>
-    <row r="509" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I509"/>
       <c r="J509"/>
       <c r="K509"/>
     </row>
-    <row r="510" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I510"/>
       <c r="J510"/>
       <c r="K510"/>
     </row>
-    <row r="511" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I511"/>
       <c r="J511"/>
       <c r="K511"/>
     </row>
-    <row r="512" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I512"/>
       <c r="J512"/>
       <c r="K512"/>
     </row>
-    <row r="513" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I513"/>
       <c r="J513"/>
       <c r="K513"/>
     </row>
-    <row r="514" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I514"/>
       <c r="J514"/>
       <c r="K514"/>
     </row>
-    <row r="515" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I515"/>
       <c r="J515"/>
       <c r="K515"/>
     </row>
-    <row r="516" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I516"/>
       <c r="J516"/>
       <c r="K516"/>
     </row>
-    <row r="517" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I517"/>
       <c r="J517"/>
       <c r="K517"/>
     </row>
-    <row r="518" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I518"/>
       <c r="J518"/>
       <c r="K518"/>
     </row>
-    <row r="519" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I519"/>
       <c r="J519"/>
       <c r="K519"/>
     </row>
-    <row r="520" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I520"/>
       <c r="J520"/>
       <c r="K520"/>
     </row>
-    <row r="521" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I521"/>
       <c r="J521"/>
       <c r="K521"/>
     </row>
-    <row r="522" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I522"/>
       <c r="J522"/>
       <c r="K522"/>
     </row>
-    <row r="523" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I523"/>
       <c r="J523"/>
       <c r="K523"/>
     </row>
-    <row r="524" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I524"/>
       <c r="J524"/>
       <c r="K524"/>
     </row>
-    <row r="525" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I525"/>
       <c r="J525"/>
       <c r="K525"/>
     </row>
-    <row r="526" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I526"/>
       <c r="J526"/>
       <c r="K526"/>
     </row>
-    <row r="527" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I527"/>
       <c r="J527"/>
       <c r="K527"/>
     </row>
-    <row r="528" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I528"/>
       <c r="J528"/>
       <c r="K528"/>
     </row>
-    <row r="529" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I529"/>
       <c r="J529"/>
       <c r="K529"/>
     </row>
-    <row r="530" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I530"/>
       <c r="J530"/>
       <c r="K530"/>
     </row>
-    <row r="531" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I531"/>
       <c r="J531"/>
       <c r="K531"/>
     </row>
-    <row r="532" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I532"/>
       <c r="J532"/>
       <c r="K532"/>
     </row>
-    <row r="533" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I533"/>
       <c r="J533"/>
       <c r="K533"/>
     </row>
-    <row r="534" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I534"/>
       <c r="J534"/>
       <c r="K534"/>
     </row>
-    <row r="535" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I535"/>
       <c r="J535"/>
       <c r="K535"/>
     </row>
-    <row r="536" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I536"/>
       <c r="J536"/>
       <c r="K536"/>
     </row>
-    <row r="537" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I537"/>
       <c r="J537"/>
       <c r="K537"/>
     </row>
-    <row r="538" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I538"/>
       <c r="J538"/>
       <c r="K538"/>
     </row>
-    <row r="539" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I539"/>
       <c r="J539"/>
       <c r="K539"/>
     </row>
-    <row r="540" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I540"/>
       <c r="J540"/>
       <c r="K540"/>
     </row>
-    <row r="541" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I541"/>
       <c r="J541"/>
       <c r="K541"/>
     </row>
-    <row r="542" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I542"/>
       <c r="J542"/>
       <c r="K542"/>
     </row>
-    <row r="543" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I543"/>
       <c r="J543"/>
       <c r="K543"/>
     </row>
-    <row r="544" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I544"/>
       <c r="J544"/>
       <c r="K544"/>
     </row>
-    <row r="545" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I545"/>
       <c r="J545"/>
       <c r="K545"/>
     </row>
-    <row r="546" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I546"/>
       <c r="J546"/>
       <c r="K546"/>
     </row>
-    <row r="547" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I547"/>
       <c r="J547"/>
       <c r="K547"/>
     </row>
-    <row r="548" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I548"/>
       <c r="J548"/>
       <c r="K548"/>
     </row>
-    <row r="549" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I549"/>
       <c r="J549"/>
       <c r="K549"/>
     </row>
-    <row r="550" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I550"/>
       <c r="J550"/>
       <c r="K550"/>
     </row>
-    <row r="551" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I551"/>
       <c r="J551"/>
       <c r="K551"/>
     </row>
-    <row r="552" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I552"/>
       <c r="J552"/>
       <c r="K552"/>
     </row>
-    <row r="553" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I553"/>
       <c r="J553"/>
       <c r="K553"/>
     </row>
-    <row r="554" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I554"/>
       <c r="J554"/>
       <c r="K554"/>
     </row>
-    <row r="555" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I555"/>
       <c r="J555"/>
       <c r="K555"/>
     </row>
-    <row r="556" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I556"/>
       <c r="J556"/>
       <c r="K556"/>
     </row>
-    <row r="557" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I557"/>
       <c r="J557"/>
       <c r="K557"/>
     </row>
-    <row r="558" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I558"/>
       <c r="J558"/>
       <c r="K558"/>
     </row>
-    <row r="559" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I559"/>
       <c r="J559"/>
       <c r="K559"/>
     </row>
-    <row r="560" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I560"/>
       <c r="J560"/>
       <c r="K560"/>
     </row>
-    <row r="561" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I561"/>
       <c r="J561"/>
       <c r="K561"/>
     </row>
-    <row r="562" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I562"/>
       <c r="J562"/>
       <c r="K562"/>
     </row>
-    <row r="563" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I563"/>
       <c r="J563"/>
       <c r="K563"/>
     </row>
-    <row r="564" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I564"/>
       <c r="J564"/>
       <c r="K564"/>
     </row>
-    <row r="565" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I565"/>
       <c r="J565"/>
       <c r="K565"/>
     </row>
-    <row r="566" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I566"/>
       <c r="J566"/>
       <c r="K566"/>
     </row>
-    <row r="567" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I567"/>
       <c r="J567"/>
       <c r="K567"/>
     </row>
-    <row r="568" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I568"/>
       <c r="J568"/>
       <c r="K568"/>
     </row>
-    <row r="569" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I569"/>
       <c r="J569"/>
       <c r="K569"/>
     </row>
-    <row r="570" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I570"/>
       <c r="J570"/>
       <c r="K570"/>
     </row>
-    <row r="571" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I571"/>
       <c r="J571"/>
       <c r="K571"/>
     </row>
-    <row r="572" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I572"/>
       <c r="J572"/>
       <c r="K572"/>
     </row>
-    <row r="573" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I573"/>
       <c r="J573"/>
       <c r="K573"/>
     </row>
-    <row r="574" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I574"/>
       <c r="J574"/>
       <c r="K574"/>
     </row>
-    <row r="575" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I575"/>
       <c r="J575"/>
       <c r="K575"/>
     </row>
-    <row r="576" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I576"/>
       <c r="J576"/>
       <c r="K576"/>
     </row>
-    <row r="577" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I577"/>
       <c r="J577"/>
       <c r="K577"/>
     </row>
-    <row r="578" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I578"/>
       <c r="J578"/>
       <c r="K578"/>
     </row>
-    <row r="579" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I579"/>
       <c r="J579"/>
       <c r="K579"/>
     </row>
-    <row r="580" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I580"/>
       <c r="J580"/>
       <c r="K580"/>
     </row>
-    <row r="581" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I581"/>
       <c r="J581"/>
       <c r="K581"/>
     </row>
-    <row r="582" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I582"/>
       <c r="J582"/>
       <c r="K582"/>
     </row>
-    <row r="583" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I583"/>
       <c r="J583"/>
       <c r="K583"/>
     </row>
-    <row r="584" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I584"/>
       <c r="J584"/>
       <c r="K584"/>
     </row>
-    <row r="585" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I585"/>
       <c r="J585"/>
       <c r="K585"/>
     </row>
-    <row r="586" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I586"/>
       <c r="J586"/>
       <c r="K586"/>
     </row>
-    <row r="587" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I587"/>
       <c r="J587"/>
       <c r="K587"/>
     </row>
-    <row r="588" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I588"/>
       <c r="J588"/>
       <c r="K588"/>
     </row>
-    <row r="589" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I589"/>
       <c r="J589"/>
       <c r="K589"/>
     </row>
-    <row r="590" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I590"/>
       <c r="J590"/>
       <c r="K590"/>
     </row>
-    <row r="591" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I591"/>
       <c r="J591"/>
       <c r="K591"/>
     </row>
-    <row r="592" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I592"/>
       <c r="J592"/>
       <c r="K592"/>
     </row>
-    <row r="593" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I593"/>
       <c r="J593"/>
       <c r="K593"/>
     </row>
-    <row r="594" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I594"/>
       <c r="J594"/>
       <c r="K594"/>
     </row>
-    <row r="595" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I595"/>
       <c r="J595"/>
       <c r="K595"/>
     </row>
-    <row r="596" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I596"/>
       <c r="J596"/>
       <c r="K596"/>
     </row>
-    <row r="597" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I597"/>
       <c r="J597"/>
       <c r="K597"/>
     </row>
-    <row r="598" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I598"/>
       <c r="J598"/>
       <c r="K598"/>
     </row>
-    <row r="599" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I599"/>
       <c r="J599"/>
       <c r="K599"/>
     </row>
-    <row r="600" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I600"/>
       <c r="J600"/>
       <c r="K600"/>
     </row>
-    <row r="601" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I601"/>
       <c r="J601"/>
       <c r="K601"/>
     </row>
-    <row r="602" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I602"/>
       <c r="J602"/>
       <c r="K602"/>
     </row>
-    <row r="603" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I603"/>
       <c r="J603"/>
       <c r="K603"/>
     </row>
-    <row r="604" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I604"/>
       <c r="J604"/>
       <c r="K604"/>
     </row>
-    <row r="605" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I605"/>
       <c r="J605"/>
       <c r="K605"/>
     </row>
-    <row r="606" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I606"/>
       <c r="J606"/>
       <c r="K606"/>
     </row>
-    <row r="607" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I607"/>
       <c r="J607"/>
       <c r="K607"/>
     </row>
-    <row r="608" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I608"/>
       <c r="J608"/>
       <c r="K608"/>
     </row>
-    <row r="609" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I609"/>
       <c r="J609"/>
       <c r="K609"/>
     </row>
-    <row r="610" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I610"/>
       <c r="J610"/>
       <c r="K610"/>
     </row>
-    <row r="611" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I611"/>
       <c r="J611"/>
       <c r="K611"/>
     </row>
-    <row r="612" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I612"/>
       <c r="J612"/>
       <c r="K612"/>
     </row>
-    <row r="613" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I613"/>
       <c r="J613"/>
       <c r="K613"/>
     </row>
-    <row r="614" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I614"/>
       <c r="J614"/>
       <c r="K614"/>
     </row>
-    <row r="615" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I615"/>
       <c r="J615"/>
       <c r="K615"/>
     </row>
-    <row r="616" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I616"/>
       <c r="J616"/>
       <c r="K616"/>
     </row>
-    <row r="617" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I617"/>
       <c r="J617"/>
       <c r="K617"/>
     </row>
-    <row r="618" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I618"/>
       <c r="J618"/>
       <c r="K618"/>
     </row>
-    <row r="619" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I619"/>
       <c r="J619"/>
       <c r="K619"/>
     </row>
-    <row r="620" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I620"/>
       <c r="J620"/>
       <c r="K620"/>
     </row>
-    <row r="621" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I621"/>
       <c r="J621"/>
       <c r="K621"/>
     </row>
-    <row r="622" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I622"/>
       <c r="J622"/>
       <c r="K622"/>
     </row>
-    <row r="623" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I623"/>
       <c r="J623"/>
       <c r="K623"/>
     </row>
-    <row r="624" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I624"/>
       <c r="J624"/>
       <c r="K624"/>
     </row>
-    <row r="625" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I625"/>
       <c r="J625"/>
       <c r="K625"/>
     </row>
-    <row r="626" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I626"/>
       <c r="J626"/>
       <c r="K626"/>
     </row>
-    <row r="627" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I627"/>
       <c r="J627"/>
       <c r="K627"/>
     </row>
-    <row r="628" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I628"/>
       <c r="J628"/>
       <c r="K628"/>
     </row>
-    <row r="629" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I629"/>
       <c r="J629"/>
       <c r="K629"/>
     </row>
-    <row r="630" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I630"/>
       <c r="J630"/>
       <c r="K630"/>
     </row>
-    <row r="631" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I631"/>
       <c r="J631"/>
       <c r="K631"/>
     </row>
-    <row r="632" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I632"/>
       <c r="J632"/>
       <c r="K632"/>
     </row>
-    <row r="633" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I633"/>
       <c r="J633"/>
       <c r="K633"/>
     </row>
-    <row r="634" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I634"/>
       <c r="J634"/>
       <c r="K634"/>
     </row>
-    <row r="635" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I635"/>
       <c r="J635"/>
       <c r="K635"/>
     </row>
-    <row r="636" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I636"/>
       <c r="J636"/>
       <c r="K636"/>
     </row>
-    <row r="637" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I637"/>
       <c r="J637"/>
       <c r="K637"/>
     </row>
-    <row r="638" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I638"/>
       <c r="J638"/>
       <c r="K638"/>
     </row>
-    <row r="639" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I639"/>
       <c r="J639"/>
       <c r="K639"/>
     </row>
-    <row r="640" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I640"/>
       <c r="J640"/>
       <c r="K640"/>
     </row>
-    <row r="641" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I641"/>
       <c r="J641"/>
       <c r="K641"/>
     </row>
-    <row r="642" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I642"/>
       <c r="J642"/>
       <c r="K642"/>
     </row>
-    <row r="643" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I643"/>
       <c r="J643"/>
       <c r="K643"/>
     </row>
-    <row r="644" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I644"/>
       <c r="J644"/>
       <c r="K644"/>
     </row>
-    <row r="645" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I645"/>
       <c r="J645"/>
       <c r="K645"/>
     </row>
-    <row r="646" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I646"/>
       <c r="J646"/>
       <c r="K646"/>
     </row>
-    <row r="647" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I647"/>
       <c r="J647"/>
       <c r="K647"/>
     </row>
-    <row r="648" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I648"/>
       <c r="J648"/>
       <c r="K648"/>
     </row>
-    <row r="649" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I649"/>
       <c r="J649"/>
       <c r="K649"/>
     </row>
-    <row r="650" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I650"/>
       <c r="J650"/>
       <c r="K650"/>
     </row>
-    <row r="651" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I651"/>
       <c r="J651"/>
       <c r="K651"/>
     </row>
-    <row r="652" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I652"/>
       <c r="J652"/>
       <c r="K652"/>
     </row>
-    <row r="653" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I653"/>
       <c r="J653"/>
       <c r="K653"/>
     </row>
-    <row r="654" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I654"/>
       <c r="J654"/>
       <c r="K654"/>
     </row>
-    <row r="655" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I655"/>
       <c r="J655"/>
       <c r="K655"/>
     </row>
-    <row r="656" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I656"/>
       <c r="J656"/>
       <c r="K656"/>
     </row>
-    <row r="657" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I657"/>
       <c r="J657"/>
       <c r="K657"/>
     </row>
-    <row r="658" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I658"/>
       <c r="J658"/>
       <c r="K658"/>
     </row>
-    <row r="659" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I659"/>
       <c r="J659"/>
       <c r="K659"/>
     </row>
-    <row r="660" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I660"/>
       <c r="J660"/>
       <c r="K660"/>
     </row>
-    <row r="661" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I661"/>
       <c r="J661"/>
       <c r="K661"/>
     </row>
-    <row r="662" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I662"/>
       <c r="J662"/>
       <c r="K662"/>
     </row>
-    <row r="663" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I663"/>
       <c r="J663"/>
       <c r="K663"/>
     </row>
-    <row r="664" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I664"/>
       <c r="J664"/>
       <c r="K664"/>
     </row>
-    <row r="665" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I665"/>
       <c r="J665"/>
       <c r="K665"/>
     </row>
-    <row r="666" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I666"/>
       <c r="J666"/>
       <c r="K666"/>
     </row>
-    <row r="667" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I667"/>
       <c r="J667"/>
       <c r="K667"/>
     </row>
-    <row r="668" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I668"/>
       <c r="J668"/>
       <c r="K668"/>
     </row>
-    <row r="669" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I669"/>
       <c r="J669"/>
       <c r="K669"/>
     </row>
-    <row r="670" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I670"/>
       <c r="J670"/>
       <c r="K670"/>
     </row>
-    <row r="671" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I671"/>
       <c r="J671"/>
       <c r="K671"/>
     </row>
-    <row r="672" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I672"/>
       <c r="J672"/>
       <c r="K672"/>
     </row>
-    <row r="673" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I673"/>
       <c r="J673"/>
       <c r="K673"/>
     </row>
-    <row r="674" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I674"/>
       <c r="J674"/>
       <c r="K674"/>
     </row>
-    <row r="675" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I675"/>
       <c r="J675"/>
       <c r="K675"/>
     </row>
-    <row r="676" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I676"/>
       <c r="J676"/>
       <c r="K676"/>
     </row>
-    <row r="677" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I677"/>
       <c r="J677"/>
       <c r="K677"/>
     </row>
-    <row r="678" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I678"/>
       <c r="J678"/>
       <c r="K678"/>
     </row>
-    <row r="679" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I679"/>
       <c r="J679"/>
       <c r="K679"/>
     </row>
-    <row r="680" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I680"/>
       <c r="J680"/>
       <c r="K680"/>
     </row>
-    <row r="681" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I681"/>
       <c r="J681"/>
       <c r="K681"/>
     </row>
-    <row r="682" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I682"/>
       <c r="J682"/>
       <c r="K682"/>
     </row>
-    <row r="683" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I683"/>
       <c r="J683"/>
       <c r="K683"/>
     </row>
-    <row r="684" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I684"/>
       <c r="J684"/>
       <c r="K684"/>
     </row>
-    <row r="685" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I685"/>
       <c r="J685"/>
       <c r="K685"/>
     </row>
-    <row r="686" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I686"/>
       <c r="J686"/>
       <c r="K686"/>
     </row>
-    <row r="687" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I687"/>
       <c r="J687"/>
       <c r="K687"/>
     </row>
-    <row r="688" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I688"/>
       <c r="J688"/>
       <c r="K688"/>
     </row>
-    <row r="689" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I689"/>
       <c r="J689"/>
       <c r="K689"/>
     </row>
-    <row r="690" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I690"/>
       <c r="J690"/>
       <c r="K690"/>
     </row>
-    <row r="691" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I691"/>
       <c r="J691"/>
       <c r="K691"/>
     </row>
-    <row r="692" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I692"/>
       <c r="J692"/>
       <c r="K692"/>
     </row>
-    <row r="693" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I693"/>
       <c r="J693"/>
       <c r="K693"/>
     </row>
-    <row r="694" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I694"/>
       <c r="J694"/>
       <c r="K694"/>
     </row>
-    <row r="695" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I695"/>
       <c r="J695"/>
       <c r="K695"/>
     </row>
-    <row r="696" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I696"/>
       <c r="J696"/>
       <c r="K696"/>
     </row>
-    <row r="697" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I697"/>
       <c r="J697"/>
       <c r="K697"/>
     </row>
-    <row r="698" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I698"/>
       <c r="J698"/>
       <c r="K698"/>
     </row>
-    <row r="699" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I699"/>
       <c r="J699"/>
       <c r="K699"/>
     </row>
-    <row r="700" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I700"/>
       <c r="J700"/>
       <c r="K700"/>
     </row>
-    <row r="701" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I701"/>
       <c r="J701"/>
       <c r="K701"/>
     </row>
-    <row r="702" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I702"/>
       <c r="J702"/>
       <c r="K702"/>
     </row>
-    <row r="703" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I703"/>
       <c r="J703"/>
       <c r="K703"/>
     </row>
-    <row r="704" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I704"/>
       <c r="J704"/>
       <c r="K704"/>
     </row>
-    <row r="705" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I705"/>
       <c r="J705"/>
       <c r="K705"/>
     </row>
-    <row r="706" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I706"/>
       <c r="J706"/>
       <c r="K706"/>
     </row>
-    <row r="707" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I707"/>
       <c r="J707"/>
       <c r="K707"/>
     </row>
-    <row r="708" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I708"/>
       <c r="J708"/>
       <c r="K708"/>
     </row>
-    <row r="709" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I709"/>
       <c r="J709"/>
       <c r="K709"/>
     </row>
-    <row r="710" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I710"/>
       <c r="J710"/>
       <c r="K710"/>
     </row>
-    <row r="711" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I711"/>
       <c r="J711"/>
       <c r="K711"/>
     </row>
-    <row r="712" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I712"/>
       <c r="J712"/>
       <c r="K712"/>
     </row>
-    <row r="713" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I713"/>
       <c r="J713"/>
       <c r="K713"/>
     </row>
-    <row r="714" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I714"/>
       <c r="J714"/>
       <c r="K714"/>
     </row>
-    <row r="715" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I715"/>
       <c r="J715"/>
       <c r="K715"/>
     </row>
-    <row r="716" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I716"/>
       <c r="J716"/>
       <c r="K716"/>
     </row>
-    <row r="717" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I717"/>
       <c r="J717"/>
       <c r="K717"/>
     </row>
-    <row r="718" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I718"/>
       <c r="J718"/>
       <c r="K718"/>
     </row>
-    <row r="719" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I719"/>
       <c r="J719"/>
       <c r="K719"/>
     </row>
-    <row r="720" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I720"/>
       <c r="J720"/>
       <c r="K720"/>
     </row>
-    <row r="721" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I721"/>
       <c r="J721"/>
       <c r="K721"/>
     </row>
-    <row r="722" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I722"/>
       <c r="J722"/>
       <c r="K722"/>
     </row>
-    <row r="723" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I723"/>
       <c r="J723"/>
       <c r="K723"/>
     </row>
-    <row r="724" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I724"/>
       <c r="J724"/>
       <c r="K724"/>
     </row>
-    <row r="725" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I725"/>
       <c r="J725"/>
       <c r="K725"/>
     </row>
-    <row r="726" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I726"/>
       <c r="J726"/>
       <c r="K726"/>
     </row>
-    <row r="727" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I727"/>
       <c r="J727"/>
       <c r="K727"/>
     </row>
-    <row r="728" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I728"/>
       <c r="J728"/>
       <c r="K728"/>
     </row>
-    <row r="729" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I729"/>
       <c r="J729"/>
       <c r="K729"/>
     </row>
-    <row r="730" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I730"/>
       <c r="J730"/>
       <c r="K730"/>
     </row>
-    <row r="731" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I731"/>
       <c r="J731"/>
       <c r="K731"/>
     </row>
-    <row r="732" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I732"/>
       <c r="J732"/>
       <c r="K732"/>
     </row>
-    <row r="733" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I733"/>
       <c r="J733"/>
       <c r="K733"/>
     </row>
-    <row r="734" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I734"/>
       <c r="J734"/>
       <c r="K734"/>
     </row>
-    <row r="735" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I735"/>
       <c r="J735"/>
       <c r="K735"/>
     </row>
-    <row r="736" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I736"/>
       <c r="J736"/>
       <c r="K736"/>
     </row>
-    <row r="737" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I737"/>
       <c r="J737"/>
       <c r="K737"/>
     </row>
-    <row r="738" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I738"/>
       <c r="J738"/>
       <c r="K738"/>
     </row>
-    <row r="739" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I739"/>
       <c r="J739"/>
       <c r="K739"/>
     </row>
-    <row r="740" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I740"/>
       <c r="J740"/>
       <c r="K740"/>
     </row>
-    <row r="741" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I741"/>
       <c r="J741"/>
       <c r="K741"/>
     </row>
-    <row r="742" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I742"/>
       <c r="J742"/>
       <c r="K742"/>
     </row>
-    <row r="743" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I743"/>
       <c r="J743"/>
       <c r="K743"/>
     </row>
-    <row r="744" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I744"/>
       <c r="J744"/>
       <c r="K744"/>
     </row>
-    <row r="745" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I745"/>
       <c r="J745"/>
       <c r="K745"/>
     </row>
-    <row r="746" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I746"/>
       <c r="J746"/>
       <c r="K746"/>
     </row>
-    <row r="747" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I747"/>
       <c r="J747"/>
       <c r="K747"/>
     </row>
-    <row r="748" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I748"/>
       <c r="J748"/>
       <c r="K748"/>
     </row>
-    <row r="749" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I749"/>
       <c r="J749"/>
       <c r="K749"/>
     </row>
-    <row r="750" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I750"/>
       <c r="J750"/>
       <c r="K750"/>
     </row>
-    <row r="751" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I751"/>
       <c r="J751"/>
       <c r="K751"/>
     </row>
-    <row r="752" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I752"/>
       <c r="J752"/>
       <c r="K752"/>
     </row>
-    <row r="753" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I753"/>
       <c r="J753"/>
       <c r="K753"/>
     </row>
-    <row r="754" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I754"/>
       <c r="J754"/>
       <c r="K754"/>
     </row>
-    <row r="755" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I755"/>
       <c r="J755"/>
       <c r="K755"/>
     </row>
-    <row r="756" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I756"/>
       <c r="J756"/>
       <c r="K756"/>
     </row>
-    <row r="757" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I757"/>
       <c r="J757"/>
       <c r="K757"/>
     </row>
-    <row r="758" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I758"/>
       <c r="J758"/>
       <c r="K758"/>
     </row>
-    <row r="759" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I759"/>
       <c r="J759"/>
       <c r="K759"/>
     </row>
-    <row r="760" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I760"/>
       <c r="J760"/>
       <c r="K760"/>
     </row>
-    <row r="761" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I761"/>
       <c r="J761"/>
       <c r="K761"/>
     </row>
-    <row r="762" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I762"/>
       <c r="J762"/>
       <c r="K762"/>
     </row>
-    <row r="763" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I763"/>
       <c r="J763"/>
       <c r="K763"/>
     </row>
-    <row r="764" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I764"/>
       <c r="J764"/>
       <c r="K764"/>
     </row>
-    <row r="765" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I765"/>
       <c r="J765"/>
       <c r="K765"/>
     </row>
-    <row r="766" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I766"/>
       <c r="J766"/>
       <c r="K766"/>
     </row>
-    <row r="767" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I767"/>
       <c r="J767"/>
       <c r="K767"/>
     </row>
-    <row r="768" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I768"/>
       <c r="J768"/>
       <c r="K768"/>
     </row>
-    <row r="769" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I769"/>
       <c r="J769"/>
       <c r="K769"/>
     </row>
-    <row r="770" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I770"/>
       <c r="J770"/>
       <c r="K770"/>
     </row>
-    <row r="771" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I771"/>
       <c r="J771"/>
       <c r="K771"/>
     </row>
-    <row r="772" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I772"/>
       <c r="J772"/>
       <c r="K772"/>
     </row>
-    <row r="773" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I773"/>
       <c r="J773"/>
       <c r="K773"/>
     </row>
-    <row r="774" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I774"/>
       <c r="J774"/>
       <c r="K774"/>
     </row>
-    <row r="775" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I775"/>
       <c r="J775"/>
       <c r="K775"/>
     </row>
-    <row r="776" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I776"/>
       <c r="J776"/>
       <c r="K776"/>
     </row>
-    <row r="777" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I777"/>
       <c r="J777"/>
       <c r="K777"/>
     </row>
-    <row r="778" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I778"/>
       <c r="J778"/>
       <c r="K778"/>
     </row>
-    <row r="779" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I779"/>
       <c r="J779"/>
       <c r="K779"/>
     </row>
-    <row r="780" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I780"/>
       <c r="J780"/>
       <c r="K780"/>
     </row>
-    <row r="781" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I781"/>
       <c r="J781"/>
       <c r="K781"/>
     </row>
-    <row r="782" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I782"/>
       <c r="J782"/>
       <c r="K782"/>
     </row>
-    <row r="783" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I783"/>
       <c r="J783"/>
       <c r="K783"/>
     </row>
-    <row r="784" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I784"/>
       <c r="J784"/>
       <c r="K784"/>
     </row>
-    <row r="785" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I785"/>
       <c r="J785"/>
       <c r="K785"/>
     </row>
-    <row r="786" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I786"/>
       <c r="J786"/>
       <c r="K786"/>
     </row>
-    <row r="787" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I787"/>
       <c r="J787"/>
       <c r="K787"/>
     </row>
-    <row r="788" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I788"/>
       <c r="J788"/>
       <c r="K788"/>
     </row>
-    <row r="789" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I789"/>
       <c r="J789"/>
       <c r="K789"/>
     </row>
-    <row r="790" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I790"/>
       <c r="J790"/>
       <c r="K790"/>
     </row>
-    <row r="791" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I791"/>
       <c r="J791"/>
       <c r="K791"/>
     </row>
-    <row r="792" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I792"/>
       <c r="J792"/>
       <c r="K792"/>
     </row>
-    <row r="793" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I793"/>
       <c r="J793"/>
       <c r="K793"/>
     </row>
-    <row r="794" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I794"/>
       <c r="J794"/>
       <c r="K794"/>
     </row>
-    <row r="795" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I795"/>
       <c r="J795"/>
       <c r="K795"/>
     </row>
-    <row r="796" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I796"/>
       <c r="J796"/>
       <c r="K796"/>
     </row>
-    <row r="797" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I797"/>
       <c r="J797"/>
       <c r="K797"/>
     </row>
-    <row r="798" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I798"/>
       <c r="J798"/>
       <c r="K798"/>
     </row>
-    <row r="799" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I799"/>
       <c r="J799"/>
       <c r="K799"/>
     </row>
-    <row r="800" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I800"/>
       <c r="J800"/>
       <c r="K800"/>
     </row>
-    <row r="801" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I801"/>
       <c r="J801"/>
       <c r="K801"/>
     </row>
-    <row r="802" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I802"/>
       <c r="J802"/>
       <c r="K802"/>
     </row>
-    <row r="803" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I803"/>
       <c r="J803"/>
       <c r="K803"/>
     </row>
-    <row r="804" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I804"/>
       <c r="J804"/>
       <c r="K804"/>
     </row>
-    <row r="805" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I805"/>
       <c r="J805"/>
       <c r="K805"/>
     </row>
-    <row r="806" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I806"/>
       <c r="J806"/>
       <c r="K806"/>
     </row>
-    <row r="807" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I807"/>
       <c r="J807"/>
       <c r="K807"/>
     </row>
-    <row r="808" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I808"/>
       <c r="J808"/>
       <c r="K808"/>
     </row>
-    <row r="809" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I809"/>
       <c r="J809"/>
       <c r="K809"/>
     </row>
-    <row r="810" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I810"/>
       <c r="J810"/>
       <c r="K810"/>

--- a/Spraw4/lab4.xlsx
+++ b/Spraw4/lab4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8456CB41-DB64-4B4D-95CA-DACC82D61463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4367D1A-6D8B-4A62-8D4A-CD60B5E1F40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,112 +749,112 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="36"/>
                   <c:pt idx="0">
-                    <c:v>4.4600000000000011E-4</c:v>
+                    <c:v>3.3908752088628871E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1200000000000001E-3</c:v>
+                    <c:v>8.5152023182207025E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7360000000000001E-3</c:v>
+                    <c:v>1.3198563593242087E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.3510000000000002E-3</c:v>
+                    <c:v>1.787432200905078E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.8545000000000003E-3</c:v>
+                    <c:v>2.1702361622643745E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.2635000000000003E-3</c:v>
+                    <c:v>2.4811931040636843E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.6055000000000006E-3</c:v>
+                    <c:v>2.7412108891379239E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.8275000000000006E-3</c:v>
+                    <c:v>2.9099943636597984E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.9415000000000006E-3</c:v>
+                    <c:v>2.9966669586845443E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.9404999999999996E-3</c:v>
+                    <c:v>2.9959066727632739E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.8155000000000003E-3</c:v>
+                    <c:v>2.9008709326045616E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.5750000000000005E-3</c:v>
+                    <c:v>2.7180221685391974E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.2459999999999998E-3</c:v>
+                    <c:v>2.4678881004414639E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.8025000000000007E-3</c:v>
+                    <c:v>2.1307012943583502E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.2905E-3</c:v>
+                    <c:v>1.7414349026682605E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.7175000000000003E-3</c:v>
+                    <c:v>1.3057910697807196E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.0970000000000001E-3</c:v>
+                    <c:v>8.3403365563286709E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.3400000000000009E-4</c:v>
+                    <c:v>3.2996408983105229E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.2250000000000001E-4</c:v>
+                    <c:v>2.1478077275869183E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.8699999999999998E-4</c:v>
+                    <c:v>7.1999076744241105E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.5065E-3</c:v>
+                    <c:v>1.1909878956689937E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.065E-3</c:v>
+                    <c:v>1.6156075826981244E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.5504999999999998E-3</c:v>
+                    <c:v>1.9847263974745663E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.9324999999999998E-3</c:v>
+                    <c:v>2.2751556193995937E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.2410000000000004E-3</c:v>
+                    <c:v>2.5097038261112981E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.4445000000000001E-3</c:v>
+                    <c:v>2.664422011089683E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.5595000000000006E-3</c:v>
+                    <c:v>2.7518548920356998E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>3.5510000000000003E-3</c:v>
+                    <c:v>2.7453924617049071E-3</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>3.4529999999999999E-3</c:v>
+                    <c:v>2.6708844414204754E-3</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>3.2285000000000005E-3</c:v>
+                    <c:v>2.5002002520954272E-3</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>2.9064999999999998E-3</c:v>
+                    <c:v>2.2553881854465814E-3</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>2.4919999999999999E-3</c:v>
+                    <c:v>1.9402496710802886E-3</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>2.0204999999999997E-3</c:v>
+                    <c:v>1.5817748592016222E-3</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>1.4555E-3</c:v>
+                    <c:v>1.1522133136842388E-3</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>8.2700000000000004E-4</c:v>
+                    <c:v>6.7437361216622887E-4</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>2.0950000000000002E-4</c:v>
+                    <c:v>2.0489705578218567E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -866,112 +866,112 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="36"/>
                   <c:pt idx="0">
-                    <c:v>4.4600000000000011E-4</c:v>
+                    <c:v>3.3908752088628871E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1200000000000001E-3</c:v>
+                    <c:v>8.5152023182207025E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7360000000000001E-3</c:v>
+                    <c:v>1.3198563593242087E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.3510000000000002E-3</c:v>
+                    <c:v>1.787432200905078E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.8545000000000003E-3</c:v>
+                    <c:v>2.1702361622643745E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.2635000000000003E-3</c:v>
+                    <c:v>2.4811931040636843E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.6055000000000006E-3</c:v>
+                    <c:v>2.7412108891379239E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.8275000000000006E-3</c:v>
+                    <c:v>2.9099943636597984E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.9415000000000006E-3</c:v>
+                    <c:v>2.9966669586845443E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.9404999999999996E-3</c:v>
+                    <c:v>2.9959066727632739E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.8155000000000003E-3</c:v>
+                    <c:v>2.9008709326045616E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.5750000000000005E-3</c:v>
+                    <c:v>2.7180221685391974E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.2459999999999998E-3</c:v>
+                    <c:v>2.4678881004414639E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.8025000000000007E-3</c:v>
+                    <c:v>2.1307012943583502E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.2905E-3</c:v>
+                    <c:v>1.7414349026682605E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.7175000000000003E-3</c:v>
+                    <c:v>1.3057910697807196E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.0970000000000001E-3</c:v>
+                    <c:v>8.3403365563286709E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.3400000000000009E-4</c:v>
+                    <c:v>3.2996408983105229E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.2250000000000001E-4</c:v>
+                    <c:v>2.1478077275869183E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.8699999999999998E-4</c:v>
+                    <c:v>7.1999076744241105E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.5065E-3</c:v>
+                    <c:v>1.1909878956689937E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.065E-3</c:v>
+                    <c:v>1.6156075826981244E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.5504999999999998E-3</c:v>
+                    <c:v>1.9847263974745663E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.9324999999999998E-3</c:v>
+                    <c:v>2.2751556193995937E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.2410000000000004E-3</c:v>
+                    <c:v>2.5097038261112981E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.4445000000000001E-3</c:v>
+                    <c:v>2.664422011089683E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.5595000000000006E-3</c:v>
+                    <c:v>2.7518548920356998E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>3.5510000000000003E-3</c:v>
+                    <c:v>2.7453924617049071E-3</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>3.4529999999999999E-3</c:v>
+                    <c:v>2.6708844414204754E-3</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>3.2285000000000005E-3</c:v>
+                    <c:v>2.5002002520954272E-3</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>2.9064999999999998E-3</c:v>
+                    <c:v>2.2553881854465814E-3</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>2.4919999999999999E-3</c:v>
+                    <c:v>1.9402496710802886E-3</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>2.0204999999999997E-3</c:v>
+                    <c:v>1.5817748592016222E-3</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>1.4555E-3</c:v>
+                    <c:v>1.1522133136842388E-3</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>8.2700000000000004E-4</c:v>
+                    <c:v>6.7437361216622887E-4</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>2.0950000000000002E-4</c:v>
+                    <c:v>2.0489705578218567E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1692,112 +1692,112 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="36"/>
                   <c:pt idx="0">
-                    <c:v>4.4600000000000011E-4</c:v>
+                    <c:v>3.3908752088628871E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1200000000000001E-3</c:v>
+                    <c:v>8.5152023182207025E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7360000000000001E-3</c:v>
+                    <c:v>1.3198563593242087E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.3510000000000002E-3</c:v>
+                    <c:v>1.787432200905078E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.8545000000000003E-3</c:v>
+                    <c:v>2.1702361622643745E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.2635000000000003E-3</c:v>
+                    <c:v>2.4811931040636843E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.6055000000000006E-3</c:v>
+                    <c:v>2.7412108891379239E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.8275000000000006E-3</c:v>
+                    <c:v>2.9099943636597984E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.9415000000000006E-3</c:v>
+                    <c:v>2.9966669586845443E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.9404999999999996E-3</c:v>
+                    <c:v>2.9959066727632739E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.8155000000000003E-3</c:v>
+                    <c:v>2.9008709326045616E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.5750000000000005E-3</c:v>
+                    <c:v>2.7180221685391974E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.2459999999999998E-3</c:v>
+                    <c:v>2.4678881004414639E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.8025000000000007E-3</c:v>
+                    <c:v>2.1307012943583502E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.2905E-3</c:v>
+                    <c:v>1.7414349026682605E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.7175000000000003E-3</c:v>
+                    <c:v>1.3057910697807196E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.0970000000000001E-3</c:v>
+                    <c:v>8.3403365563286709E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.3400000000000009E-4</c:v>
+                    <c:v>3.2996408983105229E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.2250000000000001E-4</c:v>
+                    <c:v>2.1478077275869183E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.8699999999999998E-4</c:v>
+                    <c:v>7.1999076744241105E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.5065E-3</c:v>
+                    <c:v>1.1909878956689937E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.065E-3</c:v>
+                    <c:v>1.6156075826981244E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.5504999999999998E-3</c:v>
+                    <c:v>1.9847263974745663E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.9324999999999998E-3</c:v>
+                    <c:v>2.2751556193995937E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.2410000000000004E-3</c:v>
+                    <c:v>2.5097038261112981E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.4445000000000001E-3</c:v>
+                    <c:v>2.664422011089683E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.5595000000000006E-3</c:v>
+                    <c:v>2.7518548920356998E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>3.5510000000000003E-3</c:v>
+                    <c:v>2.7453924617049071E-3</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>3.4529999999999999E-3</c:v>
+                    <c:v>2.6708844414204754E-3</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>3.2285000000000005E-3</c:v>
+                    <c:v>2.5002002520954272E-3</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>2.9064999999999998E-3</c:v>
+                    <c:v>2.2553881854465814E-3</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>2.4919999999999999E-3</c:v>
+                    <c:v>1.9402496710802886E-3</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>2.0204999999999997E-3</c:v>
+                    <c:v>1.5817748592016222E-3</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>1.4555E-3</c:v>
+                    <c:v>1.1522133136842388E-3</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>8.2700000000000004E-4</c:v>
+                    <c:v>6.7437361216622887E-4</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>2.0950000000000002E-4</c:v>
+                    <c:v>2.0489705578218567E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1809,112 +1809,112 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="36"/>
                   <c:pt idx="0">
-                    <c:v>4.4600000000000011E-4</c:v>
+                    <c:v>3.3908752088628871E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1200000000000001E-3</c:v>
+                    <c:v>8.5152023182207025E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7360000000000001E-3</c:v>
+                    <c:v>1.3198563593242087E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.3510000000000002E-3</c:v>
+                    <c:v>1.787432200905078E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.8545000000000003E-3</c:v>
+                    <c:v>2.1702361622643745E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.2635000000000003E-3</c:v>
+                    <c:v>2.4811931040636843E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.6055000000000006E-3</c:v>
+                    <c:v>2.7412108891379239E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.8275000000000006E-3</c:v>
+                    <c:v>2.9099943636597984E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.9415000000000006E-3</c:v>
+                    <c:v>2.9966669586845443E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.9404999999999996E-3</c:v>
+                    <c:v>2.9959066727632739E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.8155000000000003E-3</c:v>
+                    <c:v>2.9008709326045616E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3.5750000000000005E-3</c:v>
+                    <c:v>2.7180221685391974E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.2459999999999998E-3</c:v>
+                    <c:v>2.4678881004414639E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.8025000000000007E-3</c:v>
+                    <c:v>2.1307012943583502E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.2905E-3</c:v>
+                    <c:v>1.7414349026682605E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.7175000000000003E-3</c:v>
+                    <c:v>1.3057910697807196E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.0970000000000001E-3</c:v>
+                    <c:v>8.3403365563286709E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.3400000000000009E-4</c:v>
+                    <c:v>3.2996408983105229E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.2250000000000001E-4</c:v>
+                    <c:v>2.1478077275869183E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.8699999999999998E-4</c:v>
+                    <c:v>7.1999076744241105E-4</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>1.5065E-3</c:v>
+                    <c:v>1.1909878956689937E-3</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.065E-3</c:v>
+                    <c:v>1.6156075826981244E-3</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>2.5504999999999998E-3</c:v>
+                    <c:v>1.9847263974745663E-3</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>2.9324999999999998E-3</c:v>
+                    <c:v>2.2751556193995937E-3</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3.2410000000000004E-3</c:v>
+                    <c:v>2.5097038261112981E-3</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>3.4445000000000001E-3</c:v>
+                    <c:v>2.664422011089683E-3</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>3.5595000000000006E-3</c:v>
+                    <c:v>2.7518548920356998E-3</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>3.5510000000000003E-3</c:v>
+                    <c:v>2.7453924617049071E-3</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>3.4529999999999999E-3</c:v>
+                    <c:v>2.6708844414204754E-3</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>3.2285000000000005E-3</c:v>
+                    <c:v>2.5002002520954272E-3</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>2.9064999999999998E-3</c:v>
+                    <c:v>2.2553881854465814E-3</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>2.4919999999999999E-3</c:v>
+                    <c:v>1.9402496710802886E-3</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>2.0204999999999997E-3</c:v>
+                    <c:v>1.5817748592016222E-3</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>1.4555E-3</c:v>
+                    <c:v>1.1522133136842388E-3</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>8.2700000000000004E-4</c:v>
+                    <c:v>6.7437361216622887E-4</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>2.0950000000000002E-4</c:v>
+                    <c:v>2.0489705578218567E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2749,37 +2749,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>4.4600000000000011E-4</c:v>
+                    <c:v>3.3908752088628871E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7649999999999997E-4</c:v>
+                    <c:v>4.383048336119852E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.6649999999999999E-4</c:v>
+                    <c:v>5.0673056652625868E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.5799999999999999E-4</c:v>
+                    <c:v>5.7629672832243677E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.4449999999999998E-4</c:v>
+                    <c:v>6.4206146051226632E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.2750000000000005E-4</c:v>
+                    <c:v>7.0516519197765188E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.0124999999999999E-3</c:v>
+                    <c:v>7.6978949528557676E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.0955000000000001E-3</c:v>
+                    <c:v>8.3289322675096254E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1825000000000002E-3</c:v>
+                    <c:v>8.9903810190142687E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.2760000000000002E-3</c:v>
+                    <c:v>9.7012483554014439E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.3325000000000001E-3</c:v>
+                    <c:v>1.0130809900918828E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2791,37 +2791,37 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
-                    <c:v>4.4600000000000011E-4</c:v>
+                    <c:v>3.3908752088628871E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.7649999999999997E-4</c:v>
+                    <c:v>4.383048336119852E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.6649999999999999E-4</c:v>
+                    <c:v>5.0673056652625868E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.5799999999999999E-4</c:v>
+                    <c:v>5.7629672832243677E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.4449999999999998E-4</c:v>
+                    <c:v>6.4206146051226632E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.2750000000000005E-4</c:v>
+                    <c:v>7.0516519197765188E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.0124999999999999E-3</c:v>
+                    <c:v>7.6978949528557676E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.0955000000000001E-3</c:v>
+                    <c:v>8.3289322675096254E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1825000000000002E-3</c:v>
+                    <c:v>8.9903810190142687E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.2760000000000002E-3</c:v>
+                    <c:v>9.7012483554014439E-4</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.3325000000000001E-3</c:v>
+                    <c:v>1.0130809900918828E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5273,8 +5273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AT810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS48" sqref="AS48"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5399,8 +5399,8 @@
         <v>8.320000000000001E-3</v>
       </c>
       <c r="H4" s="1">
-        <f>ABS(0.05*G4+3*0.00001)</f>
-        <v>4.4600000000000011E-4</v>
+        <f>SQRT(POWER((ABS(0.05*G4+(G4/ABS(G4))*3*0.00001)),2)/(1.73))</f>
+        <v>3.3908752088628871E-4</v>
       </c>
       <c r="J4" s="2">
         <f>SQRT((0.5^2)*(((RADIANS(5)^2)*COS(RADIANS(D4-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D4-$L$3)))^2))</f>
@@ -5420,7 +5420,8 @@
         <v>8.320000000000001E-3</v>
       </c>
       <c r="AL4" s="4">
-        <v>4.4600000000000011E-4</v>
+        <f>H4</f>
+        <v>3.3908752088628871E-4</v>
       </c>
       <c r="AM4" s="4">
         <v>5.7774465945334931E-3</v>
@@ -5446,8 +5447,8 @@
         <v>2.18E-2</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H39" si="1">ABS(0.05*G5+3*0.00001)</f>
-        <v>1.1200000000000001E-3</v>
+        <f t="shared" ref="H5:H39" si="1">SQRT(POWER((ABS(0.05*G5+(G5/ABS(G5))*3*0.00001)),2)/(1.73))</f>
+        <v>8.5152023182207025E-4</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ref="J5:J39" si="2">SQRT((0.5^2)*(((RADIANS(5)^2)*COS(RADIANS(D5-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D5-$L$3)))^2))</f>
@@ -5473,7 +5474,8 @@
         <v>2.18E-2</v>
       </c>
       <c r="AL5" s="4">
-        <v>1.1200000000000001E-3</v>
+        <f t="shared" ref="AL5:AL39" si="4">H5</f>
+        <v>8.5152023182207025E-4</v>
       </c>
       <c r="AM5" s="4">
         <v>1.3453465353068563E-2</v>
@@ -5500,7 +5502,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>1.7360000000000001E-3</v>
+        <v>1.3198563593242087E-3</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
@@ -5539,7 +5541,8 @@
         <v>3.4119999999999998E-2</v>
       </c>
       <c r="AL6" s="4">
-        <v>1.7360000000000001E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.3198563593242087E-3</v>
       </c>
       <c r="AM6" s="4">
         <v>2.1410853371918517E-2</v>
@@ -5566,7 +5569,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>2.3510000000000002E-3</v>
+        <v>1.787432200905078E-3</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="2"/>
@@ -5604,7 +5607,8 @@
         <v>4.6420000000000003E-2</v>
       </c>
       <c r="AL7" s="4">
-        <v>2.3510000000000002E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.787432200905078E-3</v>
       </c>
       <c r="AM7" s="4">
         <v>2.8847939341668283E-2</v>
@@ -5631,7 +5635,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>2.8545000000000003E-3</v>
+        <v>2.1702361622643745E-3</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
@@ -5663,7 +5667,8 @@
         <v>5.6489999999999999E-2</v>
       </c>
       <c r="AL8" s="4">
-        <v>2.8545000000000003E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.1702361622643745E-3</v>
       </c>
       <c r="AM8" s="4">
         <v>3.5457712238971102E-2</v>
@@ -5690,7 +5695,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
-        <v>3.2635000000000003E-3</v>
+        <v>2.4811931040636843E-3</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="2"/>
@@ -5722,7 +5727,8 @@
         <v>6.4670000000000005E-2</v>
       </c>
       <c r="AL9" s="4">
-        <v>3.2635000000000003E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.4811931040636843E-3</v>
       </c>
       <c r="AM9" s="4">
         <v>4.101579098570194E-2</v>
@@ -5749,7 +5755,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>3.6055000000000006E-3</v>
+        <v>2.7412108891379239E-3</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="2"/>
@@ -5781,7 +5787,8 @@
         <v>7.1510000000000004E-2</v>
       </c>
       <c r="AL10" s="4">
-        <v>3.6055000000000006E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.7412108891379239E-3</v>
       </c>
       <c r="AM10" s="4">
         <v>4.5343952985261081E-2</v>
@@ -5808,7 +5815,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>3.8275000000000006E-3</v>
+        <v>2.9099943636597984E-3</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="2"/>
@@ -5840,7 +5847,8 @@
         <v>7.5950000000000004E-2</v>
       </c>
       <c r="AL11" s="4">
-        <v>3.8275000000000006E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.9099943636597984E-3</v>
       </c>
       <c r="AM11" s="4">
         <v>4.830634517780398E-2</v>
@@ -5867,7 +5875,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>3.9415000000000006E-3</v>
+        <v>2.9966669586845443E-3</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
@@ -5899,7 +5907,8 @@
         <v>7.8230000000000008E-2</v>
       </c>
       <c r="AL12" s="4">
-        <v>3.9415000000000006E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.9966669586845443E-3</v>
       </c>
       <c r="AM12" s="4">
         <v>4.9810840439513518E-2</v>
@@ -5926,7 +5935,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>3.9404999999999996E-3</v>
+        <v>2.9959066727632739E-3</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="2"/>
@@ -5958,7 +5967,8 @@
         <v>7.8209999999999988E-2</v>
       </c>
       <c r="AL13" s="4">
-        <v>3.9404999999999996E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.9959066727632739E-3</v>
       </c>
       <c r="AM13" s="4">
         <v>4.9810840439513518E-2</v>
@@ -5985,7 +5995,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>3.8155000000000003E-3</v>
+        <v>2.9008709326045616E-3</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="2"/>
@@ -6005,7 +6015,8 @@
         <v>7.571E-2</v>
       </c>
       <c r="AL14" s="4">
-        <v>3.8155000000000003E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.9008709326045616E-3</v>
       </c>
       <c r="AM14" s="4">
         <v>4.830634517780398E-2</v>
@@ -6032,7 +6043,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>3.5750000000000005E-3</v>
+        <v>2.7180221685391974E-3</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="2"/>
@@ -6052,7 +6063,8 @@
         <v>7.0900000000000005E-2</v>
       </c>
       <c r="AL15" s="4">
-        <v>3.5750000000000005E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.7180221685391974E-3</v>
       </c>
       <c r="AM15" s="4">
         <v>4.5343952985261081E-2</v>
@@ -6079,7 +6091,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>3.2459999999999998E-3</v>
+        <v>2.4678881004414639E-3</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="2"/>
@@ -6099,7 +6111,8 @@
         <v>6.4319999999999988E-2</v>
       </c>
       <c r="AL16" s="4">
-        <v>3.2459999999999998E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.4678881004414639E-3</v>
       </c>
       <c r="AM16" s="4">
         <v>4.101579098570194E-2</v>
@@ -6126,7 +6139,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>2.8025000000000007E-3</v>
+        <v>2.1307012943583502E-3</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="2"/>
@@ -6146,7 +6159,8 @@
         <v>5.5450000000000006E-2</v>
       </c>
       <c r="AL17" s="4">
-        <v>2.8025000000000007E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.1307012943583502E-3</v>
       </c>
       <c r="AM17" s="4">
         <v>3.5457712238971095E-2</v>
@@ -6173,7 +6187,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>2.2905E-3</v>
+        <v>1.7414349026682605E-3</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
@@ -6193,7 +6207,8 @@
         <v>4.521E-2</v>
       </c>
       <c r="AL18" s="4">
-        <v>2.2905E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.7414349026682605E-3</v>
       </c>
       <c r="AM18" s="4">
         <v>2.8847939341668283E-2</v>
@@ -6220,7 +6235,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>1.7175000000000003E-3</v>
+        <v>1.3057910697807196E-3</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="2"/>
@@ -6240,7 +6255,8 @@
         <v>3.3750000000000002E-2</v>
       </c>
       <c r="AL19" s="4">
-        <v>1.7175000000000003E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.3057910697807196E-3</v>
       </c>
       <c r="AM19" s="4">
         <v>2.1410853371918514E-2</v>
@@ -6267,7 +6283,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>1.0970000000000001E-3</v>
+        <v>8.3403365563286709E-4</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="2"/>
@@ -6287,7 +6303,8 @@
         <v>2.1340000000000001E-2</v>
       </c>
       <c r="AL20" s="4">
-        <v>1.0970000000000001E-3</v>
+        <f t="shared" si="4"/>
+        <v>8.3403365563286709E-4</v>
       </c>
       <c r="AM20" s="4">
         <v>1.345346535306855E-2</v>
@@ -6314,7 +6331,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>4.3400000000000009E-4</v>
+        <v>3.2996408983105229E-4</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="2"/>
@@ -6334,7 +6351,8 @@
         <v>8.0800000000000004E-3</v>
       </c>
       <c r="AL21" s="4">
-        <v>4.3400000000000009E-4</v>
+        <f t="shared" si="4"/>
+        <v>3.2996408983105229E-4</v>
       </c>
       <c r="AM21" s="4">
         <v>5.7774465945334922E-3</v>
@@ -6361,7 +6379,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>2.2250000000000001E-4</v>
+        <v>2.1478077275869183E-4</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="2"/>
@@ -6381,7 +6399,8 @@
         <v>-5.0499999999999998E-3</v>
       </c>
       <c r="AL22" s="4">
-        <v>2.2250000000000001E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.1478077275869183E-4</v>
       </c>
       <c r="AM22" s="4">
         <v>5.7774465945334922E-3</v>
@@ -6408,7 +6427,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>8.8699999999999998E-4</v>
+        <v>7.1999076744241105E-4</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="2"/>
@@ -6428,7 +6447,8 @@
         <v>-1.8339999999999999E-2</v>
       </c>
       <c r="AL23" s="4">
-        <v>8.8699999999999998E-4</v>
+        <f t="shared" si="4"/>
+        <v>7.1999076744241105E-4</v>
       </c>
       <c r="AM23" s="4">
         <v>1.345346535306855E-2</v>
@@ -6454,8 +6474,8 @@
         <v>-3.073E-2</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5065E-3</v>
+        <f>SQRT(POWER((ABS(0.05*G24+(G24/ABS(G24))*3*0.00001)),2)/(1.73))</f>
+        <v>1.1909878956689937E-3</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="2"/>
@@ -6475,7 +6495,8 @@
         <v>-3.073E-2</v>
       </c>
       <c r="AL24" s="4">
-        <v>1.5065E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.1909878956689937E-3</v>
       </c>
       <c r="AM24" s="4">
         <v>2.1410853371918514E-2</v>
@@ -6502,7 +6523,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>2.065E-3</v>
+        <v>1.6156075826981244E-3</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="2"/>
@@ -6522,7 +6543,8 @@
         <v>-4.19E-2</v>
       </c>
       <c r="AL25" s="4">
-        <v>2.065E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.6156075826981244E-3</v>
       </c>
       <c r="AM25" s="4">
         <v>2.8847939341668283E-2</v>
@@ -6549,7 +6571,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>2.5504999999999998E-3</v>
+        <v>1.9847263974745663E-3</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
@@ -6569,7 +6591,8 @@
         <v>-5.1609999999999996E-2</v>
       </c>
       <c r="AL26" s="4">
-        <v>2.5504999999999998E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.9847263974745663E-3</v>
       </c>
       <c r="AM26" s="4">
         <v>3.5457712238971095E-2</v>
@@ -6596,7 +6619,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>2.9324999999999998E-3</v>
+        <v>2.2751556193995937E-3</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="2"/>
@@ -6622,7 +6645,8 @@
         <v>-5.9249999999999997E-2</v>
       </c>
       <c r="AL27" s="4">
-        <v>2.9324999999999998E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.2751556193995937E-3</v>
       </c>
       <c r="AM27" s="4">
         <v>4.101579098570194E-2</v>
@@ -6649,7 +6673,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>3.2410000000000004E-3</v>
+        <v>2.5097038261112981E-3</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="2"/>
@@ -6679,7 +6703,8 @@
         <v>-6.5420000000000006E-2</v>
       </c>
       <c r="AL28" s="4">
-        <v>3.2410000000000004E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.5097038261112981E-3</v>
       </c>
       <c r="AM28" s="4">
         <v>4.5343952985261081E-2</v>
@@ -6706,7 +6731,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>3.4445000000000001E-3</v>
+        <v>2.664422011089683E-3</v>
       </c>
       <c r="J29" s="2">
         <f>SQRT((0.5^2)*(((RADIANS(5)^2)*COS(RADIANS(D29-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D29-$L$3)))^2))</f>
@@ -6735,7 +6760,8 @@
         <v>-6.9489999999999996E-2</v>
       </c>
       <c r="AL29" s="4">
-        <v>3.4445000000000001E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.664422011089683E-3</v>
       </c>
       <c r="AM29" s="4">
         <v>4.830634517780398E-2</v>
@@ -6762,7 +6788,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>3.5595000000000006E-3</v>
+        <v>2.7518548920356998E-3</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="2"/>
@@ -6782,7 +6808,8 @@
         <v>-7.1790000000000007E-2</v>
       </c>
       <c r="AL30" s="4">
-        <v>3.5595000000000006E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.7518548920356998E-3</v>
       </c>
       <c r="AM30" s="4">
         <v>4.9810840439513518E-2</v>
@@ -6809,7 +6836,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>3.5510000000000003E-3</v>
+        <v>2.7453924617049071E-3</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="2"/>
@@ -6839,7 +6866,8 @@
         <v>-7.1620000000000003E-2</v>
       </c>
       <c r="AL31" s="4">
-        <v>3.5510000000000003E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.7453924617049071E-3</v>
       </c>
       <c r="AM31" s="4">
         <v>4.9810840439513518E-2</v>
@@ -6866,7 +6894,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>3.4529999999999999E-3</v>
+        <v>2.6708844414204754E-3</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="2"/>
@@ -6886,7 +6914,8 @@
         <v>-6.966E-2</v>
       </c>
       <c r="AL32" s="4">
-        <v>3.4529999999999999E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.6708844414204754E-3</v>
       </c>
       <c r="AM32" s="4">
         <v>4.830634517780398E-2</v>
@@ -6913,7 +6942,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>3.2285000000000005E-3</v>
+        <v>2.5002002520954272E-3</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="2"/>
@@ -6933,7 +6962,8 @@
         <v>-6.5170000000000006E-2</v>
       </c>
       <c r="AL33" s="4">
-        <v>3.2285000000000005E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.5002002520954272E-3</v>
       </c>
       <c r="AM33" s="4">
         <v>4.5343952985261081E-2</v>
@@ -6963,7 +6993,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>2.9064999999999998E-3</v>
+        <v>2.2553881854465814E-3</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
@@ -6983,7 +7013,8 @@
         <v>-5.8729999999999997E-2</v>
       </c>
       <c r="AL34" s="4">
-        <v>2.9064999999999998E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.2553881854465814E-3</v>
       </c>
       <c r="AM34" s="4">
         <v>4.101579098570194E-2</v>
@@ -7010,7 +7041,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>2.4919999999999999E-3</v>
+        <v>1.9402496710802886E-3</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="2"/>
@@ -7030,7 +7061,8 @@
         <v>-5.0439999999999999E-2</v>
       </c>
       <c r="AL35" s="4">
-        <v>2.4919999999999999E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.9402496710802886E-3</v>
       </c>
       <c r="AM35" s="4">
         <v>3.5457712238971102E-2</v>
@@ -7057,7 +7089,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>2.0204999999999997E-3</v>
+        <v>1.5817748592016222E-3</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="2"/>
@@ -7077,7 +7109,8 @@
         <v>-4.1009999999999998E-2</v>
       </c>
       <c r="AL36" s="4">
-        <v>2.0204999999999997E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.5817748592016222E-3</v>
       </c>
       <c r="AM36" s="4">
         <v>2.8847939341668283E-2</v>
@@ -7104,7 +7137,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>1.4555E-3</v>
+        <v>1.1522133136842388E-3</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="2"/>
@@ -7124,7 +7157,8 @@
         <v>-2.971E-2</v>
       </c>
       <c r="AL37" s="4">
-        <v>1.4555E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.1522133136842388E-3</v>
       </c>
       <c r="AM37" s="4">
         <v>2.1410853371918517E-2</v>
@@ -7151,7 +7185,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>8.2700000000000004E-4</v>
+        <v>6.7437361216622887E-4</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="2"/>
@@ -7168,7 +7202,8 @@
         <v>-1.7139999999999999E-2</v>
       </c>
       <c r="AL38" s="4">
-        <v>8.2700000000000004E-4</v>
+        <f t="shared" si="4"/>
+        <v>6.7437361216622887E-4</v>
       </c>
       <c r="AM38" s="4">
         <v>1.3453465353068563E-2</v>
@@ -7195,7 +7230,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="1"/>
-        <v>2.0950000000000002E-4</v>
+        <v>2.0489705578218567E-4</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="2"/>
@@ -7212,7 +7247,8 @@
         <v>-4.79E-3</v>
       </c>
       <c r="AL39" s="4">
-        <v>2.0950000000000002E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.0489705578218567E-4</v>
       </c>
       <c r="AM39" s="4">
         <v>5.7774465945334931E-3</v>
@@ -7291,8 +7327,8 @@
         <v>2.165E-4</v>
       </c>
       <c r="I46">
-        <f>ABS(0.05*G46+3*0.00001)</f>
-        <v>4.4600000000000011E-4</v>
+        <f>SQRT(POWER((ABS(0.05*G46+(G46/ABS(G46))*3*0.00001)),2)/(1.73))</f>
+        <v>3.3908752088628871E-4</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -7305,16 +7341,16 @@
         <v>10.93</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" ref="F47:F56" si="4">C47/1000</f>
+        <f t="shared" ref="F47:F56" si="5">C47/1000</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" ref="G47:G56" si="5">D47/1000</f>
+        <f t="shared" ref="G47:G56" si="6">D47/1000</f>
         <v>1.093E-2</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47:I56" si="6">ABS(0.05*G47+3*0.00001)</f>
-        <v>5.7649999999999997E-4</v>
+        <f t="shared" ref="I47:I56" si="7">SQRT(POWER((ABS(0.05*G47+(G47/ABS(G47))*3*0.00001)),2)/(1.73))</f>
+        <v>4.383048336119852E-4</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -7327,16 +7363,16 @@
         <v>12.73</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.273E-2</v>
       </c>
       <c r="I48">
-        <f t="shared" si="6"/>
-        <v>6.6649999999999999E-4</v>
+        <f t="shared" si="7"/>
+        <v>5.0673056652625868E-4</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -7349,16 +7385,16 @@
         <v>14.56</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.456E-2</v>
       </c>
       <c r="I49">
-        <f t="shared" si="6"/>
-        <v>7.5799999999999999E-4</v>
+        <f t="shared" si="7"/>
+        <v>5.7629672832243677E-4</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -7383,16 +7419,16 @@
         <v>16.29</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6289999999999999E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" si="6"/>
-        <v>8.4449999999999998E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.4206146051226632E-4</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -7417,16 +7453,16 @@
         <v>17.95</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7950000000000001E-2</v>
       </c>
       <c r="I51">
-        <f t="shared" si="6"/>
-        <v>9.2750000000000005E-4</v>
+        <f t="shared" si="7"/>
+        <v>7.0516519197765188E-4</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -7449,16 +7485,16 @@
         <v>19.649999999999999</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9649999999999997E-2</v>
       </c>
       <c r="I52">
-        <f t="shared" si="6"/>
-        <v>1.0124999999999999E-3</v>
+        <f t="shared" si="7"/>
+        <v>7.6978949528557676E-4</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -7481,16 +7517,16 @@
         <v>21.31</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2E-2</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="I53">
-        <f t="shared" si="6"/>
-        <v>1.0955000000000001E-3</v>
+        <f t="shared" si="7"/>
+        <v>8.3289322675096254E-4</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -7513,16 +7549,16 @@
         <v>23.05</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3050000000000001E-2</v>
       </c>
       <c r="I54">
-        <f t="shared" si="6"/>
-        <v>1.1825000000000002E-3</v>
+        <f t="shared" si="7"/>
+        <v>8.9903810190142687E-4</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -7545,16 +7581,16 @@
         <v>24.92</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4E-2</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4920000000000001E-2</v>
       </c>
       <c r="I55">
-        <f t="shared" si="6"/>
-        <v>1.2760000000000002E-3</v>
+        <f t="shared" si="7"/>
+        <v>9.7012483554014439E-4</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -7577,16 +7613,16 @@
         <v>26.05</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.605E-2</v>
       </c>
       <c r="I56">
-        <f t="shared" si="6"/>
-        <v>1.3325000000000001E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.0130809900918828E-3</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>

--- a/Spraw4/lab4.xlsx
+++ b/Spraw4/lab4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnb\Documents\Uczelnia\Semestr 3\FIZ31\Spraw4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4367D1A-6D8B-4A62-8D4A-CD60B5E1F40D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9AF3A-5C76-4EDC-9558-9D4633FCF7D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -142,6 +142,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,12 +242,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Dane wejściowe" xfId="4" builtinId="20"/>
@@ -5273,26 +5279,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AT810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="33.109375" customWidth="1"/>
-    <col min="29" max="29" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="33.140625" customWidth="1"/>
+    <col min="29" max="29" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:40" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>21</v>
       </c>
@@ -5303,7 +5309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5333,7 +5339,7 @@
         <v>8.32</v>
       </c>
     </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>1</v>
@@ -5398,11 +5404,11 @@
         <f>AA2/1000</f>
         <v>8.320000000000001E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <f>SQRT(POWER((ABS(0.05*G4+(G4/ABS(G4))*3*0.00001)),2)/(1.73))</f>
         <v>3.3908752088628871E-4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <f>SQRT((0.5^2)*(((RADIANS(5)^2)*COS(RADIANS(D4-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D4-$L$3)))^2))</f>
         <v>5.7774465945334931E-3</v>
       </c>
@@ -5430,7 +5436,7 @@
         <v>-4.3577871373829097E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>2</v>
@@ -5446,11 +5452,11 @@
         <f t="shared" ref="G5:G39" si="0">AA3/1000</f>
         <v>2.18E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <f t="shared" ref="H5:H39" si="1">SQRT(POWER((ABS(0.05*G5+(G5/ABS(G5))*3*0.00001)),2)/(1.73))</f>
         <v>8.5152023182207025E-4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <f t="shared" ref="J5:J39" si="2">SQRT((0.5^2)*(((RADIANS(5)^2)*COS(RADIANS(D5-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D5-$L$3)))^2))</f>
         <v>1.3453465353068563E-2</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>-0.12940952255126051</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>3</v>
@@ -5500,11 +5506,11 @@
         <f t="shared" si="0"/>
         <v>3.4119999999999998E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>1.3198563593242087E-3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <f t="shared" si="2"/>
         <v>2.1410853371918517E-2</v>
       </c>
@@ -5551,7 +5557,7 @@
         <v>-0.21130913087034975</v>
       </c>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>4</v>
@@ -5567,11 +5573,11 @@
         <f t="shared" si="0"/>
         <v>4.6420000000000003E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="6">
         <f t="shared" si="1"/>
         <v>1.787432200905078E-3</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>2.8847939341668283E-2</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>-0.28678821817552297</v>
       </c>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>5</v>
@@ -5633,11 +5639,11 @@
         <f t="shared" si="0"/>
         <v>5.6489999999999999E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>2.1702361622643745E-3</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>3.5457712238971102E-2</v>
       </c>
@@ -5677,7 +5683,7 @@
         <v>-0.35355339059327379</v>
       </c>
     </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>6</v>
@@ -5693,11 +5699,11 @@
         <f t="shared" si="0"/>
         <v>6.4670000000000005E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>2.4811931040636843E-3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>4.101579098570194E-2</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>-0.40957602214449584</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>7</v>
@@ -5753,11 +5759,11 @@
         <f t="shared" si="0"/>
         <v>7.1510000000000004E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>2.7412108891379239E-3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>4.5343952985261081E-2</v>
       </c>
@@ -5797,7 +5803,7 @@
         <v>-0.45315389351832502</v>
       </c>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>8</v>
@@ -5813,11 +5819,11 @@
         <f t="shared" si="0"/>
         <v>7.5950000000000004E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>2.9099943636597984E-3</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>4.830634517780398E-2</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>-0.48296291314453416</v>
       </c>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>9</v>
@@ -5873,11 +5879,11 @@
         <f t="shared" si="0"/>
         <v>7.8230000000000008E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>2.9966669586845443E-3</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="7">
         <f t="shared" si="2"/>
         <v>4.9810840439513518E-2</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>-0.49809734904587277</v>
       </c>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>10</v>
@@ -5933,11 +5939,11 @@
         <f t="shared" si="0"/>
         <v>7.8209999999999988E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>2.9959066727632739E-3</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <f t="shared" si="2"/>
         <v>4.9810840439513518E-2</v>
       </c>
@@ -5977,7 +5983,7 @@
         <v>-0.49809734904587277</v>
       </c>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <v>11</v>
@@ -5993,11 +5999,11 @@
         <f t="shared" si="0"/>
         <v>7.571E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>2.9008709326045616E-3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="7">
         <f t="shared" si="2"/>
         <v>4.830634517780398E-2</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>-0.48296291314453416</v>
       </c>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>12</v>
@@ -6041,11 +6047,11 @@
         <f t="shared" si="0"/>
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>2.7180221685391974E-3</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="7">
         <f t="shared" si="2"/>
         <v>4.5343952985261081E-2</v>
       </c>
@@ -6073,7 +6079,7 @@
         <v>-0.45315389351832497</v>
       </c>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1">
         <v>13</v>
@@ -6089,11 +6095,11 @@
         <f t="shared" si="0"/>
         <v>6.4319999999999988E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>2.4678881004414639E-3</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="7">
         <f t="shared" si="2"/>
         <v>4.101579098570194E-2</v>
       </c>
@@ -6121,7 +6127,7 @@
         <v>-0.4095760221444959</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>14</v>
@@ -6137,11 +6143,11 @@
         <f t="shared" si="0"/>
         <v>5.5450000000000006E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>2.1307012943583502E-3</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="7">
         <f t="shared" si="2"/>
         <v>3.5457712238971095E-2</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>-0.35355339059327373</v>
       </c>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1">
         <v>15</v>
@@ -6185,11 +6191,11 @@
         <f t="shared" si="0"/>
         <v>4.521E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>1.7414349026682605E-3</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="7">
         <f t="shared" si="2"/>
         <v>2.8847939341668283E-2</v>
       </c>
@@ -6217,7 +6223,7 @@
         <v>-0.28678821817552302</v>
       </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>16</v>
@@ -6233,11 +6239,11 @@
         <f t="shared" si="0"/>
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>1.3057910697807196E-3</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="7">
         <f t="shared" si="2"/>
         <v>2.1410853371918514E-2</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>-0.21130913087034972</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1">
         <v>17</v>
@@ -6281,11 +6287,11 @@
         <f t="shared" si="0"/>
         <v>2.1340000000000001E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="6">
         <f t="shared" si="1"/>
         <v>8.3403365563286709E-4</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="7">
         <f t="shared" si="2"/>
         <v>1.345346535306855E-2</v>
       </c>
@@ -6313,7 +6319,7 @@
         <v>-0.12940952255126037</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1">
         <v>18</v>
@@ -6329,11 +6335,11 @@
         <f t="shared" si="0"/>
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="6">
         <f t="shared" si="1"/>
         <v>3.2996408983105229E-4</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="7">
         <f t="shared" si="2"/>
         <v>5.7774465945334922E-3</v>
       </c>
@@ -6361,7 +6367,7 @@
         <v>-4.3577871373829083E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>19</v>
@@ -6377,11 +6383,11 @@
         <f t="shared" si="0"/>
         <v>-5.0499999999999998E-3</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>2.1478077275869183E-4</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="7">
         <f t="shared" si="2"/>
         <v>5.7774465945334922E-3</v>
       </c>
@@ -6409,7 +6415,7 @@
         <v>4.3577871373829083E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>20</v>
@@ -6425,11 +6431,11 @@
         <f t="shared" si="0"/>
         <v>-1.8339999999999999E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="6">
         <f t="shared" si="1"/>
         <v>7.1999076744241105E-4</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="7">
         <f t="shared" si="2"/>
         <v>1.345346535306855E-2</v>
       </c>
@@ -6457,7 +6463,7 @@
         <v>0.12940952255126037</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1">
         <v>21</v>
@@ -6473,11 +6479,11 @@
         <f t="shared" si="0"/>
         <v>-3.073E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="6">
         <f>SQRT(POWER((ABS(0.05*G24+(G24/ABS(G24))*3*0.00001)),2)/(1.73))</f>
         <v>1.1909878956689937E-3</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="7">
         <f t="shared" si="2"/>
         <v>2.1410853371918514E-2</v>
       </c>
@@ -6505,7 +6511,7 @@
         <v>0.21130913087034972</v>
       </c>
     </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1">
         <v>22</v>
@@ -6521,11 +6527,11 @@
         <f t="shared" si="0"/>
         <v>-4.19E-2</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="6">
         <f t="shared" si="1"/>
         <v>1.6156075826981244E-3</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="7">
         <f t="shared" si="2"/>
         <v>2.8847939341668283E-2</v>
       </c>
@@ -6553,7 +6559,7 @@
         <v>0.28678821817552302</v>
       </c>
     </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1">
         <v>23</v>
@@ -6569,11 +6575,11 @@
         <f t="shared" si="0"/>
         <v>-5.1609999999999996E-2</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="6">
         <f t="shared" si="1"/>
         <v>1.9847263974745663E-3</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="7">
         <f t="shared" si="2"/>
         <v>3.5457712238971095E-2</v>
       </c>
@@ -6601,7 +6607,7 @@
         <v>0.35355339059327373</v>
       </c>
     </row>
-    <row r="27" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1">
         <v>24</v>
@@ -6617,11 +6623,11 @@
         <f t="shared" si="0"/>
         <v>-5.9249999999999997E-2</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="6">
         <f t="shared" si="1"/>
         <v>2.2751556193995937E-3</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="7">
         <f t="shared" si="2"/>
         <v>4.101579098570194E-2</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>0.4095760221444959</v>
       </c>
     </row>
-    <row r="28" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1">
         <v>25</v>
@@ -6671,11 +6677,11 @@
         <f t="shared" si="0"/>
         <v>-6.5420000000000006E-2</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="6">
         <f t="shared" si="1"/>
         <v>2.5097038261112981E-3</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="7">
         <f t="shared" si="2"/>
         <v>4.5343952985261081E-2</v>
       </c>
@@ -6713,7 +6719,7 @@
         <v>0.45315389351832497</v>
       </c>
     </row>
-    <row r="29" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1">
         <v>26</v>
@@ -6729,11 +6735,11 @@
         <f t="shared" si="0"/>
         <v>-6.9489999999999996E-2</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="6">
         <f t="shared" si="1"/>
         <v>2.664422011089683E-3</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="7">
         <f>SQRT((0.5^2)*(((RADIANS(5)^2)*COS(RADIANS(D29-$L$3)))^2) +((0.05)^2)*((SIN(RADIANS(D29-$L$3)))^2))</f>
         <v>4.830634517780398E-2</v>
       </c>
@@ -6770,7 +6776,7 @@
         <v>0.48296291314453416</v>
       </c>
     </row>
-    <row r="30" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1">
         <v>27</v>
@@ -6786,11 +6792,11 @@
         <f t="shared" si="0"/>
         <v>-7.1790000000000007E-2</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="6">
         <f t="shared" si="1"/>
         <v>2.7518548920356998E-3</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="7">
         <f t="shared" si="2"/>
         <v>4.9810840439513518E-2</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>0.49809734904587277</v>
       </c>
     </row>
-    <row r="31" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1">
         <v>28</v>
@@ -6834,11 +6840,11 @@
         <f t="shared" si="0"/>
         <v>-7.1620000000000003E-2</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="6">
         <f t="shared" si="1"/>
         <v>2.7453924617049071E-3</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="7">
         <f t="shared" si="2"/>
         <v>4.9810840439513518E-2</v>
       </c>
@@ -6876,7 +6882,7 @@
         <v>0.49809734904587277</v>
       </c>
     </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1">
         <v>29</v>
@@ -6892,11 +6898,11 @@
         <f t="shared" si="0"/>
         <v>-6.966E-2</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="6">
         <f t="shared" si="1"/>
         <v>2.6708844414204754E-3</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="7">
         <f t="shared" si="2"/>
         <v>4.830634517780398E-2</v>
       </c>
@@ -6924,7 +6930,7 @@
         <v>0.48296291314453416</v>
       </c>
     </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1">
         <v>30</v>
@@ -6940,11 +6946,11 @@
         <f t="shared" si="0"/>
         <v>-6.5170000000000006E-2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="6">
         <f t="shared" si="1"/>
         <v>2.5002002520954272E-3</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="7">
         <f t="shared" si="2"/>
         <v>4.5343952985261081E-2</v>
       </c>
@@ -6975,7 +6981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>31</v>
@@ -6991,11 +6997,11 @@
         <f t="shared" si="0"/>
         <v>-5.8729999999999997E-2</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="6">
         <f t="shared" si="1"/>
         <v>2.2553881854465814E-3</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="7">
         <f t="shared" si="2"/>
         <v>4.101579098570194E-2</v>
       </c>
@@ -7023,7 +7029,7 @@
         <v>0.40957602214449584</v>
       </c>
     </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1">
         <v>32</v>
@@ -7039,11 +7045,11 @@
         <f t="shared" si="0"/>
         <v>-5.0439999999999999E-2</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="6">
         <f t="shared" si="1"/>
         <v>1.9402496710802886E-3</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="7">
         <f t="shared" si="2"/>
         <v>3.5457712238971102E-2</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>0.35355339059327379</v>
       </c>
     </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1">
         <v>33</v>
@@ -7087,11 +7093,11 @@
         <f t="shared" si="0"/>
         <v>-4.1009999999999998E-2</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="6">
         <f t="shared" si="1"/>
         <v>1.5817748592016222E-3</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="7">
         <f t="shared" si="2"/>
         <v>2.8847939341668283E-2</v>
       </c>
@@ -7119,7 +7125,7 @@
         <v>0.28678821817552297</v>
       </c>
     </row>
-    <row r="37" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1">
         <v>34</v>
@@ -7135,11 +7141,11 @@
         <f t="shared" si="0"/>
         <v>-2.971E-2</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="6">
         <f t="shared" si="1"/>
         <v>1.1522133136842388E-3</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="7">
         <f t="shared" si="2"/>
         <v>2.1410853371918517E-2</v>
       </c>
@@ -7167,7 +7173,7 @@
         <v>0.21130913087034975</v>
       </c>
     </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1">
         <v>35</v>
@@ -7183,11 +7189,11 @@
         <f t="shared" si="0"/>
         <v>-1.7139999999999999E-2</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="6">
         <f t="shared" si="1"/>
         <v>6.7437361216622887E-4</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="7">
         <f t="shared" si="2"/>
         <v>1.3453465353068563E-2</v>
       </c>
@@ -7212,7 +7218,7 @@
         <v>0.12940952255126051</v>
       </c>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1">
         <v>36</v>
@@ -7228,11 +7234,11 @@
         <f t="shared" si="0"/>
         <v>-4.79E-3</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="6">
         <f t="shared" si="1"/>
         <v>2.0489705578218567E-4</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="7">
         <f t="shared" si="2"/>
         <v>5.7774465945334931E-3</v>
       </c>
@@ -7257,27 +7263,27 @@
         <v>4.3577871373829097E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:46" x14ac:dyDescent="0.25">
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
     </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:46" x14ac:dyDescent="0.25">
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
     </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:46" x14ac:dyDescent="0.25">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:46" x14ac:dyDescent="0.25">
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
@@ -7286,7 +7292,7 @@
       <c r="J44"/>
       <c r="K44"/>
     </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C45" s="3" t="s">
         <v>6</v>
       </c>
@@ -7308,7 +7314,7 @@
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <v>5</v>
       </c>
@@ -7326,14 +7332,14 @@
       <c r="H46">
         <v>2.165E-4</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="5">
         <f>SQRT(POWER((ABS(0.05*G46+(G46/ABS(G46))*3*0.00001)),2)/(1.73))</f>
         <v>3.3908752088628871E-4</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
         <v>6</v>
       </c>
@@ -7348,14 +7354,14 @@
         <f t="shared" ref="G47:G56" si="6">D47/1000</f>
         <v>1.093E-2</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="5">
         <f t="shared" ref="I47:I56" si="7">SQRT(POWER((ABS(0.05*G47+(G47/ABS(G47))*3*0.00001)),2)/(1.73))</f>
         <v>4.383048336119852E-4</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:46" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <v>7</v>
       </c>
@@ -7370,14 +7376,14 @@
         <f t="shared" si="6"/>
         <v>1.273E-2</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="5">
         <f t="shared" si="7"/>
         <v>5.0673056652625868E-4</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
     </row>
-    <row r="49" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <v>8</v>
       </c>
@@ -7392,7 +7398,7 @@
         <f t="shared" si="6"/>
         <v>1.456E-2</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="5">
         <f t="shared" si="7"/>
         <v>5.7629672832243677E-4</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
         <v>9</v>
       </c>
@@ -7426,7 +7432,7 @@
         <f t="shared" si="6"/>
         <v>1.6289999999999999E-2</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="5">
         <f t="shared" si="7"/>
         <v>6.4206146051226632E-4</v>
       </c>
@@ -7445,7 +7451,7 @@
         <v>4.4600000000000011E-4</v>
       </c>
     </row>
-    <row r="51" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
         <v>10</v>
       </c>
@@ -7460,7 +7466,7 @@
         <f t="shared" si="6"/>
         <v>1.7950000000000001E-2</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="5">
         <f t="shared" si="7"/>
         <v>7.0516519197765188E-4</v>
       </c>
@@ -7477,7 +7483,7 @@
         <v>5.7649999999999997E-4</v>
       </c>
     </row>
-    <row r="52" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
         <v>11</v>
       </c>
@@ -7492,7 +7498,7 @@
         <f t="shared" si="6"/>
         <v>1.9649999999999997E-2</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="5">
         <f t="shared" si="7"/>
         <v>7.6978949528557676E-4</v>
       </c>
@@ -7509,7 +7515,7 @@
         <v>6.6649999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
         <v>12</v>
       </c>
@@ -7524,7 +7530,7 @@
         <f t="shared" si="6"/>
         <v>2.1309999999999999E-2</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="5">
         <f t="shared" si="7"/>
         <v>8.3289322675096254E-4</v>
       </c>
@@ -7541,7 +7547,7 @@
         <v>7.5799999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <v>13</v>
       </c>
@@ -7556,7 +7562,7 @@
         <f t="shared" si="6"/>
         <v>2.3050000000000001E-2</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="5">
         <f t="shared" si="7"/>
         <v>8.9903810190142687E-4</v>
       </c>
@@ -7573,7 +7579,7 @@
         <v>8.4449999999999998E-4</v>
       </c>
     </row>
-    <row r="55" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C55" s="3">
         <v>14</v>
       </c>
@@ -7588,7 +7594,7 @@
         <f t="shared" si="6"/>
         <v>2.4920000000000001E-2</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="5">
         <f t="shared" si="7"/>
         <v>9.7012483554014439E-4</v>
       </c>
@@ -7605,7 +7611,7 @@
         <v>9.2750000000000005E-4</v>
       </c>
     </row>
-    <row r="56" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C56" s="3">
         <v>15</v>
       </c>
@@ -7620,7 +7626,7 @@
         <f t="shared" si="6"/>
         <v>2.605E-2</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="5">
         <f t="shared" si="7"/>
         <v>1.0130809900918828E-3</v>
       </c>
@@ -7637,7 +7643,7 @@
         <v>1.0124999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:38" x14ac:dyDescent="0.25">
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
@@ -7652,7 +7658,7 @@
         <v>1.0955000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:38" x14ac:dyDescent="0.25">
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
@@ -7667,7 +7673,7 @@
         <v>1.1825000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:38" x14ac:dyDescent="0.25">
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
@@ -7682,7 +7688,7 @@
         <v>1.2760000000000002E-3</v>
       </c>
     </row>
-    <row r="60" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:38" x14ac:dyDescent="0.25">
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
@@ -7703,7 +7709,7 @@
         <v>1.3325000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:38" x14ac:dyDescent="0.25">
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
@@ -7718,7 +7724,7 @@
         <v>3.0272727272727395E-4</v>
       </c>
     </row>
-    <row r="62" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:38" x14ac:dyDescent="0.25">
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
@@ -7732,3742 +7738,3742 @@
         <v>3.3403426304630569E-4</v>
       </c>
     </row>
-    <row r="63" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:38" x14ac:dyDescent="0.25">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:38" x14ac:dyDescent="0.25">
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
     </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
     </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
     </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
     </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
     </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
     </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
     </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
     </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
     </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
     </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
     </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
     </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
     </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
     </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
     </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
     </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
     </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
     </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
     </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
     </row>
-    <row r="88" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
     </row>
-    <row r="89" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
     </row>
-    <row r="90" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
     </row>
-    <row r="91" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
     </row>
-    <row r="92" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
     </row>
-    <row r="93" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
     </row>
-    <row r="94" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
     </row>
-    <row r="95" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
     </row>
-    <row r="96" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
     </row>
-    <row r="97" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
     </row>
-    <row r="98" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
     </row>
-    <row r="99" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
     </row>
-    <row r="100" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
     </row>
-    <row r="101" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
     </row>
-    <row r="102" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
     </row>
-    <row r="103" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
     </row>
-    <row r="104" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
     </row>
-    <row r="105" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
     </row>
-    <row r="106" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
     </row>
-    <row r="107" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
     </row>
-    <row r="108" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
     </row>
-    <row r="109" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
     </row>
-    <row r="110" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
     </row>
-    <row r="111" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
     </row>
-    <row r="112" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
     </row>
-    <row r="113" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
     </row>
-    <row r="114" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
     </row>
-    <row r="115" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
     </row>
-    <row r="116" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
     </row>
-    <row r="117" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
     </row>
-    <row r="118" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
     </row>
-    <row r="119" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
     </row>
-    <row r="120" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
     </row>
-    <row r="121" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
     </row>
-    <row r="122" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
     </row>
-    <row r="123" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
     </row>
-    <row r="124" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124"/>
     </row>
-    <row r="125" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125"/>
     </row>
-    <row r="126" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126"/>
     </row>
-    <row r="127" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127"/>
     </row>
-    <row r="128" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128"/>
     </row>
-    <row r="129" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129"/>
     </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
     </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131"/>
     </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132"/>
     </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I133"/>
       <c r="J133"/>
       <c r="K133"/>
     </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134"/>
     </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135"/>
     </row>
-    <row r="136" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
     </row>
-    <row r="137" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I137"/>
       <c r="J137"/>
       <c r="K137"/>
     </row>
-    <row r="138" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I138"/>
       <c r="J138"/>
       <c r="K138"/>
     </row>
-    <row r="139" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I139"/>
       <c r="J139"/>
       <c r="K139"/>
     </row>
-    <row r="140" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I140"/>
       <c r="J140"/>
       <c r="K140"/>
     </row>
-    <row r="141" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I141"/>
       <c r="J141"/>
       <c r="K141"/>
     </row>
-    <row r="142" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I142"/>
       <c r="J142"/>
       <c r="K142"/>
     </row>
-    <row r="143" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I143"/>
       <c r="J143"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144"/>
     </row>
-    <row r="145" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I145"/>
       <c r="J145"/>
       <c r="K145"/>
     </row>
-    <row r="146" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I146"/>
       <c r="J146"/>
       <c r="K146"/>
     </row>
-    <row r="147" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147"/>
     </row>
-    <row r="148" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148"/>
     </row>
-    <row r="149" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I149"/>
       <c r="J149"/>
       <c r="K149"/>
     </row>
-    <row r="150" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I150"/>
       <c r="J150"/>
       <c r="K150"/>
     </row>
-    <row r="151" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I151"/>
       <c r="J151"/>
       <c r="K151"/>
     </row>
-    <row r="152" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I152"/>
       <c r="J152"/>
       <c r="K152"/>
     </row>
-    <row r="153" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153"/>
     </row>
-    <row r="154" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I154"/>
       <c r="J154"/>
       <c r="K154"/>
     </row>
-    <row r="155" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I155"/>
       <c r="J155"/>
       <c r="K155"/>
     </row>
-    <row r="156" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156"/>
     </row>
-    <row r="157" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I157"/>
       <c r="J157"/>
       <c r="K157"/>
     </row>
-    <row r="158" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I158"/>
       <c r="J158"/>
       <c r="K158"/>
     </row>
-    <row r="159" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I159"/>
       <c r="J159"/>
       <c r="K159"/>
     </row>
-    <row r="160" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I160"/>
       <c r="J160"/>
       <c r="K160"/>
     </row>
-    <row r="161" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I161"/>
       <c r="J161"/>
       <c r="K161"/>
     </row>
-    <row r="162" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I162"/>
       <c r="J162"/>
       <c r="K162"/>
     </row>
-    <row r="163" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I163"/>
       <c r="J163"/>
       <c r="K163"/>
     </row>
-    <row r="164" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I164"/>
       <c r="J164"/>
       <c r="K164"/>
     </row>
-    <row r="165" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I165"/>
       <c r="J165"/>
       <c r="K165"/>
     </row>
-    <row r="166" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I166"/>
       <c r="J166"/>
       <c r="K166"/>
     </row>
-    <row r="167" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I167"/>
       <c r="J167"/>
       <c r="K167"/>
     </row>
-    <row r="168" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I168"/>
       <c r="J168"/>
       <c r="K168"/>
     </row>
-    <row r="169" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I169"/>
       <c r="J169"/>
       <c r="K169"/>
     </row>
-    <row r="170" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I170"/>
       <c r="J170"/>
       <c r="K170"/>
     </row>
-    <row r="171" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I171"/>
       <c r="J171"/>
       <c r="K171"/>
     </row>
-    <row r="172" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I172"/>
       <c r="J172"/>
       <c r="K172"/>
     </row>
-    <row r="173" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I173"/>
       <c r="J173"/>
       <c r="K173"/>
     </row>
-    <row r="174" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I174"/>
       <c r="J174"/>
       <c r="K174"/>
     </row>
-    <row r="175" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I175"/>
       <c r="J175"/>
       <c r="K175"/>
     </row>
-    <row r="176" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I176"/>
       <c r="J176"/>
       <c r="K176"/>
     </row>
-    <row r="177" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I177"/>
       <c r="J177"/>
       <c r="K177"/>
     </row>
-    <row r="178" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I178"/>
       <c r="J178"/>
       <c r="K178"/>
     </row>
-    <row r="179" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I179"/>
       <c r="J179"/>
       <c r="K179"/>
     </row>
-    <row r="180" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I180"/>
       <c r="J180"/>
       <c r="K180"/>
     </row>
-    <row r="181" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I181"/>
       <c r="J181"/>
       <c r="K181"/>
     </row>
-    <row r="182" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I182"/>
       <c r="J182"/>
       <c r="K182"/>
     </row>
-    <row r="183" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I183"/>
       <c r="J183"/>
       <c r="K183"/>
     </row>
-    <row r="184" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I184"/>
       <c r="J184"/>
       <c r="K184"/>
     </row>
-    <row r="185" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I185"/>
       <c r="J185"/>
       <c r="K185"/>
     </row>
-    <row r="186" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I186"/>
       <c r="J186"/>
       <c r="K186"/>
     </row>
-    <row r="187" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I187"/>
       <c r="J187"/>
       <c r="K187"/>
     </row>
-    <row r="188" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I188"/>
       <c r="J188"/>
       <c r="K188"/>
     </row>
-    <row r="189" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I189"/>
       <c r="J189"/>
       <c r="K189"/>
     </row>
-    <row r="190" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I190"/>
       <c r="J190"/>
       <c r="K190"/>
     </row>
-    <row r="191" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I191"/>
       <c r="J191"/>
       <c r="K191"/>
     </row>
-    <row r="192" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I192"/>
       <c r="J192"/>
       <c r="K192"/>
     </row>
-    <row r="193" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I193"/>
       <c r="J193"/>
       <c r="K193"/>
     </row>
-    <row r="194" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I194"/>
       <c r="J194"/>
       <c r="K194"/>
     </row>
-    <row r="195" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I195"/>
       <c r="J195"/>
       <c r="K195"/>
     </row>
-    <row r="196" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I196"/>
       <c r="J196"/>
       <c r="K196"/>
     </row>
-    <row r="197" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197"/>
     </row>
-    <row r="198" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198"/>
     </row>
-    <row r="199" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199"/>
     </row>
-    <row r="200" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200"/>
     </row>
-    <row r="201" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201"/>
     </row>
-    <row r="202" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I202"/>
       <c r="J202"/>
       <c r="K202"/>
     </row>
-    <row r="203" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I203"/>
       <c r="J203"/>
       <c r="K203"/>
     </row>
-    <row r="204" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I204"/>
       <c r="J204"/>
       <c r="K204"/>
     </row>
-    <row r="205" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I205"/>
       <c r="J205"/>
       <c r="K205"/>
     </row>
-    <row r="206" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I206"/>
       <c r="J206"/>
       <c r="K206"/>
     </row>
-    <row r="207" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I207"/>
       <c r="J207"/>
       <c r="K207"/>
     </row>
-    <row r="208" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I208"/>
       <c r="J208"/>
       <c r="K208"/>
     </row>
-    <row r="209" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I209"/>
       <c r="J209"/>
       <c r="K209"/>
     </row>
-    <row r="210" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I210"/>
       <c r="J210"/>
       <c r="K210"/>
     </row>
-    <row r="211" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I211"/>
       <c r="J211"/>
       <c r="K211"/>
     </row>
-    <row r="212" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I212"/>
       <c r="J212"/>
       <c r="K212"/>
     </row>
-    <row r="213" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I213"/>
       <c r="J213"/>
       <c r="K213"/>
     </row>
-    <row r="214" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I214"/>
       <c r="J214"/>
       <c r="K214"/>
     </row>
-    <row r="215" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I215"/>
       <c r="J215"/>
       <c r="K215"/>
     </row>
-    <row r="216" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I216"/>
       <c r="J216"/>
       <c r="K216"/>
     </row>
-    <row r="217" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I217"/>
       <c r="J217"/>
       <c r="K217"/>
     </row>
-    <row r="218" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I218"/>
       <c r="J218"/>
       <c r="K218"/>
     </row>
-    <row r="219" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I219"/>
       <c r="J219"/>
       <c r="K219"/>
     </row>
-    <row r="220" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I220"/>
       <c r="J220"/>
       <c r="K220"/>
     </row>
-    <row r="221" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I221"/>
       <c r="J221"/>
       <c r="K221"/>
     </row>
-    <row r="222" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I222"/>
       <c r="J222"/>
       <c r="K222"/>
     </row>
-    <row r="223" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I223"/>
       <c r="J223"/>
       <c r="K223"/>
     </row>
-    <row r="224" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I224"/>
       <c r="J224"/>
       <c r="K224"/>
     </row>
-    <row r="225" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I225"/>
       <c r="J225"/>
       <c r="K225"/>
     </row>
-    <row r="226" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I226"/>
       <c r="J226"/>
       <c r="K226"/>
     </row>
-    <row r="227" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I227"/>
       <c r="J227"/>
       <c r="K227"/>
     </row>
-    <row r="228" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I228"/>
       <c r="J228"/>
       <c r="K228"/>
     </row>
-    <row r="229" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I229"/>
       <c r="J229"/>
       <c r="K229"/>
     </row>
-    <row r="230" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I230"/>
       <c r="J230"/>
       <c r="K230"/>
     </row>
-    <row r="231" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I231"/>
       <c r="J231"/>
       <c r="K231"/>
     </row>
-    <row r="232" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I232"/>
       <c r="J232"/>
       <c r="K232"/>
     </row>
-    <row r="233" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I233"/>
       <c r="J233"/>
       <c r="K233"/>
     </row>
-    <row r="234" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I234"/>
       <c r="J234"/>
       <c r="K234"/>
     </row>
-    <row r="235" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I235"/>
       <c r="J235"/>
       <c r="K235"/>
     </row>
-    <row r="236" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I236"/>
       <c r="J236"/>
       <c r="K236"/>
     </row>
-    <row r="237" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I237"/>
       <c r="J237"/>
       <c r="K237"/>
     </row>
-    <row r="238" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I238"/>
       <c r="J238"/>
       <c r="K238"/>
     </row>
-    <row r="239" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I239"/>
       <c r="J239"/>
       <c r="K239"/>
     </row>
-    <row r="240" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I240"/>
       <c r="J240"/>
       <c r="K240"/>
     </row>
-    <row r="241" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I241"/>
       <c r="J241"/>
       <c r="K241"/>
     </row>
-    <row r="242" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I242"/>
       <c r="J242"/>
       <c r="K242"/>
     </row>
-    <row r="243" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I243"/>
       <c r="J243"/>
       <c r="K243"/>
     </row>
-    <row r="244" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I244"/>
       <c r="J244"/>
       <c r="K244"/>
     </row>
-    <row r="245" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I245"/>
       <c r="J245"/>
       <c r="K245"/>
     </row>
-    <row r="246" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I246"/>
       <c r="J246"/>
       <c r="K246"/>
     </row>
-    <row r="247" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I247"/>
       <c r="J247"/>
       <c r="K247"/>
     </row>
-    <row r="248" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I248"/>
       <c r="J248"/>
       <c r="K248"/>
     </row>
-    <row r="249" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I249"/>
       <c r="J249"/>
       <c r="K249"/>
     </row>
-    <row r="250" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I250"/>
       <c r="J250"/>
       <c r="K250"/>
     </row>
-    <row r="251" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I251"/>
       <c r="J251"/>
       <c r="K251"/>
     </row>
-    <row r="252" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I252"/>
       <c r="J252"/>
       <c r="K252"/>
     </row>
-    <row r="253" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I253"/>
       <c r="J253"/>
       <c r="K253"/>
     </row>
-    <row r="254" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I254"/>
       <c r="J254"/>
       <c r="K254"/>
     </row>
-    <row r="255" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I255"/>
       <c r="J255"/>
       <c r="K255"/>
     </row>
-    <row r="256" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I256"/>
       <c r="J256"/>
       <c r="K256"/>
     </row>
-    <row r="257" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I257"/>
       <c r="J257"/>
       <c r="K257"/>
     </row>
-    <row r="258" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I258"/>
       <c r="J258"/>
       <c r="K258"/>
     </row>
-    <row r="259" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I259"/>
       <c r="J259"/>
       <c r="K259"/>
     </row>
-    <row r="260" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I260"/>
       <c r="J260"/>
       <c r="K260"/>
     </row>
-    <row r="261" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I261"/>
       <c r="J261"/>
       <c r="K261"/>
     </row>
-    <row r="262" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I262"/>
       <c r="J262"/>
       <c r="K262"/>
     </row>
-    <row r="263" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I263"/>
       <c r="J263"/>
       <c r="K263"/>
     </row>
-    <row r="264" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I264"/>
       <c r="J264"/>
       <c r="K264"/>
     </row>
-    <row r="265" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I265"/>
       <c r="J265"/>
       <c r="K265"/>
     </row>
-    <row r="266" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I266"/>
       <c r="J266"/>
       <c r="K266"/>
     </row>
-    <row r="267" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I267"/>
       <c r="J267"/>
       <c r="K267"/>
     </row>
-    <row r="268" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I268"/>
       <c r="J268"/>
       <c r="K268"/>
     </row>
-    <row r="269" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I269"/>
       <c r="J269"/>
       <c r="K269"/>
     </row>
-    <row r="270" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I270"/>
       <c r="J270"/>
       <c r="K270"/>
     </row>
-    <row r="271" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I271"/>
       <c r="J271"/>
       <c r="K271"/>
     </row>
-    <row r="272" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I272"/>
       <c r="J272"/>
       <c r="K272"/>
     </row>
-    <row r="273" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I273"/>
       <c r="J273"/>
       <c r="K273"/>
     </row>
-    <row r="274" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I274"/>
       <c r="J274"/>
       <c r="K274"/>
     </row>
-    <row r="275" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I275"/>
       <c r="J275"/>
       <c r="K275"/>
     </row>
-    <row r="276" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I276"/>
       <c r="J276"/>
       <c r="K276"/>
     </row>
-    <row r="277" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I277"/>
       <c r="J277"/>
       <c r="K277"/>
     </row>
-    <row r="278" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I278"/>
       <c r="J278"/>
       <c r="K278"/>
     </row>
-    <row r="279" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I279"/>
       <c r="J279"/>
       <c r="K279"/>
     </row>
-    <row r="280" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I280"/>
       <c r="J280"/>
       <c r="K280"/>
     </row>
-    <row r="281" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I281"/>
       <c r="J281"/>
       <c r="K281"/>
     </row>
-    <row r="282" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I282"/>
       <c r="J282"/>
       <c r="K282"/>
     </row>
-    <row r="283" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I283"/>
       <c r="J283"/>
       <c r="K283"/>
     </row>
-    <row r="284" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I284"/>
       <c r="J284"/>
       <c r="K284"/>
     </row>
-    <row r="285" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I285"/>
       <c r="J285"/>
       <c r="K285"/>
     </row>
-    <row r="286" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I286"/>
       <c r="J286"/>
       <c r="K286"/>
     </row>
-    <row r="287" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I287"/>
       <c r="J287"/>
       <c r="K287"/>
     </row>
-    <row r="288" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I288"/>
       <c r="J288"/>
       <c r="K288"/>
     </row>
-    <row r="289" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I289"/>
       <c r="J289"/>
       <c r="K289"/>
     </row>
-    <row r="290" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I290"/>
       <c r="J290"/>
       <c r="K290"/>
     </row>
-    <row r="291" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I291"/>
       <c r="J291"/>
       <c r="K291"/>
     </row>
-    <row r="292" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I292"/>
       <c r="J292"/>
       <c r="K292"/>
     </row>
-    <row r="293" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I293"/>
       <c r="J293"/>
       <c r="K293"/>
     </row>
-    <row r="294" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I294"/>
       <c r="J294"/>
       <c r="K294"/>
     </row>
-    <row r="295" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I295"/>
       <c r="J295"/>
       <c r="K295"/>
     </row>
-    <row r="296" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I296"/>
       <c r="J296"/>
       <c r="K296"/>
     </row>
-    <row r="297" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I297"/>
       <c r="J297"/>
       <c r="K297"/>
     </row>
-    <row r="298" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I298"/>
       <c r="J298"/>
       <c r="K298"/>
     </row>
-    <row r="299" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I299"/>
       <c r="J299"/>
       <c r="K299"/>
     </row>
-    <row r="300" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I300"/>
       <c r="J300"/>
       <c r="K300"/>
     </row>
-    <row r="301" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I301"/>
       <c r="J301"/>
       <c r="K301"/>
     </row>
-    <row r="302" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I302"/>
       <c r="J302"/>
       <c r="K302"/>
     </row>
-    <row r="303" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I303"/>
       <c r="J303"/>
       <c r="K303"/>
     </row>
-    <row r="304" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I304"/>
       <c r="J304"/>
       <c r="K304"/>
     </row>
-    <row r="305" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I305"/>
       <c r="J305"/>
       <c r="K305"/>
     </row>
-    <row r="306" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I306"/>
       <c r="J306"/>
       <c r="K306"/>
     </row>
-    <row r="307" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I307"/>
       <c r="J307"/>
       <c r="K307"/>
     </row>
-    <row r="308" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I308"/>
       <c r="J308"/>
       <c r="K308"/>
     </row>
-    <row r="309" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I309"/>
       <c r="J309"/>
       <c r="K309"/>
     </row>
-    <row r="310" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I310"/>
       <c r="J310"/>
       <c r="K310"/>
     </row>
-    <row r="311" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I311"/>
       <c r="J311"/>
       <c r="K311"/>
     </row>
-    <row r="312" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I312"/>
       <c r="J312"/>
       <c r="K312"/>
     </row>
-    <row r="313" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I313"/>
       <c r="J313"/>
       <c r="K313"/>
     </row>
-    <row r="314" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I314"/>
       <c r="J314"/>
       <c r="K314"/>
     </row>
-    <row r="315" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I315"/>
       <c r="J315"/>
       <c r="K315"/>
     </row>
-    <row r="316" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I316"/>
       <c r="J316"/>
       <c r="K316"/>
     </row>
-    <row r="317" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I317"/>
       <c r="J317"/>
       <c r="K317"/>
     </row>
-    <row r="318" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I318"/>
       <c r="J318"/>
       <c r="K318"/>
     </row>
-    <row r="319" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I319"/>
       <c r="J319"/>
       <c r="K319"/>
     </row>
-    <row r="320" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I320"/>
       <c r="J320"/>
       <c r="K320"/>
     </row>
-    <row r="321" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I321"/>
       <c r="J321"/>
       <c r="K321"/>
     </row>
-    <row r="322" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I322"/>
       <c r="J322"/>
       <c r="K322"/>
     </row>
-    <row r="323" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I323"/>
       <c r="J323"/>
       <c r="K323"/>
     </row>
-    <row r="324" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I324"/>
       <c r="J324"/>
       <c r="K324"/>
     </row>
-    <row r="325" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I325"/>
       <c r="J325"/>
       <c r="K325"/>
     </row>
-    <row r="326" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I326"/>
       <c r="J326"/>
       <c r="K326"/>
     </row>
-    <row r="327" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I327"/>
       <c r="J327"/>
       <c r="K327"/>
     </row>
-    <row r="328" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I328"/>
       <c r="J328"/>
       <c r="K328"/>
     </row>
-    <row r="329" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I329"/>
       <c r="J329"/>
       <c r="K329"/>
     </row>
-    <row r="330" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I330"/>
       <c r="J330"/>
       <c r="K330"/>
     </row>
-    <row r="331" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I331"/>
       <c r="J331"/>
       <c r="K331"/>
     </row>
-    <row r="332" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I332"/>
       <c r="J332"/>
       <c r="K332"/>
     </row>
-    <row r="333" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I333"/>
       <c r="J333"/>
       <c r="K333"/>
     </row>
-    <row r="334" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I334"/>
       <c r="J334"/>
       <c r="K334"/>
     </row>
-    <row r="335" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I335"/>
       <c r="J335"/>
       <c r="K335"/>
     </row>
-    <row r="336" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I336"/>
       <c r="J336"/>
       <c r="K336"/>
     </row>
-    <row r="337" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I337"/>
       <c r="J337"/>
       <c r="K337"/>
     </row>
-    <row r="338" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I338"/>
       <c r="J338"/>
       <c r="K338"/>
     </row>
-    <row r="339" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I339"/>
       <c r="J339"/>
       <c r="K339"/>
     </row>
-    <row r="340" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I340"/>
       <c r="J340"/>
       <c r="K340"/>
     </row>
-    <row r="341" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I341"/>
       <c r="J341"/>
       <c r="K341"/>
     </row>
-    <row r="342" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I342"/>
       <c r="J342"/>
       <c r="K342"/>
     </row>
-    <row r="343" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I343"/>
       <c r="J343"/>
       <c r="K343"/>
     </row>
-    <row r="344" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I344"/>
       <c r="J344"/>
       <c r="K344"/>
     </row>
-    <row r="345" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I345"/>
       <c r="J345"/>
       <c r="K345"/>
     </row>
-    <row r="346" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I346"/>
       <c r="J346"/>
       <c r="K346"/>
     </row>
-    <row r="347" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I347"/>
       <c r="J347"/>
       <c r="K347"/>
     </row>
-    <row r="348" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I348"/>
       <c r="J348"/>
       <c r="K348"/>
     </row>
-    <row r="349" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I349"/>
       <c r="J349"/>
       <c r="K349"/>
     </row>
-    <row r="350" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I350"/>
       <c r="J350"/>
       <c r="K350"/>
     </row>
-    <row r="351" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I351"/>
       <c r="J351"/>
       <c r="K351"/>
     </row>
-    <row r="352" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I352"/>
       <c r="J352"/>
       <c r="K352"/>
     </row>
-    <row r="353" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I353"/>
       <c r="J353"/>
       <c r="K353"/>
     </row>
-    <row r="354" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I354"/>
       <c r="J354"/>
       <c r="K354"/>
     </row>
-    <row r="355" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I355"/>
       <c r="J355"/>
       <c r="K355"/>
     </row>
-    <row r="356" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I356"/>
       <c r="J356"/>
       <c r="K356"/>
     </row>
-    <row r="357" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I357"/>
       <c r="J357"/>
       <c r="K357"/>
     </row>
-    <row r="358" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I358"/>
       <c r="J358"/>
       <c r="K358"/>
     </row>
-    <row r="359" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I359"/>
       <c r="J359"/>
       <c r="K359"/>
     </row>
-    <row r="360" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I360"/>
       <c r="J360"/>
       <c r="K360"/>
     </row>
-    <row r="361" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I361"/>
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I362"/>
       <c r="J362"/>
       <c r="K362"/>
     </row>
-    <row r="363" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I363"/>
       <c r="J363"/>
       <c r="K363"/>
     </row>
-    <row r="364" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I364"/>
       <c r="J364"/>
       <c r="K364"/>
     </row>
-    <row r="365" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I365"/>
       <c r="J365"/>
       <c r="K365"/>
     </row>
-    <row r="366" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I366"/>
       <c r="J366"/>
       <c r="K366"/>
     </row>
-    <row r="367" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I367"/>
       <c r="J367"/>
       <c r="K367"/>
     </row>
-    <row r="368" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I368"/>
       <c r="J368"/>
       <c r="K368"/>
     </row>
-    <row r="369" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I369"/>
       <c r="J369"/>
       <c r="K369"/>
     </row>
-    <row r="370" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I370"/>
       <c r="J370"/>
       <c r="K370"/>
     </row>
-    <row r="371" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I371"/>
       <c r="J371"/>
       <c r="K371"/>
     </row>
-    <row r="372" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I372"/>
       <c r="J372"/>
       <c r="K372"/>
     </row>
-    <row r="373" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I373"/>
       <c r="J373"/>
       <c r="K373"/>
     </row>
-    <row r="374" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I374"/>
       <c r="J374"/>
       <c r="K374"/>
     </row>
-    <row r="375" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I375"/>
       <c r="J375"/>
       <c r="K375"/>
     </row>
-    <row r="376" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I376"/>
       <c r="J376"/>
       <c r="K376"/>
     </row>
-    <row r="377" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I377"/>
       <c r="J377"/>
       <c r="K377"/>
     </row>
-    <row r="378" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I378"/>
       <c r="J378"/>
       <c r="K378"/>
     </row>
-    <row r="379" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I379"/>
       <c r="J379"/>
       <c r="K379"/>
     </row>
-    <row r="380" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I380"/>
       <c r="J380"/>
       <c r="K380"/>
     </row>
-    <row r="381" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I381"/>
       <c r="J381"/>
       <c r="K381"/>
     </row>
-    <row r="382" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I382"/>
       <c r="J382"/>
       <c r="K382"/>
     </row>
-    <row r="383" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I383"/>
       <c r="J383"/>
       <c r="K383"/>
     </row>
-    <row r="384" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I384"/>
       <c r="J384"/>
       <c r="K384"/>
     </row>
-    <row r="385" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I385"/>
       <c r="J385"/>
       <c r="K385"/>
     </row>
-    <row r="386" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I386"/>
       <c r="J386"/>
       <c r="K386"/>
     </row>
-    <row r="387" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I387"/>
       <c r="J387"/>
       <c r="K387"/>
     </row>
-    <row r="388" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I388"/>
       <c r="J388"/>
       <c r="K388"/>
     </row>
-    <row r="389" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I389"/>
       <c r="J389"/>
       <c r="K389"/>
     </row>
-    <row r="390" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I390"/>
       <c r="J390"/>
       <c r="K390"/>
     </row>
-    <row r="391" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I391"/>
       <c r="J391"/>
       <c r="K391"/>
     </row>
-    <row r="392" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I392"/>
       <c r="J392"/>
       <c r="K392"/>
     </row>
-    <row r="393" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I393"/>
       <c r="J393"/>
       <c r="K393"/>
     </row>
-    <row r="394" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I394"/>
       <c r="J394"/>
       <c r="K394"/>
     </row>
-    <row r="395" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I395"/>
       <c r="J395"/>
       <c r="K395"/>
     </row>
-    <row r="396" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I396"/>
       <c r="J396"/>
       <c r="K396"/>
     </row>
-    <row r="397" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I397"/>
       <c r="J397"/>
       <c r="K397"/>
     </row>
-    <row r="398" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I398"/>
       <c r="J398"/>
       <c r="K398"/>
     </row>
-    <row r="399" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I399"/>
       <c r="J399"/>
       <c r="K399"/>
     </row>
-    <row r="400" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I400"/>
       <c r="J400"/>
       <c r="K400"/>
     </row>
-    <row r="401" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I401"/>
       <c r="J401"/>
       <c r="K401"/>
     </row>
-    <row r="402" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I402"/>
       <c r="J402"/>
       <c r="K402"/>
     </row>
-    <row r="403" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I403"/>
       <c r="J403"/>
       <c r="K403"/>
     </row>
-    <row r="404" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I404"/>
       <c r="J404"/>
       <c r="K404"/>
     </row>
-    <row r="405" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I405"/>
       <c r="J405"/>
       <c r="K405"/>
     </row>
-    <row r="406" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I406"/>
       <c r="J406"/>
       <c r="K406"/>
     </row>
-    <row r="407" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I407"/>
       <c r="J407"/>
       <c r="K407"/>
     </row>
-    <row r="408" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I408"/>
       <c r="J408"/>
       <c r="K408"/>
     </row>
-    <row r="409" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I409"/>
       <c r="J409"/>
       <c r="K409"/>
     </row>
-    <row r="410" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I410"/>
       <c r="J410"/>
       <c r="K410"/>
     </row>
-    <row r="411" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I411"/>
       <c r="J411"/>
       <c r="K411"/>
     </row>
-    <row r="412" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I412"/>
       <c r="J412"/>
       <c r="K412"/>
     </row>
-    <row r="413" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I413"/>
       <c r="J413"/>
       <c r="K413"/>
     </row>
-    <row r="414" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I414"/>
       <c r="J414"/>
       <c r="K414"/>
     </row>
-    <row r="415" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I415"/>
       <c r="J415"/>
       <c r="K415"/>
     </row>
-    <row r="416" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I416"/>
       <c r="J416"/>
       <c r="K416"/>
     </row>
-    <row r="417" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I417"/>
       <c r="J417"/>
       <c r="K417"/>
     </row>
-    <row r="418" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I418"/>
       <c r="J418"/>
       <c r="K418"/>
     </row>
-    <row r="419" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I419"/>
       <c r="J419"/>
       <c r="K419"/>
     </row>
-    <row r="420" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I420"/>
       <c r="J420"/>
       <c r="K420"/>
     </row>
-    <row r="421" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I421"/>
       <c r="J421"/>
       <c r="K421"/>
     </row>
-    <row r="422" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I422"/>
       <c r="J422"/>
       <c r="K422"/>
     </row>
-    <row r="423" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I423"/>
       <c r="J423"/>
       <c r="K423"/>
     </row>
-    <row r="424" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I424"/>
       <c r="J424"/>
       <c r="K424"/>
     </row>
-    <row r="425" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I425"/>
       <c r="J425"/>
       <c r="K425"/>
     </row>
-    <row r="426" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I426"/>
       <c r="J426"/>
       <c r="K426"/>
     </row>
-    <row r="427" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I427"/>
       <c r="J427"/>
       <c r="K427"/>
     </row>
-    <row r="428" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I428"/>
       <c r="J428"/>
       <c r="K428"/>
     </row>
-    <row r="429" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I429"/>
       <c r="J429"/>
       <c r="K429"/>
     </row>
-    <row r="430" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I430"/>
       <c r="J430"/>
       <c r="K430"/>
     </row>
-    <row r="431" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I431"/>
       <c r="J431"/>
       <c r="K431"/>
     </row>
-    <row r="432" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I432"/>
       <c r="J432"/>
       <c r="K432"/>
     </row>
-    <row r="433" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I433"/>
       <c r="J433"/>
       <c r="K433"/>
     </row>
-    <row r="434" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I434"/>
       <c r="J434"/>
       <c r="K434"/>
     </row>
-    <row r="435" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I435"/>
       <c r="J435"/>
       <c r="K435"/>
     </row>
-    <row r="436" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I436"/>
       <c r="J436"/>
       <c r="K436"/>
     </row>
-    <row r="437" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I437"/>
       <c r="J437"/>
       <c r="K437"/>
     </row>
-    <row r="438" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I438"/>
       <c r="J438"/>
       <c r="K438"/>
     </row>
-    <row r="439" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I439"/>
       <c r="J439"/>
       <c r="K439"/>
     </row>
-    <row r="440" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I440"/>
       <c r="J440"/>
       <c r="K440"/>
     </row>
-    <row r="441" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I441"/>
       <c r="J441"/>
       <c r="K441"/>
     </row>
-    <row r="442" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I442"/>
       <c r="J442"/>
       <c r="K442"/>
     </row>
-    <row r="443" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I443"/>
       <c r="J443"/>
       <c r="K443"/>
     </row>
-    <row r="444" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I444"/>
       <c r="J444"/>
       <c r="K444"/>
     </row>
-    <row r="445" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I445"/>
       <c r="J445"/>
       <c r="K445"/>
     </row>
-    <row r="446" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I446"/>
       <c r="J446"/>
       <c r="K446"/>
     </row>
-    <row r="447" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I447"/>
       <c r="J447"/>
       <c r="K447"/>
     </row>
-    <row r="448" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I448"/>
       <c r="J448"/>
       <c r="K448"/>
     </row>
-    <row r="449" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I449"/>
       <c r="J449"/>
       <c r="K449"/>
     </row>
-    <row r="450" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I450"/>
       <c r="J450"/>
       <c r="K450"/>
     </row>
-    <row r="451" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I451"/>
       <c r="J451"/>
       <c r="K451"/>
     </row>
-    <row r="452" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I452"/>
       <c r="J452"/>
       <c r="K452"/>
     </row>
-    <row r="453" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I453"/>
       <c r="J453"/>
       <c r="K453"/>
     </row>
-    <row r="454" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I454"/>
       <c r="J454"/>
       <c r="K454"/>
     </row>
-    <row r="455" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I455"/>
       <c r="J455"/>
       <c r="K455"/>
     </row>
-    <row r="456" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I456"/>
       <c r="J456"/>
       <c r="K456"/>
     </row>
-    <row r="457" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I457"/>
       <c r="J457"/>
       <c r="K457"/>
     </row>
-    <row r="458" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I458"/>
       <c r="J458"/>
       <c r="K458"/>
     </row>
-    <row r="459" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I459"/>
       <c r="J459"/>
       <c r="K459"/>
     </row>
-    <row r="460" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I460"/>
       <c r="J460"/>
       <c r="K460"/>
     </row>
-    <row r="461" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I461"/>
       <c r="J461"/>
       <c r="K461"/>
     </row>
-    <row r="462" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I462"/>
       <c r="J462"/>
       <c r="K462"/>
     </row>
-    <row r="463" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I463"/>
       <c r="J463"/>
       <c r="K463"/>
     </row>
-    <row r="464" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I464"/>
       <c r="J464"/>
       <c r="K464"/>
     </row>
-    <row r="465" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I465"/>
       <c r="J465"/>
       <c r="K465"/>
     </row>
-    <row r="466" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I466"/>
       <c r="J466"/>
       <c r="K466"/>
     </row>
-    <row r="467" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I467"/>
       <c r="J467"/>
       <c r="K467"/>
     </row>
-    <row r="468" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I468"/>
       <c r="J468"/>
       <c r="K468"/>
     </row>
-    <row r="469" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I469"/>
       <c r="J469"/>
       <c r="K469"/>
     </row>
-    <row r="470" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I470"/>
       <c r="J470"/>
       <c r="K470"/>
     </row>
-    <row r="471" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I471"/>
       <c r="J471"/>
       <c r="K471"/>
     </row>
-    <row r="472" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I472"/>
       <c r="J472"/>
       <c r="K472"/>
     </row>
-    <row r="473" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I473"/>
       <c r="J473"/>
       <c r="K473"/>
     </row>
-    <row r="474" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I474"/>
       <c r="J474"/>
       <c r="K474"/>
     </row>
-    <row r="475" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I475"/>
       <c r="J475"/>
       <c r="K475"/>
     </row>
-    <row r="476" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I476"/>
       <c r="J476"/>
       <c r="K476"/>
     </row>
-    <row r="477" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I477"/>
       <c r="J477"/>
       <c r="K477"/>
     </row>
-    <row r="478" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I478"/>
       <c r="J478"/>
       <c r="K478"/>
     </row>
-    <row r="479" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I479"/>
       <c r="J479"/>
       <c r="K479"/>
     </row>
-    <row r="480" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I480"/>
       <c r="J480"/>
       <c r="K480"/>
     </row>
-    <row r="481" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I481"/>
       <c r="J481"/>
       <c r="K481"/>
     </row>
-    <row r="482" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I482"/>
       <c r="J482"/>
       <c r="K482"/>
     </row>
-    <row r="483" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I483"/>
       <c r="J483"/>
       <c r="K483"/>
     </row>
-    <row r="484" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I484"/>
       <c r="J484"/>
       <c r="K484"/>
     </row>
-    <row r="485" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I485"/>
       <c r="J485"/>
       <c r="K485"/>
     </row>
-    <row r="486" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I486"/>
       <c r="J486"/>
       <c r="K486"/>
     </row>
-    <row r="487" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I487"/>
       <c r="J487"/>
       <c r="K487"/>
     </row>
-    <row r="488" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I488"/>
       <c r="J488"/>
       <c r="K488"/>
     </row>
-    <row r="489" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I489"/>
       <c r="J489"/>
       <c r="K489"/>
     </row>
-    <row r="490" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I490"/>
       <c r="J490"/>
       <c r="K490"/>
     </row>
-    <row r="491" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I491"/>
       <c r="J491"/>
       <c r="K491"/>
     </row>
-    <row r="492" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I492"/>
       <c r="J492"/>
       <c r="K492"/>
     </row>
-    <row r="493" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I493"/>
       <c r="J493"/>
       <c r="K493"/>
     </row>
-    <row r="494" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I494"/>
       <c r="J494"/>
       <c r="K494"/>
     </row>
-    <row r="495" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I495"/>
       <c r="J495"/>
       <c r="K495"/>
     </row>
-    <row r="496" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I496"/>
       <c r="J496"/>
       <c r="K496"/>
     </row>
-    <row r="497" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I497"/>
       <c r="J497"/>
       <c r="K497"/>
     </row>
-    <row r="498" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I498"/>
       <c r="J498"/>
       <c r="K498"/>
     </row>
-    <row r="499" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I499"/>
       <c r="J499"/>
       <c r="K499"/>
     </row>
-    <row r="500" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I500"/>
       <c r="J500"/>
       <c r="K500"/>
     </row>
-    <row r="501" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I501"/>
       <c r="J501"/>
       <c r="K501"/>
     </row>
-    <row r="502" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I502"/>
       <c r="J502"/>
       <c r="K502"/>
     </row>
-    <row r="503" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I503"/>
       <c r="J503"/>
       <c r="K503"/>
     </row>
-    <row r="504" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I504"/>
       <c r="J504"/>
       <c r="K504"/>
     </row>
-    <row r="505" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I505"/>
       <c r="J505"/>
       <c r="K505"/>
     </row>
-    <row r="506" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I506"/>
       <c r="J506"/>
       <c r="K506"/>
     </row>
-    <row r="507" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I507"/>
       <c r="J507"/>
       <c r="K507"/>
     </row>
-    <row r="508" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I508"/>
       <c r="J508"/>
       <c r="K508"/>
     </row>
-    <row r="509" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I509"/>
       <c r="J509"/>
       <c r="K509"/>
     </row>
-    <row r="510" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I510"/>
       <c r="J510"/>
       <c r="K510"/>
     </row>
-    <row r="511" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I511"/>
       <c r="J511"/>
       <c r="K511"/>
     </row>
-    <row r="512" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I512"/>
       <c r="J512"/>
       <c r="K512"/>
     </row>
-    <row r="513" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I513"/>
       <c r="J513"/>
       <c r="K513"/>
     </row>
-    <row r="514" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I514"/>
       <c r="J514"/>
       <c r="K514"/>
     </row>
-    <row r="515" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I515"/>
       <c r="J515"/>
       <c r="K515"/>
     </row>
-    <row r="516" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I516"/>
       <c r="J516"/>
       <c r="K516"/>
     </row>
-    <row r="517" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I517"/>
       <c r="J517"/>
       <c r="K517"/>
     </row>
-    <row r="518" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I518"/>
       <c r="J518"/>
       <c r="K518"/>
     </row>
-    <row r="519" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I519"/>
       <c r="J519"/>
       <c r="K519"/>
     </row>
-    <row r="520" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I520"/>
       <c r="J520"/>
       <c r="K520"/>
     </row>
-    <row r="521" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I521"/>
       <c r="J521"/>
       <c r="K521"/>
     </row>
-    <row r="522" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I522"/>
       <c r="J522"/>
       <c r="K522"/>
     </row>
-    <row r="523" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I523"/>
       <c r="J523"/>
       <c r="K523"/>
     </row>
-    <row r="524" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I524"/>
       <c r="J524"/>
       <c r="K524"/>
     </row>
-    <row r="525" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I525"/>
       <c r="J525"/>
       <c r="K525"/>
     </row>
-    <row r="526" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I526"/>
       <c r="J526"/>
       <c r="K526"/>
     </row>
-    <row r="527" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I527"/>
       <c r="J527"/>
       <c r="K527"/>
     </row>
-    <row r="528" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I528"/>
       <c r="J528"/>
       <c r="K528"/>
     </row>
-    <row r="529" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I529"/>
       <c r="J529"/>
       <c r="K529"/>
     </row>
-    <row r="530" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I530"/>
       <c r="J530"/>
       <c r="K530"/>
     </row>
-    <row r="531" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I531"/>
       <c r="J531"/>
       <c r="K531"/>
     </row>
-    <row r="532" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I532"/>
       <c r="J532"/>
       <c r="K532"/>
     </row>
-    <row r="533" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I533"/>
       <c r="J533"/>
       <c r="K533"/>
     </row>
-    <row r="534" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I534"/>
       <c r="J534"/>
       <c r="K534"/>
     </row>
-    <row r="535" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I535"/>
       <c r="J535"/>
       <c r="K535"/>
     </row>
-    <row r="536" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I536"/>
       <c r="J536"/>
       <c r="K536"/>
     </row>
-    <row r="537" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I537"/>
       <c r="J537"/>
       <c r="K537"/>
     </row>
-    <row r="538" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I538"/>
       <c r="J538"/>
       <c r="K538"/>
     </row>
-    <row r="539" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I539"/>
       <c r="J539"/>
       <c r="K539"/>
     </row>
-    <row r="540" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I540"/>
       <c r="J540"/>
       <c r="K540"/>
     </row>
-    <row r="541" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I541"/>
       <c r="J541"/>
       <c r="K541"/>
     </row>
-    <row r="542" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I542"/>
       <c r="J542"/>
       <c r="K542"/>
     </row>
-    <row r="543" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I543"/>
       <c r="J543"/>
       <c r="K543"/>
     </row>
-    <row r="544" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I544"/>
       <c r="J544"/>
       <c r="K544"/>
     </row>
-    <row r="545" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I545"/>
       <c r="J545"/>
       <c r="K545"/>
     </row>
-    <row r="546" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I546"/>
       <c r="J546"/>
       <c r="K546"/>
     </row>
-    <row r="547" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I547"/>
       <c r="J547"/>
       <c r="K547"/>
     </row>
-    <row r="548" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I548"/>
       <c r="J548"/>
       <c r="K548"/>
     </row>
-    <row r="549" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I549"/>
       <c r="J549"/>
       <c r="K549"/>
     </row>
-    <row r="550" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I550"/>
       <c r="J550"/>
       <c r="K550"/>
     </row>
-    <row r="551" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I551"/>
       <c r="J551"/>
       <c r="K551"/>
     </row>
-    <row r="552" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I552"/>
       <c r="J552"/>
       <c r="K552"/>
     </row>
-    <row r="553" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I553"/>
       <c r="J553"/>
       <c r="K553"/>
     </row>
-    <row r="554" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I554"/>
       <c r="J554"/>
       <c r="K554"/>
     </row>
-    <row r="555" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I555"/>
       <c r="J555"/>
       <c r="K555"/>
     </row>
-    <row r="556" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I556"/>
       <c r="J556"/>
       <c r="K556"/>
     </row>
-    <row r="557" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I557"/>
       <c r="J557"/>
       <c r="K557"/>
     </row>
-    <row r="558" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I558"/>
       <c r="J558"/>
       <c r="K558"/>
     </row>
-    <row r="559" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I559"/>
       <c r="J559"/>
       <c r="K559"/>
     </row>
-    <row r="560" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I560"/>
       <c r="J560"/>
       <c r="K560"/>
     </row>
-    <row r="561" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I561"/>
       <c r="J561"/>
       <c r="K561"/>
     </row>
-    <row r="562" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I562"/>
       <c r="J562"/>
       <c r="K562"/>
     </row>
-    <row r="563" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I563"/>
       <c r="J563"/>
       <c r="K563"/>
     </row>
-    <row r="564" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I564"/>
       <c r="J564"/>
       <c r="K564"/>
     </row>
-    <row r="565" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I565"/>
       <c r="J565"/>
       <c r="K565"/>
     </row>
-    <row r="566" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I566"/>
       <c r="J566"/>
       <c r="K566"/>
     </row>
-    <row r="567" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I567"/>
       <c r="J567"/>
       <c r="K567"/>
     </row>
-    <row r="568" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I568"/>
       <c r="J568"/>
       <c r="K568"/>
     </row>
-    <row r="569" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I569"/>
       <c r="J569"/>
       <c r="K569"/>
     </row>
-    <row r="570" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I570"/>
       <c r="J570"/>
       <c r="K570"/>
     </row>
-    <row r="571" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I571"/>
       <c r="J571"/>
       <c r="K571"/>
     </row>
-    <row r="572" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I572"/>
       <c r="J572"/>
       <c r="K572"/>
     </row>
-    <row r="573" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I573"/>
       <c r="J573"/>
       <c r="K573"/>
     </row>
-    <row r="574" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I574"/>
       <c r="J574"/>
       <c r="K574"/>
     </row>
-    <row r="575" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I575"/>
       <c r="J575"/>
       <c r="K575"/>
     </row>
-    <row r="576" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I576"/>
       <c r="J576"/>
       <c r="K576"/>
     </row>
-    <row r="577" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I577"/>
       <c r="J577"/>
       <c r="K577"/>
     </row>
-    <row r="578" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I578"/>
       <c r="J578"/>
       <c r="K578"/>
     </row>
-    <row r="579" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I579"/>
       <c r="J579"/>
       <c r="K579"/>
     </row>
-    <row r="580" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I580"/>
       <c r="J580"/>
       <c r="K580"/>
     </row>
-    <row r="581" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I581"/>
       <c r="J581"/>
       <c r="K581"/>
     </row>
-    <row r="582" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I582"/>
       <c r="J582"/>
       <c r="K582"/>
     </row>
-    <row r="583" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I583"/>
       <c r="J583"/>
       <c r="K583"/>
     </row>
-    <row r="584" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I584"/>
       <c r="J584"/>
       <c r="K584"/>
     </row>
-    <row r="585" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I585"/>
       <c r="J585"/>
       <c r="K585"/>
     </row>
-    <row r="586" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I586"/>
       <c r="J586"/>
       <c r="K586"/>
     </row>
-    <row r="587" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I587"/>
       <c r="J587"/>
       <c r="K587"/>
     </row>
-    <row r="588" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I588"/>
       <c r="J588"/>
       <c r="K588"/>
     </row>
-    <row r="589" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I589"/>
       <c r="J589"/>
       <c r="K589"/>
     </row>
-    <row r="590" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I590"/>
       <c r="J590"/>
       <c r="K590"/>
     </row>
-    <row r="591" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I591"/>
       <c r="J591"/>
       <c r="K591"/>
     </row>
-    <row r="592" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I592"/>
       <c r="J592"/>
       <c r="K592"/>
     </row>
-    <row r="593" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I593"/>
       <c r="J593"/>
       <c r="K593"/>
     </row>
-    <row r="594" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I594"/>
       <c r="J594"/>
       <c r="K594"/>
     </row>
-    <row r="595" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I595"/>
       <c r="J595"/>
       <c r="K595"/>
     </row>
-    <row r="596" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I596"/>
       <c r="J596"/>
       <c r="K596"/>
     </row>
-    <row r="597" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I597"/>
       <c r="J597"/>
       <c r="K597"/>
     </row>
-    <row r="598" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I598"/>
       <c r="J598"/>
       <c r="K598"/>
     </row>
-    <row r="599" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I599"/>
       <c r="J599"/>
       <c r="K599"/>
     </row>
-    <row r="600" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I600"/>
       <c r="J600"/>
       <c r="K600"/>
     </row>
-    <row r="601" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I601"/>
       <c r="J601"/>
       <c r="K601"/>
     </row>
-    <row r="602" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I602"/>
       <c r="J602"/>
       <c r="K602"/>
     </row>
-    <row r="603" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I603"/>
       <c r="J603"/>
       <c r="K603"/>
     </row>
-    <row r="604" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I604"/>
       <c r="J604"/>
       <c r="K604"/>
     </row>
-    <row r="605" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I605"/>
       <c r="J605"/>
       <c r="K605"/>
     </row>
-    <row r="606" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I606"/>
       <c r="J606"/>
       <c r="K606"/>
     </row>
-    <row r="607" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I607"/>
       <c r="J607"/>
       <c r="K607"/>
     </row>
-    <row r="608" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I608"/>
       <c r="J608"/>
       <c r="K608"/>
     </row>
-    <row r="609" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I609"/>
       <c r="J609"/>
       <c r="K609"/>
     </row>
-    <row r="610" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I610"/>
       <c r="J610"/>
       <c r="K610"/>
     </row>
-    <row r="611" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I611"/>
       <c r="J611"/>
       <c r="K611"/>
     </row>
-    <row r="612" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I612"/>
       <c r="J612"/>
       <c r="K612"/>
     </row>
-    <row r="613" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I613"/>
       <c r="J613"/>
       <c r="K613"/>
     </row>
-    <row r="614" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I614"/>
       <c r="J614"/>
       <c r="K614"/>
     </row>
-    <row r="615" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I615"/>
       <c r="J615"/>
       <c r="K615"/>
     </row>
-    <row r="616" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I616"/>
       <c r="J616"/>
       <c r="K616"/>
     </row>
-    <row r="617" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I617"/>
       <c r="J617"/>
       <c r="K617"/>
     </row>
-    <row r="618" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I618"/>
       <c r="J618"/>
       <c r="K618"/>
     </row>
-    <row r="619" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I619"/>
       <c r="J619"/>
       <c r="K619"/>
     </row>
-    <row r="620" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I620"/>
       <c r="J620"/>
       <c r="K620"/>
     </row>
-    <row r="621" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I621"/>
       <c r="J621"/>
       <c r="K621"/>
     </row>
-    <row r="622" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I622"/>
       <c r="J622"/>
       <c r="K622"/>
     </row>
-    <row r="623" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I623"/>
       <c r="J623"/>
       <c r="K623"/>
     </row>
-    <row r="624" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I624"/>
       <c r="J624"/>
       <c r="K624"/>
     </row>
-    <row r="625" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I625"/>
       <c r="J625"/>
       <c r="K625"/>
     </row>
-    <row r="626" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I626"/>
       <c r="J626"/>
       <c r="K626"/>
     </row>
-    <row r="627" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I627"/>
       <c r="J627"/>
       <c r="K627"/>
     </row>
-    <row r="628" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I628"/>
       <c r="J628"/>
       <c r="K628"/>
     </row>
-    <row r="629" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I629"/>
       <c r="J629"/>
       <c r="K629"/>
     </row>
-    <row r="630" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I630"/>
       <c r="J630"/>
       <c r="K630"/>
     </row>
-    <row r="631" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I631"/>
       <c r="J631"/>
       <c r="K631"/>
     </row>
-    <row r="632" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I632"/>
       <c r="J632"/>
       <c r="K632"/>
     </row>
-    <row r="633" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I633"/>
       <c r="J633"/>
       <c r="K633"/>
     </row>
-    <row r="634" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I634"/>
       <c r="J634"/>
       <c r="K634"/>
     </row>
-    <row r="635" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I635"/>
       <c r="J635"/>
       <c r="K635"/>
     </row>
-    <row r="636" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I636"/>
       <c r="J636"/>
       <c r="K636"/>
     </row>
-    <row r="637" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I637"/>
       <c r="J637"/>
       <c r="K637"/>
     </row>
-    <row r="638" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I638"/>
       <c r="J638"/>
       <c r="K638"/>
     </row>
-    <row r="639" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I639"/>
       <c r="J639"/>
       <c r="K639"/>
     </row>
-    <row r="640" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I640"/>
       <c r="J640"/>
       <c r="K640"/>
     </row>
-    <row r="641" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I641"/>
       <c r="J641"/>
       <c r="K641"/>
     </row>
-    <row r="642" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I642"/>
       <c r="J642"/>
       <c r="K642"/>
     </row>
-    <row r="643" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I643"/>
       <c r="J643"/>
       <c r="K643"/>
     </row>
-    <row r="644" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I644"/>
       <c r="J644"/>
       <c r="K644"/>
     </row>
-    <row r="645" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I645"/>
       <c r="J645"/>
       <c r="K645"/>
     </row>
-    <row r="646" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I646"/>
       <c r="J646"/>
       <c r="K646"/>
     </row>
-    <row r="647" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I647"/>
       <c r="J647"/>
       <c r="K647"/>
     </row>
-    <row r="648" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I648"/>
       <c r="J648"/>
       <c r="K648"/>
     </row>
-    <row r="649" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I649"/>
       <c r="J649"/>
       <c r="K649"/>
     </row>
-    <row r="650" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I650"/>
       <c r="J650"/>
       <c r="K650"/>
     </row>
-    <row r="651" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I651"/>
       <c r="J651"/>
       <c r="K651"/>
     </row>
-    <row r="652" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I652"/>
       <c r="J652"/>
       <c r="K652"/>
     </row>
-    <row r="653" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I653"/>
       <c r="J653"/>
       <c r="K653"/>
     </row>
-    <row r="654" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I654"/>
       <c r="J654"/>
       <c r="K654"/>
     </row>
-    <row r="655" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I655"/>
       <c r="J655"/>
       <c r="K655"/>
     </row>
-    <row r="656" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I656"/>
       <c r="J656"/>
       <c r="K656"/>
     </row>
-    <row r="657" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I657"/>
       <c r="J657"/>
       <c r="K657"/>
     </row>
-    <row r="658" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I658"/>
       <c r="J658"/>
       <c r="K658"/>
     </row>
-    <row r="659" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I659"/>
       <c r="J659"/>
       <c r="K659"/>
     </row>
-    <row r="660" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I660"/>
       <c r="J660"/>
       <c r="K660"/>
     </row>
-    <row r="661" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I661"/>
       <c r="J661"/>
       <c r="K661"/>
     </row>
-    <row r="662" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I662"/>
       <c r="J662"/>
       <c r="K662"/>
     </row>
-    <row r="663" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I663"/>
       <c r="J663"/>
       <c r="K663"/>
     </row>
-    <row r="664" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I664"/>
       <c r="J664"/>
       <c r="K664"/>
     </row>
-    <row r="665" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I665"/>
       <c r="J665"/>
       <c r="K665"/>
     </row>
-    <row r="666" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I666"/>
       <c r="J666"/>
       <c r="K666"/>
     </row>
-    <row r="667" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I667"/>
       <c r="J667"/>
       <c r="K667"/>
     </row>
-    <row r="668" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I668"/>
       <c r="J668"/>
       <c r="K668"/>
     </row>
-    <row r="669" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I669"/>
       <c r="J669"/>
       <c r="K669"/>
     </row>
-    <row r="670" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I670"/>
       <c r="J670"/>
       <c r="K670"/>
     </row>
-    <row r="671" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I671"/>
       <c r="J671"/>
       <c r="K671"/>
     </row>
-    <row r="672" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I672"/>
       <c r="J672"/>
       <c r="K672"/>
     </row>
-    <row r="673" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I673"/>
       <c r="J673"/>
       <c r="K673"/>
     </row>
-    <row r="674" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I674"/>
       <c r="J674"/>
       <c r="K674"/>
     </row>
-    <row r="675" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I675"/>
       <c r="J675"/>
       <c r="K675"/>
     </row>
-    <row r="676" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I676"/>
       <c r="J676"/>
       <c r="K676"/>
     </row>
-    <row r="677" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I677"/>
       <c r="J677"/>
       <c r="K677"/>
     </row>
-    <row r="678" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I678"/>
       <c r="J678"/>
       <c r="K678"/>
     </row>
-    <row r="679" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I679"/>
       <c r="J679"/>
       <c r="K679"/>
     </row>
-    <row r="680" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I680"/>
       <c r="J680"/>
       <c r="K680"/>
     </row>
-    <row r="681" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I681"/>
       <c r="J681"/>
       <c r="K681"/>
     </row>
-    <row r="682" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I682"/>
       <c r="J682"/>
       <c r="K682"/>
     </row>
-    <row r="683" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I683"/>
       <c r="J683"/>
       <c r="K683"/>
     </row>
-    <row r="684" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I684"/>
       <c r="J684"/>
       <c r="K684"/>
     </row>
-    <row r="685" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I685"/>
       <c r="J685"/>
       <c r="K685"/>
     </row>
-    <row r="686" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I686"/>
       <c r="J686"/>
       <c r="K686"/>
     </row>
-    <row r="687" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I687"/>
       <c r="J687"/>
       <c r="K687"/>
     </row>
-    <row r="688" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I688"/>
       <c r="J688"/>
       <c r="K688"/>
     </row>
-    <row r="689" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I689"/>
       <c r="J689"/>
       <c r="K689"/>
     </row>
-    <row r="690" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I690"/>
       <c r="J690"/>
       <c r="K690"/>
     </row>
-    <row r="691" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I691"/>
       <c r="J691"/>
       <c r="K691"/>
     </row>
-    <row r="692" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I692"/>
       <c r="J692"/>
       <c r="K692"/>
     </row>
-    <row r="693" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I693"/>
       <c r="J693"/>
       <c r="K693"/>
     </row>
-    <row r="694" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I694"/>
       <c r="J694"/>
       <c r="K694"/>
     </row>
-    <row r="695" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I695"/>
       <c r="J695"/>
       <c r="K695"/>
     </row>
-    <row r="696" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I696"/>
       <c r="J696"/>
       <c r="K696"/>
     </row>
-    <row r="697" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I697"/>
       <c r="J697"/>
       <c r="K697"/>
     </row>
-    <row r="698" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I698"/>
       <c r="J698"/>
       <c r="K698"/>
     </row>
-    <row r="699" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I699"/>
       <c r="J699"/>
       <c r="K699"/>
     </row>
-    <row r="700" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I700"/>
       <c r="J700"/>
       <c r="K700"/>
     </row>
-    <row r="701" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I701"/>
       <c r="J701"/>
       <c r="K701"/>
     </row>
-    <row r="702" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I702"/>
       <c r="J702"/>
       <c r="K702"/>
     </row>
-    <row r="703" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I703"/>
       <c r="J703"/>
       <c r="K703"/>
     </row>
-    <row r="704" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I704"/>
       <c r="J704"/>
       <c r="K704"/>
     </row>
-    <row r="705" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I705"/>
       <c r="J705"/>
       <c r="K705"/>
     </row>
-    <row r="706" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I706"/>
       <c r="J706"/>
       <c r="K706"/>
     </row>
-    <row r="707" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I707"/>
       <c r="J707"/>
       <c r="K707"/>
     </row>
-    <row r="708" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I708"/>
       <c r="J708"/>
       <c r="K708"/>
     </row>
-    <row r="709" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I709"/>
       <c r="J709"/>
       <c r="K709"/>
     </row>
-    <row r="710" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I710"/>
       <c r="J710"/>
       <c r="K710"/>
     </row>
-    <row r="711" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I711"/>
       <c r="J711"/>
       <c r="K711"/>
     </row>
-    <row r="712" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I712"/>
       <c r="J712"/>
       <c r="K712"/>
     </row>
-    <row r="713" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I713"/>
       <c r="J713"/>
       <c r="K713"/>
     </row>
-    <row r="714" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I714"/>
       <c r="J714"/>
       <c r="K714"/>
     </row>
-    <row r="715" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I715"/>
       <c r="J715"/>
       <c r="K715"/>
     </row>
-    <row r="716" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I716"/>
       <c r="J716"/>
       <c r="K716"/>
     </row>
-    <row r="717" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I717"/>
       <c r="J717"/>
       <c r="K717"/>
     </row>
-    <row r="718" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I718"/>
       <c r="J718"/>
       <c r="K718"/>
     </row>
-    <row r="719" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I719"/>
       <c r="J719"/>
       <c r="K719"/>
     </row>
-    <row r="720" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I720"/>
       <c r="J720"/>
       <c r="K720"/>
     </row>
-    <row r="721" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I721"/>
       <c r="J721"/>
       <c r="K721"/>
     </row>
-    <row r="722" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I722"/>
       <c r="J722"/>
       <c r="K722"/>
     </row>
-    <row r="723" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I723"/>
       <c r="J723"/>
       <c r="K723"/>
     </row>
-    <row r="724" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I724"/>
       <c r="J724"/>
       <c r="K724"/>
     </row>
-    <row r="725" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I725"/>
       <c r="J725"/>
       <c r="K725"/>
     </row>
-    <row r="726" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I726"/>
       <c r="J726"/>
       <c r="K726"/>
     </row>
-    <row r="727" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I727"/>
       <c r="J727"/>
       <c r="K727"/>
     </row>
-    <row r="728" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I728"/>
       <c r="J728"/>
       <c r="K728"/>
     </row>
-    <row r="729" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I729"/>
       <c r="J729"/>
       <c r="K729"/>
     </row>
-    <row r="730" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I730"/>
       <c r="J730"/>
       <c r="K730"/>
     </row>
-    <row r="731" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I731"/>
       <c r="J731"/>
       <c r="K731"/>
     </row>
-    <row r="732" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I732"/>
       <c r="J732"/>
       <c r="K732"/>
     </row>
-    <row r="733" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I733"/>
       <c r="J733"/>
       <c r="K733"/>
     </row>
-    <row r="734" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I734"/>
       <c r="J734"/>
       <c r="K734"/>
     </row>
-    <row r="735" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I735"/>
       <c r="J735"/>
       <c r="K735"/>
     </row>
-    <row r="736" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I736"/>
       <c r="J736"/>
       <c r="K736"/>
     </row>
-    <row r="737" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I737"/>
       <c r="J737"/>
       <c r="K737"/>
     </row>
-    <row r="738" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I738"/>
       <c r="J738"/>
       <c r="K738"/>
     </row>
-    <row r="739" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I739"/>
       <c r="J739"/>
       <c r="K739"/>
     </row>
-    <row r="740" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I740"/>
       <c r="J740"/>
       <c r="K740"/>
     </row>
-    <row r="741" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I741"/>
       <c r="J741"/>
       <c r="K741"/>
     </row>
-    <row r="742" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I742"/>
       <c r="J742"/>
       <c r="K742"/>
     </row>
-    <row r="743" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I743"/>
       <c r="J743"/>
       <c r="K743"/>
     </row>
-    <row r="744" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I744"/>
       <c r="J744"/>
       <c r="K744"/>
     </row>
-    <row r="745" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I745"/>
       <c r="J745"/>
       <c r="K745"/>
     </row>
-    <row r="746" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I746"/>
       <c r="J746"/>
       <c r="K746"/>
     </row>
-    <row r="747" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I747"/>
       <c r="J747"/>
       <c r="K747"/>
     </row>
-    <row r="748" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I748"/>
       <c r="J748"/>
       <c r="K748"/>
     </row>
-    <row r="749" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I749"/>
       <c r="J749"/>
       <c r="K749"/>
     </row>
-    <row r="750" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I750"/>
       <c r="J750"/>
       <c r="K750"/>
     </row>
-    <row r="751" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I751"/>
       <c r="J751"/>
       <c r="K751"/>
     </row>
-    <row r="752" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I752"/>
       <c r="J752"/>
       <c r="K752"/>
     </row>
-    <row r="753" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I753"/>
       <c r="J753"/>
       <c r="K753"/>
     </row>
-    <row r="754" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I754"/>
       <c r="J754"/>
       <c r="K754"/>
     </row>
-    <row r="755" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I755"/>
       <c r="J755"/>
       <c r="K755"/>
     </row>
-    <row r="756" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I756"/>
       <c r="J756"/>
       <c r="K756"/>
     </row>
-    <row r="757" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I757"/>
       <c r="J757"/>
       <c r="K757"/>
     </row>
-    <row r="758" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I758"/>
       <c r="J758"/>
       <c r="K758"/>
     </row>
-    <row r="759" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I759"/>
       <c r="J759"/>
       <c r="K759"/>
     </row>
-    <row r="760" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I760"/>
       <c r="J760"/>
       <c r="K760"/>
     </row>
-    <row r="761" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I761"/>
       <c r="J761"/>
       <c r="K761"/>
     </row>
-    <row r="762" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I762"/>
       <c r="J762"/>
       <c r="K762"/>
     </row>
-    <row r="763" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I763"/>
       <c r="J763"/>
       <c r="K763"/>
     </row>
-    <row r="764" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I764"/>
       <c r="J764"/>
       <c r="K764"/>
     </row>
-    <row r="765" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I765"/>
       <c r="J765"/>
       <c r="K765"/>
     </row>
-    <row r="766" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I766"/>
       <c r="J766"/>
       <c r="K766"/>
     </row>
-    <row r="767" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I767"/>
       <c r="J767"/>
       <c r="K767"/>
     </row>
-    <row r="768" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I768"/>
       <c r="J768"/>
       <c r="K768"/>
     </row>
-    <row r="769" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I769"/>
       <c r="J769"/>
       <c r="K769"/>
     </row>
-    <row r="770" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I770"/>
       <c r="J770"/>
       <c r="K770"/>
     </row>
-    <row r="771" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I771"/>
       <c r="J771"/>
       <c r="K771"/>
     </row>
-    <row r="772" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I772"/>
       <c r="J772"/>
       <c r="K772"/>
     </row>
-    <row r="773" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I773"/>
       <c r="J773"/>
       <c r="K773"/>
     </row>
-    <row r="774" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I774"/>
       <c r="J774"/>
       <c r="K774"/>
     </row>
-    <row r="775" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I775"/>
       <c r="J775"/>
       <c r="K775"/>
     </row>
-    <row r="776" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I776"/>
       <c r="J776"/>
       <c r="K776"/>
     </row>
-    <row r="777" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I777"/>
       <c r="J777"/>
       <c r="K777"/>
     </row>
-    <row r="778" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I778"/>
       <c r="J778"/>
       <c r="K778"/>
     </row>
-    <row r="779" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I779"/>
       <c r="J779"/>
       <c r="K779"/>
     </row>
-    <row r="780" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I780"/>
       <c r="J780"/>
       <c r="K780"/>
     </row>
-    <row r="781" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I781"/>
       <c r="J781"/>
       <c r="K781"/>
     </row>
-    <row r="782" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I782"/>
       <c r="J782"/>
       <c r="K782"/>
     </row>
-    <row r="783" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I783"/>
       <c r="J783"/>
       <c r="K783"/>
     </row>
-    <row r="784" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I784"/>
       <c r="J784"/>
       <c r="K784"/>
     </row>
-    <row r="785" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I785"/>
       <c r="J785"/>
       <c r="K785"/>
     </row>
-    <row r="786" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I786"/>
       <c r="J786"/>
       <c r="K786"/>
     </row>
-    <row r="787" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I787"/>
       <c r="J787"/>
       <c r="K787"/>
     </row>
-    <row r="788" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I788"/>
       <c r="J788"/>
       <c r="K788"/>
     </row>
-    <row r="789" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I789"/>
       <c r="J789"/>
       <c r="K789"/>
     </row>
-    <row r="790" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I790"/>
       <c r="J790"/>
       <c r="K790"/>
     </row>
-    <row r="791" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I791"/>
       <c r="J791"/>
       <c r="K791"/>
     </row>
-    <row r="792" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I792"/>
       <c r="J792"/>
       <c r="K792"/>
     </row>
-    <row r="793" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I793"/>
       <c r="J793"/>
       <c r="K793"/>
     </row>
-    <row r="794" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I794"/>
       <c r="J794"/>
       <c r="K794"/>
     </row>
-    <row r="795" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I795"/>
       <c r="J795"/>
       <c r="K795"/>
     </row>
-    <row r="796" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I796"/>
       <c r="J796"/>
       <c r="K796"/>
     </row>
-    <row r="797" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I797"/>
       <c r="J797"/>
       <c r="K797"/>
     </row>
-    <row r="798" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I798"/>
       <c r="J798"/>
       <c r="K798"/>
     </row>
-    <row r="799" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I799"/>
       <c r="J799"/>
       <c r="K799"/>
     </row>
-    <row r="800" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I800"/>
       <c r="J800"/>
       <c r="K800"/>
     </row>
-    <row r="801" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I801"/>
       <c r="J801"/>
       <c r="K801"/>
     </row>
-    <row r="802" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I802"/>
       <c r="J802"/>
       <c r="K802"/>
     </row>
-    <row r="803" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I803"/>
       <c r="J803"/>
       <c r="K803"/>
     </row>
-    <row r="804" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I804"/>
       <c r="J804"/>
       <c r="K804"/>
     </row>
-    <row r="805" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I805"/>
       <c r="J805"/>
       <c r="K805"/>
     </row>
-    <row r="806" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I806"/>
       <c r="J806"/>
       <c r="K806"/>
     </row>
-    <row r="807" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I807"/>
       <c r="J807"/>
       <c r="K807"/>
     </row>
-    <row r="808" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I808"/>
       <c r="J808"/>
       <c r="K808"/>
     </row>
-    <row r="809" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I809"/>
       <c r="J809"/>
       <c r="K809"/>
     </row>
-    <row r="810" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I810"/>
       <c r="J810"/>
       <c r="K810"/>
@@ -11477,6 +11483,7 @@
     <sortCondition ref="K47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>